--- a/prep/characters8bit.xlsx
+++ b/prep/characters8bit.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27746441-CC0D-F242-8471-574805AD4410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7C489-C990-3145-9DD3-6526377CD819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13180" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
+    <workbookView xWindow="-29200" yWindow="3460" windowWidth="24640" windowHeight="16500" activeTab="4" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="bar_chart" sheetId="2" r:id="rId2"/>
+    <sheet name="line_chart" sheetId="3" r:id="rId3"/>
+    <sheet name="cookies" sheetId="4" r:id="rId4"/>
+    <sheet name="family" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -307,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,6 +332,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="1"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -425,11 +436,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,11 +541,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -552,6 +797,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDF5FCE"/>
+      <color rgb="FFFF3928"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -862,14 +1113,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478EC196-EA3D-0B42-9BCE-C9EAFA77170C}">
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AW1"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="49" width="5.83203125" customWidth="1"/>
+    <col min="3" max="49" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
@@ -4100,19 +4351,29 @@
         <v>1</v>
       </c>
       <c r="R34" s="3"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
       <c r="Y34" s="2"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
+      <c r="AD34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>1</v>
+      </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="3"/>
@@ -4166,19 +4427,35 @@
         <v>1</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="S35" s="4">
+        <v>1</v>
+      </c>
+      <c r="T35" s="4">
+        <v>1</v>
+      </c>
+      <c r="U35" s="4">
+        <v>1</v>
+      </c>
       <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="5"/>
+      <c r="W35" s="4">
+        <v>1</v>
+      </c>
+      <c r="X35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>1</v>
+      </c>
       <c r="Z35" s="6"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
+      <c r="AD35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>1</v>
+      </c>
       <c r="AF35" s="4"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="6"/>
@@ -4232,19 +4509,37 @@
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="5"/>
+      <c r="S36" s="4">
+        <v>1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>1</v>
+      </c>
+      <c r="W36" s="4">
+        <v>1</v>
+      </c>
+      <c r="X36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>1</v>
+      </c>
       <c r="Z36" s="6"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
+      <c r="AD36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>1</v>
+      </c>
       <c r="AF36" s="4"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="6"/>
@@ -4298,19 +4593,37 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="5"/>
+      <c r="S37" s="4">
+        <v>1</v>
+      </c>
+      <c r="T37" s="4">
+        <v>1</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>1</v>
+      </c>
+      <c r="W37" s="4">
+        <v>1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>1</v>
+      </c>
       <c r="Z37" s="6"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
+      <c r="AD37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>1</v>
+      </c>
       <c r="AF37" s="4"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="6"/>
@@ -4361,11 +4674,21 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="6"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="T38" s="4">
+        <v>1</v>
+      </c>
+      <c r="U38" s="4">
+        <v>1</v>
+      </c>
+      <c r="V38" s="4">
+        <v>1</v>
+      </c>
+      <c r="W38" s="4">
+        <v>1</v>
+      </c>
+      <c r="X38" s="4">
+        <v>1</v>
+      </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="4"/>
@@ -4424,17 +4747,27 @@
       <c r="R39" s="6"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
+      <c r="U39" s="4">
+        <v>1</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <v>1</v>
+      </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
+      <c r="AD39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>1</v>
+      </c>
       <c r="AF39" s="4"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="6"/>
@@ -4495,7 +4828,9 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="V40" s="4">
+        <v>1</v>
+      </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="5"/>
@@ -4503,8 +4838,12 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
+      <c r="AD40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>1</v>
+      </c>
       <c r="AF40" s="4"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="6"/>
@@ -4579,80 +4918,5786 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:I9 C18:I41">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ10:AW17 K2:Q9 AA2:AG41 AI2:AO17 K25:Q41 S2:Y17 S26:Y41 AI26:AO41 AQ26:AW41">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+  <conditionalFormatting sqref="AQ10:AW17 K2:Q9 AA2:AG33 AI2:AO17 K25:Q41 S2:Y17 S26:Y33 AI26:AO41 AQ26:AW41">
+    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J9 R2:R17 Z2:Z41 AH2:AH17 AP10:AP17 J18:J41 R26:R41 AH26:AH41 AP26:AP41">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+  <conditionalFormatting sqref="J2:J9 R2:R17 Z2:Z33 AH2:AH17 AP10:AP17 J18:J41 R26:R33 AH26:AH41 AP26:AP41">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW9">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AP9">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I17">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:Q17">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:Q24">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:Y25">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R25">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18:AO25">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18:AH25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:AW25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AP25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S34:Y41">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:R41">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA34:AG41">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z34:Z41">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E5D1B-61DD-7541-B70F-39B12913C18D}">
+  <dimension ref="A1:AG20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AG20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="31" width="3.83203125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1">
+        <f>13*8*8</f>
+        <v>832</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="13"/>
+      <c r="AG1">
+        <f>SUM(B1:AE20)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" s="14"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="15"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="15"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="15"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" s="14"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="15"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="B6" s="14"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="15"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="B7" s="14"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="15"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="15"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="15"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="14"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="B16" s="14"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="14"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="14"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="14"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="2:31" ht="17" thickBot="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C20 E1:AE20">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D20">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9D68E-F0BC-994F-A2BA-0C1D86F981AE}">
+  <dimension ref="A1:AG20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="31" width="3.83203125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1">
+        <f>13*8*8</f>
+        <v>832</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="13"/>
+      <c r="AG1">
+        <f>SUM(B1:AE20)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" s="14"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="15"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="15"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="15"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" s="14"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="15"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="B6" s="14"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="15"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="B7" s="14"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="15"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="15"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="15"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="14"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="B16" s="14"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="14"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="14"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="14"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="2:31" ht="17" thickBot="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C20 D2:D18 E1:AE20">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 D19:D20">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26792A56-0C3A-9144-AB7F-6191D390D644}">
+  <dimension ref="A1:AG20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="31" width="3.83203125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1">
+        <f>13*8*8</f>
+        <v>832</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="13"/>
+      <c r="AG1">
+        <f>SUM(B1:AE20)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="B2" s="14"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="15"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="B3" s="14"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="15"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="15"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" s="14"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="15"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="B6" s="14"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="15"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="B7" s="14"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="15"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="15"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="15"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="14"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="15"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="15"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="15"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="14"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="15"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="14"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="15"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="14"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="15"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="B16" s="14"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="15"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="14"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="15"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="14"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="15"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="14"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="15"/>
+    </row>
+    <row r="20" spans="2:31" ht="17" thickBot="1">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C20 D2:D18 E1:AE20">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 D19:D20">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA338F-E0FB-C846-A07A-B2575563724D}">
+  <dimension ref="A1:BL40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BA14" sqref="BA14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="41" width="3.83203125" style="10" customWidth="1"/>
+    <col min="42" max="64" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64">
+      <c r="A1">
+        <f>13*8*8</f>
+        <v>832</v>
+      </c>
+      <c r="W1" s="19"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="21"/>
+      <c r="BL1">
+        <f>SUM(W1:BJ40)</f>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+    </row>
+    <row r="3" spans="1:64">
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="24"/>
+    </row>
+    <row r="4" spans="1:64">
+      <c r="W4" s="22"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="24"/>
+    </row>
+    <row r="5" spans="1:64">
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
+      <c r="AI5" s="23"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="24"/>
+    </row>
+    <row r="6" spans="1:64">
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="24"/>
+    </row>
+    <row r="7" spans="1:64">
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="24"/>
+    </row>
+    <row r="8" spans="1:64">
+      <c r="W8" s="22"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="24"/>
+    </row>
+    <row r="9" spans="1:64">
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="24"/>
+    </row>
+    <row r="10" spans="1:64">
+      <c r="W10" s="22"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="23"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="24"/>
+    </row>
+    <row r="11" spans="1:64">
+      <c r="W11" s="22"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="24"/>
+    </row>
+    <row r="12" spans="1:64">
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="24"/>
+    </row>
+    <row r="13" spans="1:64">
+      <c r="W13" s="22"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="23">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="23">
+        <v>5</v>
+      </c>
+      <c r="AR13" s="23">
+        <v>5</v>
+      </c>
+      <c r="AS13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="24"/>
+    </row>
+    <row r="14" spans="1:64">
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
+      <c r="AJ14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="24"/>
+    </row>
+    <row r="15" spans="1:64">
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="23">
+        <v>4</v>
+      </c>
+      <c r="AP15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="24"/>
+    </row>
+    <row r="16" spans="1:64">
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="24"/>
+    </row>
+    <row r="17" spans="23:62">
+      <c r="W17" s="22"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="24"/>
+    </row>
+    <row r="18" spans="23:62">
+      <c r="W18" s="22"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="24"/>
+    </row>
+    <row r="19" spans="23:62">
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="24"/>
+    </row>
+    <row r="20" spans="23:62">
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="24"/>
+    </row>
+    <row r="21" spans="23:62">
+      <c r="W21" s="22"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
+      <c r="BI21" s="23"/>
+      <c r="BJ21" s="24"/>
+    </row>
+    <row r="22" spans="23:62">
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="23">
+        <v>9</v>
+      </c>
+      <c r="AO22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="23">
+        <v>9</v>
+      </c>
+      <c r="AR22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="24"/>
+    </row>
+    <row r="23" spans="23:62">
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP23" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="23"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="23"/>
+      <c r="BI23" s="23"/>
+      <c r="BJ23" s="24"/>
+    </row>
+    <row r="24" spans="23:62">
+      <c r="W24" s="22"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP24" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23"/>
+      <c r="BC24" s="23"/>
+      <c r="BD24" s="23"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="23"/>
+      <c r="BI24" s="23"/>
+      <c r="BJ24" s="24"/>
+    </row>
+    <row r="25" spans="23:62">
+      <c r="W25" s="22"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP25" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="24"/>
+    </row>
+    <row r="26" spans="23:62">
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP26" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="24"/>
+    </row>
+    <row r="27" spans="23:62">
+      <c r="W27" s="22"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP27" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="23"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="23"/>
+      <c r="BD27" s="23"/>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="24"/>
+    </row>
+    <row r="28" spans="23:62">
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP28" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="23"/>
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="23"/>
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="24"/>
+    </row>
+    <row r="29" spans="23:62">
+      <c r="W29" s="22"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="23">
+        <v>5</v>
+      </c>
+      <c r="AI29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="23">
+        <v>5</v>
+      </c>
+      <c r="AL29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP29" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS29" s="23">
+        <v>5</v>
+      </c>
+      <c r="AT29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW29" s="23">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="23"/>
+      <c r="BA29" s="23"/>
+      <c r="BB29" s="23"/>
+      <c r="BC29" s="23"/>
+      <c r="BD29" s="23"/>
+      <c r="BE29" s="23"/>
+      <c r="BF29" s="23"/>
+      <c r="BG29" s="23"/>
+      <c r="BH29" s="23"/>
+      <c r="BI29" s="23"/>
+      <c r="BJ29" s="24"/>
+    </row>
+    <row r="30" spans="23:62">
+      <c r="W30" s="22"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="23">
+        <v>4</v>
+      </c>
+      <c r="AG30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="23">
+        <v>4</v>
+      </c>
+      <c r="AO30" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP30" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ30" s="23">
+        <v>4</v>
+      </c>
+      <c r="AR30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU30" s="23">
+        <v>4</v>
+      </c>
+      <c r="AV30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ30" s="23"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="23"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="23"/>
+      <c r="BF30" s="23"/>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23"/>
+      <c r="BJ30" s="24"/>
+    </row>
+    <row r="31" spans="23:62">
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP31" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ31" s="23">
+        <v>9</v>
+      </c>
+      <c r="AR31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="23"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="23"/>
+      <c r="BC31" s="23"/>
+      <c r="BD31" s="23"/>
+      <c r="BE31" s="23"/>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="23"/>
+      <c r="BH31" s="23"/>
+      <c r="BI31" s="23"/>
+      <c r="BJ31" s="24"/>
+    </row>
+    <row r="32" spans="23:62">
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH32" s="23">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK32" s="23">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP32" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ32" s="23">
+        <v>9</v>
+      </c>
+      <c r="AR32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT32" s="23">
+        <v>3</v>
+      </c>
+      <c r="AU32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV32" s="23">
+        <v>3</v>
+      </c>
+      <c r="AW32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="24"/>
+    </row>
+    <row r="33" spans="23:62">
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI33" s="23">
+        <v>3</v>
+      </c>
+      <c r="AJ33" s="23">
+        <v>3</v>
+      </c>
+      <c r="AK33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AM33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP33" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ33" s="23">
+        <v>9</v>
+      </c>
+      <c r="AR33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="23">
+        <v>3</v>
+      </c>
+      <c r="AU33" s="23">
+        <v>3</v>
+      </c>
+      <c r="AV33" s="23">
+        <v>3</v>
+      </c>
+      <c r="AW33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="24"/>
+    </row>
+    <row r="34" spans="23:62">
+      <c r="W34" s="22"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="23">
+        <v>9</v>
+      </c>
+      <c r="AM34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ34" s="23">
+        <v>9</v>
+      </c>
+      <c r="AR34" s="23">
+        <v>9</v>
+      </c>
+      <c r="AS34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="24"/>
+    </row>
+    <row r="35" spans="23:62">
+      <c r="W35" s="22"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="23">
+        <v>6</v>
+      </c>
+      <c r="AI35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="23">
+        <v>6</v>
+      </c>
+      <c r="AM35" s="23">
+        <v>6</v>
+      </c>
+      <c r="AN35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ35" s="23">
+        <v>9</v>
+      </c>
+      <c r="AR35" s="23">
+        <v>7</v>
+      </c>
+      <c r="AS35" s="23">
+        <v>7</v>
+      </c>
+      <c r="AT35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV35" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="23">
+        <v>7</v>
+      </c>
+      <c r="AX35" s="23">
+        <v>7</v>
+      </c>
+      <c r="AY35" s="23"/>
+      <c r="AZ35" s="23"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="23"/>
+      <c r="BC35" s="23"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
+      <c r="BJ35" s="24"/>
+    </row>
+    <row r="36" spans="23:62">
+      <c r="W36" s="22"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AG36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AH36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AI36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AL36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AM36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AN36" s="23">
+        <v>6</v>
+      </c>
+      <c r="AO36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="23">
+        <v>9</v>
+      </c>
+      <c r="AQ36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AR36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AS36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AT36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU36" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AW36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AX36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AY36" s="23">
+        <v>7</v>
+      </c>
+      <c r="AZ36" s="23"/>
+      <c r="BA36" s="23"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="23"/>
+      <c r="BI36" s="23"/>
+      <c r="BJ36" s="24"/>
+    </row>
+    <row r="37" spans="23:62">
+      <c r="W37" s="22"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AI37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AJ37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AK37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AL37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AM37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AN37" s="23">
+        <v>6</v>
+      </c>
+      <c r="AO37" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AQ37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AR37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AS37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AT37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AU37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AV37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AW37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AX37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AY37" s="23">
+        <v>7</v>
+      </c>
+      <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
+      <c r="BE37" s="23"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BI37" s="23"/>
+      <c r="BJ37" s="24"/>
+    </row>
+    <row r="38" spans="23:62">
+      <c r="W38" s="22"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AG38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AH38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AI38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AJ38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AK38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AL38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AM38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AN38" s="23">
+        <v>6</v>
+      </c>
+      <c r="AO38" s="23">
+        <v>9</v>
+      </c>
+      <c r="AP38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AQ38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AR38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AS38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AT38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AU38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AV38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AW38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AX38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AY38" s="23">
+        <v>7</v>
+      </c>
+      <c r="AZ38" s="23"/>
+      <c r="BA38" s="23"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
+      <c r="BE38" s="23"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="23"/>
+      <c r="BI38" s="23"/>
+      <c r="BJ38" s="24"/>
+    </row>
+    <row r="39" spans="23:62">
+      <c r="W39" s="22"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="24"/>
+    </row>
+    <row r="40" spans="23:62" ht="17" thickBot="1">
+      <c r="W40" s="25"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="27"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="W1:BJ40">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <picture r:id="rId1"/>
+</worksheet>
 </file>
--- a/prep/characters8bit.xlsx
+++ b/prep/characters8bit.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7C489-C990-3145-9DD3-6526377CD819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E1D71-6161-5D41-8443-6B2367FA33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29200" yWindow="3460" windowWidth="24640" windowHeight="16500" activeTab="4" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
+    <workbookView xWindow="-29200" yWindow="3460" windowWidth="24640" windowHeight="16500" activeTab="1" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="bar_chart" sheetId="2" r:id="rId2"/>
     <sheet name="line_chart" sheetId="3" r:id="rId3"/>
-    <sheet name="cookies" sheetId="4" r:id="rId4"/>
-    <sheet name="family" sheetId="5" r:id="rId5"/>
+    <sheet name="family" sheetId="5" r:id="rId4"/>
+    <sheet name="cookie" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -311,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,6 +335,13 @@
     <font>
       <sz val="1"/>
       <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color rgb="FFDCA562"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -530,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -559,11 +566,180 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF955941"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF633E2F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB67A40"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCA562"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6BF79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -781,24 +957,15 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF955941"/>
+      <color rgb="FF633E2F"/>
+      <color rgb="FFB67A40"/>
+      <color rgb="FFDCA562"/>
+      <color rgb="FFF6BF79"/>
       <color rgb="FFDF5FCE"/>
       <color rgb="FFFF3928"/>
     </mruColors>
@@ -1114,7 +1281,7 @@
   <dimension ref="A1:AW41"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AN38" sqref="AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4380,7 +4547,9 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AL34" s="1">
+        <v>1</v>
+      </c>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="2"/>
@@ -4459,12 +4628,20 @@
       <c r="AF35" s="4"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="6"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
+      <c r="AI35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>1</v>
+      </c>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
+      <c r="AM35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>1</v>
+      </c>
       <c r="AO35" s="5"/>
       <c r="AP35" s="6"/>
       <c r="AQ35" s="4"/>
@@ -4543,12 +4720,18 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="6"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
+      <c r="AI36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>1</v>
+      </c>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
+      <c r="AN36" s="4">
+        <v>1</v>
+      </c>
       <c r="AO36" s="5"/>
       <c r="AP36" s="6"/>
       <c r="AQ36" s="4"/>
@@ -4633,7 +4816,9 @@
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
-      <c r="AO37" s="5"/>
+      <c r="AO37" s="5">
+        <v>1</v>
+      </c>
       <c r="AP37" s="6"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
@@ -4705,7 +4890,9 @@
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
-      <c r="AO38" s="5"/>
+      <c r="AO38" s="5">
+        <v>1</v>
+      </c>
       <c r="AP38" s="6"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
@@ -4771,12 +4958,18 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="6"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
+      <c r="AI39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>1</v>
+      </c>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
+      <c r="AN39" s="4">
+        <v>1</v>
+      </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="6"/>
       <c r="AQ39" s="4"/>
@@ -4847,12 +5040,20 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="6"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
+      <c r="AI40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>1</v>
+      </c>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
+      <c r="AM40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>1</v>
+      </c>
       <c r="AO40" s="5"/>
       <c r="AP40" s="6"/>
       <c r="AQ40" s="4"/>
@@ -4902,7 +5103,9 @@
       <c r="AI41" s="7"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="7"/>
-      <c r="AL41" s="7"/>
+      <c r="AL41" s="7">
+        <v>1</v>
+      </c>
       <c r="AM41" s="7"/>
       <c r="AN41" s="7"/>
       <c r="AO41" s="8"/>
@@ -4918,97 +5121,97 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:I9 C18:I41">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ10:AW17 K2:Q9 AA2:AG33 AI2:AO17 K25:Q41 S2:Y17 S26:Y33 AI26:AO41 AQ26:AW41">
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9 R2:R17 Z2:Z33 AH2:AH17 AP10:AP17 J18:J41 R26:R33 AH26:AH41 AP26:AP41">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW9">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AP9">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I17">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:Q17">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J17">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:Q24">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:Y25">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R25">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18:AO25">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18:AH25">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:AW25">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AP25">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:Y41">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R41">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AG41">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:Z41">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5020,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E5D1B-61DD-7541-B70F-39B12913C18D}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5066,7 +5269,7 @@
       <c r="AE1" s="13"/>
       <c r="AG1">
         <f>SUM(B1:AE20)</f>
-        <v>180</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -5975,33 +6178,87 @@
     </row>
     <row r="19" spans="2:31">
       <c r="B19" s="14"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>2</v>
+      </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="15"/>
     </row>
@@ -6039,12 +6296,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C20 E1:AE20">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D20">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6923,12 +7180,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:C20 D2:D18 E1:AE20">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1 D19:D20">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6937,889 +7194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26792A56-0C3A-9144-AB7F-6191D390D644}">
-  <dimension ref="A1:AG20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA338F-E0FB-C846-A07A-B2575563724D}">
+  <dimension ref="A1:BL120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="31" width="3.83203125" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1">
-        <f>13*8*8</f>
-        <v>832</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="13"/>
-      <c r="AG1">
-        <f>SUM(B1:AE20)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="B3" s="14"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="15"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="B4" s="14"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="15"/>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="B5" s="14"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="15"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="B6" s="14"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="15"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="B7" s="14"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="15"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="B8" s="14"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1">
-        <v>1</v>
-      </c>
-      <c r="W8" s="1">
-        <v>1</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="15"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="B9" s="14"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="15"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="B10" s="14"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="15"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="B11" s="14"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="15"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="B12" s="14"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="B13" s="14"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="B14" s="14"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="B15" s="14"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="B16" s="14"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="15"/>
-    </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="14"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="14"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="14"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="15"/>
-    </row>
-    <row r="20" spans="2:31" ht="17" thickBot="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="18"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:C20 D2:D18 E1:AE20">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D19:D20">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA338F-E0FB-C846-A07A-B2575563724D}">
-  <dimension ref="A1:BL40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+    <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z77" sqref="Z77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10670,34 +10049,5927 @@
       <c r="BI40" s="26"/>
       <c r="BJ40" s="27"/>
     </row>
+    <row r="80" ht="17" thickBot="1"/>
+    <row r="81" spans="25:64">
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="20"/>
+      <c r="AO81" s="20"/>
+      <c r="AP81" s="20"/>
+      <c r="AQ81" s="20"/>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="20"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="20"/>
+      <c r="BA81" s="20"/>
+      <c r="BB81" s="20"/>
+      <c r="BC81" s="20"/>
+      <c r="BD81" s="20"/>
+      <c r="BE81" s="20"/>
+      <c r="BF81" s="20"/>
+      <c r="BG81" s="20"/>
+      <c r="BH81" s="20"/>
+      <c r="BI81" s="20"/>
+      <c r="BJ81" s="20"/>
+      <c r="BK81" s="20"/>
+      <c r="BL81" s="21"/>
+    </row>
+    <row r="82" spans="25:64">
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="23"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="23"/>
+      <c r="AD82" s="23"/>
+      <c r="AE82" s="23"/>
+      <c r="AF82" s="23"/>
+      <c r="AG82" s="23"/>
+      <c r="AH82" s="23"/>
+      <c r="AI82" s="23"/>
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="23"/>
+      <c r="AL82" s="23"/>
+      <c r="AM82" s="23"/>
+      <c r="AN82" s="23"/>
+      <c r="AO82" s="23"/>
+      <c r="AP82" s="23"/>
+      <c r="AQ82" s="23"/>
+      <c r="AR82" s="23"/>
+      <c r="AS82" s="23"/>
+      <c r="AT82" s="23"/>
+      <c r="AU82" s="23"/>
+      <c r="AV82" s="23"/>
+      <c r="AW82" s="23"/>
+      <c r="AX82" s="23"/>
+      <c r="AY82" s="23"/>
+      <c r="AZ82" s="23"/>
+      <c r="BA82" s="23"/>
+      <c r="BB82" s="23"/>
+      <c r="BC82" s="23"/>
+      <c r="BD82" s="23"/>
+      <c r="BE82" s="23"/>
+      <c r="BF82" s="23"/>
+      <c r="BG82" s="23"/>
+      <c r="BH82" s="23"/>
+      <c r="BI82" s="23"/>
+      <c r="BJ82" s="23"/>
+      <c r="BK82" s="23"/>
+      <c r="BL82" s="24"/>
+    </row>
+    <row r="83" spans="25:64">
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
+      <c r="AD83" s="23"/>
+      <c r="AE83" s="23"/>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="23"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="23"/>
+      <c r="AL83" s="23"/>
+      <c r="AM83" s="23"/>
+      <c r="AN83" s="23"/>
+      <c r="AO83" s="23"/>
+      <c r="AP83" s="23"/>
+      <c r="AQ83" s="23"/>
+      <c r="AR83" s="23"/>
+      <c r="AS83" s="23"/>
+      <c r="AT83" s="23"/>
+      <c r="AU83" s="23"/>
+      <c r="AV83" s="23"/>
+      <c r="AW83" s="23"/>
+      <c r="AX83" s="23"/>
+      <c r="AY83" s="23"/>
+      <c r="AZ83" s="23"/>
+      <c r="BA83" s="23"/>
+      <c r="BB83" s="23"/>
+      <c r="BC83" s="23"/>
+      <c r="BD83" s="23"/>
+      <c r="BE83" s="23"/>
+      <c r="BF83" s="23"/>
+      <c r="BG83" s="23"/>
+      <c r="BH83" s="23"/>
+      <c r="BI83" s="23"/>
+      <c r="BJ83" s="23"/>
+      <c r="BK83" s="23"/>
+      <c r="BL83" s="24"/>
+    </row>
+    <row r="84" spans="25:64">
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="23"/>
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="23"/>
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="23"/>
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="23"/>
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="23"/>
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="23"/>
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="23"/>
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="24"/>
+    </row>
+    <row r="85" spans="25:64">
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="23"/>
+      <c r="AL85" s="23"/>
+      <c r="AM85" s="23"/>
+      <c r="AN85" s="23"/>
+      <c r="AO85" s="23"/>
+      <c r="AP85" s="23"/>
+      <c r="AQ85" s="23"/>
+      <c r="AR85" s="23"/>
+      <c r="AS85" s="23"/>
+      <c r="AT85" s="23"/>
+      <c r="AU85" s="23"/>
+      <c r="AV85" s="23"/>
+      <c r="AW85" s="23"/>
+      <c r="AX85" s="23"/>
+      <c r="AY85" s="23"/>
+      <c r="AZ85" s="23"/>
+      <c r="BA85" s="23"/>
+      <c r="BB85" s="23"/>
+      <c r="BC85" s="23"/>
+      <c r="BD85" s="23"/>
+      <c r="BE85" s="23"/>
+      <c r="BF85" s="23"/>
+      <c r="BG85" s="23"/>
+      <c r="BH85" s="23"/>
+      <c r="BI85" s="23"/>
+      <c r="BJ85" s="23"/>
+      <c r="BK85" s="23"/>
+      <c r="BL85" s="24"/>
+    </row>
+    <row r="86" spans="25:64">
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="23"/>
+      <c r="AE86" s="23"/>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="23"/>
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="23"/>
+      <c r="AL86" s="23"/>
+      <c r="AM86" s="23"/>
+      <c r="AN86" s="23"/>
+      <c r="AO86" s="23"/>
+      <c r="AP86" s="23"/>
+      <c r="AQ86" s="23"/>
+      <c r="AR86" s="23"/>
+      <c r="AS86" s="23"/>
+      <c r="AT86" s="23"/>
+      <c r="AU86" s="23"/>
+      <c r="AV86" s="23"/>
+      <c r="AW86" s="23"/>
+      <c r="AX86" s="23"/>
+      <c r="AY86" s="23"/>
+      <c r="AZ86" s="23"/>
+      <c r="BA86" s="23"/>
+      <c r="BB86" s="23"/>
+      <c r="BC86" s="23"/>
+      <c r="BD86" s="23"/>
+      <c r="BE86" s="23"/>
+      <c r="BF86" s="23"/>
+      <c r="BG86" s="23"/>
+      <c r="BH86" s="23"/>
+      <c r="BI86" s="23"/>
+      <c r="BJ86" s="23"/>
+      <c r="BK86" s="23"/>
+      <c r="BL86" s="24"/>
+    </row>
+    <row r="87" spans="25:64">
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+      <c r="AL87" s="23"/>
+      <c r="AM87" s="23"/>
+      <c r="AN87" s="23"/>
+      <c r="AO87" s="23"/>
+      <c r="AP87" s="23"/>
+      <c r="AQ87" s="23"/>
+      <c r="AR87" s="23"/>
+      <c r="AS87" s="23"/>
+      <c r="AT87" s="23"/>
+      <c r="AU87" s="23"/>
+      <c r="AV87" s="23"/>
+      <c r="AW87" s="23"/>
+      <c r="AX87" s="23"/>
+      <c r="AY87" s="23"/>
+      <c r="AZ87" s="23"/>
+      <c r="BA87" s="23"/>
+      <c r="BB87" s="23"/>
+      <c r="BC87" s="23"/>
+      <c r="BD87" s="23"/>
+      <c r="BE87" s="23"/>
+      <c r="BF87" s="23"/>
+      <c r="BG87" s="23"/>
+      <c r="BH87" s="23"/>
+      <c r="BI87" s="23"/>
+      <c r="BJ87" s="23"/>
+      <c r="BK87" s="23"/>
+      <c r="BL87" s="24"/>
+    </row>
+    <row r="88" spans="25:64">
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+      <c r="AL88" s="23"/>
+      <c r="AM88" s="23"/>
+      <c r="AN88" s="23"/>
+      <c r="AO88" s="23"/>
+      <c r="AP88" s="23"/>
+      <c r="AQ88" s="23"/>
+      <c r="AR88" s="23"/>
+      <c r="AS88" s="23"/>
+      <c r="AT88" s="23"/>
+      <c r="AU88" s="23"/>
+      <c r="AV88" s="23"/>
+      <c r="AW88" s="23"/>
+      <c r="AX88" s="23"/>
+      <c r="AY88" s="23"/>
+      <c r="AZ88" s="23"/>
+      <c r="BA88" s="23"/>
+      <c r="BB88" s="23"/>
+      <c r="BC88" s="23"/>
+      <c r="BD88" s="23"/>
+      <c r="BE88" s="23"/>
+      <c r="BF88" s="23"/>
+      <c r="BG88" s="23"/>
+      <c r="BH88" s="23"/>
+      <c r="BI88" s="23"/>
+      <c r="BJ88" s="23"/>
+      <c r="BK88" s="23"/>
+      <c r="BL88" s="24"/>
+    </row>
+    <row r="89" spans="25:64">
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="23"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="23"/>
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="23"/>
+      <c r="AL89" s="23"/>
+      <c r="AM89" s="23"/>
+      <c r="AN89" s="23"/>
+      <c r="AO89" s="23"/>
+      <c r="AP89" s="23"/>
+      <c r="AQ89" s="23"/>
+      <c r="AR89" s="23"/>
+      <c r="AS89" s="23"/>
+      <c r="AT89" s="23"/>
+      <c r="AU89" s="23"/>
+      <c r="AV89" s="23"/>
+      <c r="AW89" s="23"/>
+      <c r="AX89" s="23"/>
+      <c r="AY89" s="23"/>
+      <c r="AZ89" s="23"/>
+      <c r="BA89" s="23"/>
+      <c r="BB89" s="23"/>
+      <c r="BC89" s="23"/>
+      <c r="BD89" s="23"/>
+      <c r="BE89" s="23"/>
+      <c r="BF89" s="23"/>
+      <c r="BG89" s="23"/>
+      <c r="BH89" s="23"/>
+      <c r="BI89" s="23"/>
+      <c r="BJ89" s="23"/>
+      <c r="BK89" s="23"/>
+      <c r="BL89" s="24"/>
+    </row>
+    <row r="90" spans="25:64">
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="23"/>
+      <c r="AE90" s="23"/>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+      <c r="AJ90" s="23"/>
+      <c r="AK90" s="23"/>
+      <c r="AL90" s="23"/>
+      <c r="AM90" s="23"/>
+      <c r="AN90" s="23"/>
+      <c r="AO90" s="23"/>
+      <c r="AP90" s="23"/>
+      <c r="AQ90" s="23"/>
+      <c r="AR90" s="23"/>
+      <c r="AS90" s="23"/>
+      <c r="AT90" s="23"/>
+      <c r="AU90" s="23"/>
+      <c r="AV90" s="23"/>
+      <c r="AW90" s="23"/>
+      <c r="AX90" s="23"/>
+      <c r="AY90" s="23"/>
+      <c r="AZ90" s="23"/>
+      <c r="BA90" s="23"/>
+      <c r="BB90" s="23"/>
+      <c r="BC90" s="23"/>
+      <c r="BD90" s="23"/>
+      <c r="BE90" s="23"/>
+      <c r="BF90" s="23"/>
+      <c r="BG90" s="23"/>
+      <c r="BH90" s="23"/>
+      <c r="BI90" s="23"/>
+      <c r="BJ90" s="23"/>
+      <c r="BK90" s="23"/>
+      <c r="BL90" s="24"/>
+    </row>
+    <row r="91" spans="25:64">
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="23"/>
+      <c r="BA91" s="23"/>
+      <c r="BB91" s="23"/>
+      <c r="BC91" s="23"/>
+      <c r="BD91" s="23"/>
+      <c r="BE91" s="23"/>
+      <c r="BF91" s="23"/>
+      <c r="BG91" s="23"/>
+      <c r="BH91" s="23"/>
+      <c r="BI91" s="23"/>
+      <c r="BJ91" s="23"/>
+      <c r="BK91" s="23"/>
+      <c r="BL91" s="24"/>
+    </row>
+    <row r="92" spans="25:64">
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="23"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="23"/>
+      <c r="AG92" s="23"/>
+      <c r="AH92" s="23"/>
+      <c r="AI92" s="23"/>
+      <c r="AJ92" s="23"/>
+      <c r="AK92" s="23"/>
+      <c r="AL92" s="23"/>
+      <c r="AM92" s="23"/>
+      <c r="AN92" s="23"/>
+      <c r="AO92" s="23"/>
+      <c r="AP92" s="23"/>
+      <c r="AQ92" s="23"/>
+      <c r="AR92" s="23"/>
+      <c r="AS92" s="23"/>
+      <c r="AT92" s="23"/>
+      <c r="AU92" s="23"/>
+      <c r="AV92" s="23"/>
+      <c r="AW92" s="23"/>
+      <c r="AX92" s="23"/>
+      <c r="AY92" s="23"/>
+      <c r="AZ92" s="23"/>
+      <c r="BA92" s="23"/>
+      <c r="BB92" s="23"/>
+      <c r="BC92" s="23"/>
+      <c r="BD92" s="23"/>
+      <c r="BE92" s="23"/>
+      <c r="BF92" s="23"/>
+      <c r="BG92" s="23"/>
+      <c r="BH92" s="23"/>
+      <c r="BI92" s="23"/>
+      <c r="BJ92" s="23"/>
+      <c r="BK92" s="23"/>
+      <c r="BL92" s="24"/>
+    </row>
+    <row r="93" spans="25:64">
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="23"/>
+      <c r="AE93" s="23"/>
+      <c r="AF93" s="23"/>
+      <c r="AG93" s="23"/>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="23"/>
+      <c r="AJ93" s="23"/>
+      <c r="AK93" s="23"/>
+      <c r="AL93" s="23"/>
+      <c r="AM93" s="23"/>
+      <c r="AN93" s="23"/>
+      <c r="AO93" s="23"/>
+      <c r="AP93" s="23"/>
+      <c r="AQ93" s="23"/>
+      <c r="AR93" s="23"/>
+      <c r="AS93" s="23"/>
+      <c r="AT93" s="23"/>
+      <c r="AU93" s="23"/>
+      <c r="AV93" s="23"/>
+      <c r="AW93" s="23"/>
+      <c r="AX93" s="23"/>
+      <c r="AY93" s="23"/>
+      <c r="AZ93" s="23"/>
+      <c r="BA93" s="23"/>
+      <c r="BB93" s="23"/>
+      <c r="BC93" s="23"/>
+      <c r="BD93" s="23"/>
+      <c r="BE93" s="23"/>
+      <c r="BF93" s="23"/>
+      <c r="BG93" s="23"/>
+      <c r="BH93" s="23"/>
+      <c r="BI93" s="23"/>
+      <c r="BJ93" s="23"/>
+      <c r="BK93" s="23"/>
+      <c r="BL93" s="24"/>
+    </row>
+    <row r="94" spans="25:64">
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="23"/>
+      <c r="AE94" s="23"/>
+      <c r="AF94" s="23"/>
+      <c r="AG94" s="23"/>
+      <c r="AH94" s="23"/>
+      <c r="AI94" s="23"/>
+      <c r="AJ94" s="23"/>
+      <c r="AK94" s="23"/>
+      <c r="AL94" s="23"/>
+      <c r="AM94" s="23"/>
+      <c r="AN94" s="23"/>
+      <c r="AO94" s="23"/>
+      <c r="AP94" s="23"/>
+      <c r="AQ94" s="23"/>
+      <c r="AR94" s="23"/>
+      <c r="AS94" s="23"/>
+      <c r="AT94" s="23"/>
+      <c r="AU94" s="23"/>
+      <c r="AV94" s="23"/>
+      <c r="AW94" s="23"/>
+      <c r="AX94" s="23"/>
+      <c r="AY94" s="23"/>
+      <c r="AZ94" s="23"/>
+      <c r="BA94" s="23"/>
+      <c r="BB94" s="23"/>
+      <c r="BC94" s="23"/>
+      <c r="BD94" s="23"/>
+      <c r="BE94" s="23"/>
+      <c r="BF94" s="23"/>
+      <c r="BG94" s="23"/>
+      <c r="BH94" s="23"/>
+      <c r="BI94" s="23"/>
+      <c r="BJ94" s="23"/>
+      <c r="BK94" s="23"/>
+      <c r="BL94" s="24"/>
+    </row>
+    <row r="95" spans="25:64">
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="23"/>
+      <c r="AD95" s="23"/>
+      <c r="AE95" s="23"/>
+      <c r="AF95" s="23"/>
+      <c r="AG95" s="23"/>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="23"/>
+      <c r="AJ95" s="23"/>
+      <c r="AK95" s="23"/>
+      <c r="AL95" s="23"/>
+      <c r="AM95" s="23"/>
+      <c r="AN95" s="23"/>
+      <c r="AO95" s="23"/>
+      <c r="AP95" s="23"/>
+      <c r="AQ95" s="23"/>
+      <c r="AR95" s="23"/>
+      <c r="AS95" s="23"/>
+      <c r="AT95" s="23"/>
+      <c r="AU95" s="23"/>
+      <c r="AV95" s="23"/>
+      <c r="AW95" s="23"/>
+      <c r="AX95" s="23"/>
+      <c r="AY95" s="23"/>
+      <c r="AZ95" s="23"/>
+      <c r="BA95" s="23"/>
+      <c r="BB95" s="23"/>
+      <c r="BC95" s="23"/>
+      <c r="BD95" s="23"/>
+      <c r="BE95" s="23"/>
+      <c r="BF95" s="23"/>
+      <c r="BG95" s="23"/>
+      <c r="BH95" s="23"/>
+      <c r="BI95" s="23"/>
+      <c r="BJ95" s="23"/>
+      <c r="BK95" s="23"/>
+      <c r="BL95" s="24"/>
+    </row>
+    <row r="96" spans="25:64">
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="23"/>
+      <c r="AD96" s="23"/>
+      <c r="AE96" s="23"/>
+      <c r="AF96" s="23"/>
+      <c r="AG96" s="23"/>
+      <c r="AH96" s="23"/>
+      <c r="AI96" s="23"/>
+      <c r="AJ96" s="23"/>
+      <c r="AK96" s="23"/>
+      <c r="AL96" s="23"/>
+      <c r="AM96" s="23"/>
+      <c r="AN96" s="23"/>
+      <c r="AO96" s="23"/>
+      <c r="AP96" s="23"/>
+      <c r="AQ96" s="23"/>
+      <c r="AR96" s="23"/>
+      <c r="AS96" s="23"/>
+      <c r="AT96" s="23"/>
+      <c r="AU96" s="23"/>
+      <c r="AV96" s="23"/>
+      <c r="AW96" s="23"/>
+      <c r="AX96" s="23"/>
+      <c r="AY96" s="23"/>
+      <c r="AZ96" s="23"/>
+      <c r="BA96" s="23"/>
+      <c r="BB96" s="23"/>
+      <c r="BC96" s="23"/>
+      <c r="BD96" s="23"/>
+      <c r="BE96" s="23"/>
+      <c r="BF96" s="23"/>
+      <c r="BG96" s="23"/>
+      <c r="BH96" s="23"/>
+      <c r="BI96" s="23"/>
+      <c r="BJ96" s="23"/>
+      <c r="BK96" s="23"/>
+      <c r="BL96" s="24"/>
+    </row>
+    <row r="97" spans="25:64">
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="23"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="23"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="23"/>
+      <c r="AJ97" s="23"/>
+      <c r="AK97" s="23"/>
+      <c r="AL97" s="23"/>
+      <c r="AM97" s="23"/>
+      <c r="AN97" s="23"/>
+      <c r="AO97" s="23"/>
+      <c r="AP97" s="23"/>
+      <c r="AQ97" s="23"/>
+      <c r="AR97" s="23"/>
+      <c r="AS97" s="23"/>
+      <c r="AT97" s="23"/>
+      <c r="AU97" s="23"/>
+      <c r="AV97" s="23"/>
+      <c r="AW97" s="23"/>
+      <c r="AX97" s="23"/>
+      <c r="AY97" s="23"/>
+      <c r="AZ97" s="23"/>
+      <c r="BA97" s="23"/>
+      <c r="BB97" s="23"/>
+      <c r="BC97" s="23"/>
+      <c r="BD97" s="23"/>
+      <c r="BE97" s="23"/>
+      <c r="BF97" s="23"/>
+      <c r="BG97" s="23"/>
+      <c r="BH97" s="23"/>
+      <c r="BI97" s="23"/>
+      <c r="BJ97" s="23"/>
+      <c r="BK97" s="23"/>
+      <c r="BL97" s="24"/>
+    </row>
+    <row r="98" spans="25:64">
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="23"/>
+      <c r="AE98" s="23"/>
+      <c r="AF98" s="23"/>
+      <c r="AG98" s="23"/>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="23"/>
+      <c r="AJ98" s="23"/>
+      <c r="AK98" s="23"/>
+      <c r="AL98" s="23"/>
+      <c r="AM98" s="23"/>
+      <c r="AN98" s="23"/>
+      <c r="AO98" s="23"/>
+      <c r="AP98" s="23"/>
+      <c r="AQ98" s="23"/>
+      <c r="AR98" s="23"/>
+      <c r="AS98" s="23"/>
+      <c r="AT98" s="23"/>
+      <c r="AU98" s="23"/>
+      <c r="AV98" s="23"/>
+      <c r="AW98" s="23"/>
+      <c r="AX98" s="23"/>
+      <c r="AY98" s="23"/>
+      <c r="AZ98" s="23"/>
+      <c r="BA98" s="23"/>
+      <c r="BB98" s="23"/>
+      <c r="BC98" s="23"/>
+      <c r="BD98" s="23"/>
+      <c r="BE98" s="23"/>
+      <c r="BF98" s="23"/>
+      <c r="BG98" s="23"/>
+      <c r="BH98" s="23"/>
+      <c r="BI98" s="23"/>
+      <c r="BJ98" s="23"/>
+      <c r="BK98" s="23"/>
+      <c r="BL98" s="24"/>
+    </row>
+    <row r="99" spans="25:64">
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="23"/>
+      <c r="AK99" s="23"/>
+      <c r="AL99" s="23"/>
+      <c r="AM99" s="23"/>
+      <c r="AN99" s="23"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="23"/>
+      <c r="AQ99" s="23"/>
+      <c r="AR99" s="23"/>
+      <c r="AS99" s="23"/>
+      <c r="AT99" s="23"/>
+      <c r="AU99" s="23"/>
+      <c r="AV99" s="23"/>
+      <c r="AW99" s="23"/>
+      <c r="AX99" s="23"/>
+      <c r="AY99" s="23"/>
+      <c r="AZ99" s="23"/>
+      <c r="BA99" s="23"/>
+      <c r="BB99" s="23"/>
+      <c r="BC99" s="23"/>
+      <c r="BD99" s="23"/>
+      <c r="BE99" s="23"/>
+      <c r="BF99" s="23"/>
+      <c r="BG99" s="23"/>
+      <c r="BH99" s="23"/>
+      <c r="BI99" s="23"/>
+      <c r="BJ99" s="23"/>
+      <c r="BK99" s="23"/>
+      <c r="BL99" s="24"/>
+    </row>
+    <row r="100" spans="25:64">
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="23"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="23"/>
+      <c r="AJ100" s="23"/>
+      <c r="AK100" s="23"/>
+      <c r="AL100" s="23"/>
+      <c r="AM100" s="23"/>
+      <c r="AN100" s="23"/>
+      <c r="AO100" s="23"/>
+      <c r="AP100" s="23"/>
+      <c r="AQ100" s="23"/>
+      <c r="AR100" s="23"/>
+      <c r="AS100" s="23"/>
+      <c r="AT100" s="23"/>
+      <c r="AU100" s="23"/>
+      <c r="AV100" s="23"/>
+      <c r="AW100" s="23"/>
+      <c r="AX100" s="23"/>
+      <c r="AY100" s="23"/>
+      <c r="AZ100" s="23"/>
+      <c r="BA100" s="23"/>
+      <c r="BB100" s="23"/>
+      <c r="BC100" s="23"/>
+      <c r="BD100" s="23"/>
+      <c r="BE100" s="23"/>
+      <c r="BF100" s="23"/>
+      <c r="BG100" s="23"/>
+      <c r="BH100" s="23"/>
+      <c r="BI100" s="23"/>
+      <c r="BJ100" s="23"/>
+      <c r="BK100" s="23"/>
+      <c r="BL100" s="24"/>
+    </row>
+    <row r="101" spans="25:64">
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="23"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="23"/>
+      <c r="AJ101" s="23"/>
+      <c r="AK101" s="23"/>
+      <c r="AL101" s="23"/>
+      <c r="AM101" s="23"/>
+      <c r="AN101" s="23"/>
+      <c r="AO101" s="23"/>
+      <c r="AP101" s="23"/>
+      <c r="AQ101" s="23"/>
+      <c r="AR101" s="23"/>
+      <c r="AS101" s="23"/>
+      <c r="AT101" s="23"/>
+      <c r="AU101" s="23"/>
+      <c r="AV101" s="23"/>
+      <c r="AW101" s="23"/>
+      <c r="AX101" s="23"/>
+      <c r="AY101" s="23"/>
+      <c r="AZ101" s="23"/>
+      <c r="BA101" s="23"/>
+      <c r="BB101" s="23"/>
+      <c r="BC101" s="23"/>
+      <c r="BD101" s="23"/>
+      <c r="BE101" s="23"/>
+      <c r="BF101" s="23"/>
+      <c r="BG101" s="23"/>
+      <c r="BH101" s="23"/>
+      <c r="BI101" s="23"/>
+      <c r="BJ101" s="23"/>
+      <c r="BK101" s="23"/>
+      <c r="BL101" s="24"/>
+    </row>
+    <row r="102" spans="25:64">
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="23"/>
+      <c r="AE102" s="23"/>
+      <c r="AF102" s="23"/>
+      <c r="AG102" s="23"/>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="23"/>
+      <c r="AJ102" s="23"/>
+      <c r="AK102" s="23"/>
+      <c r="AL102" s="23"/>
+      <c r="AM102" s="23"/>
+      <c r="AN102" s="23"/>
+      <c r="AO102" s="23"/>
+      <c r="AP102" s="23"/>
+      <c r="AQ102" s="23"/>
+      <c r="AR102" s="23"/>
+      <c r="AS102" s="23"/>
+      <c r="AT102" s="23"/>
+      <c r="AU102" s="23"/>
+      <c r="AV102" s="23"/>
+      <c r="AW102" s="23"/>
+      <c r="AX102" s="23"/>
+      <c r="AY102" s="23"/>
+      <c r="AZ102" s="23"/>
+      <c r="BA102" s="23"/>
+      <c r="BB102" s="23"/>
+      <c r="BC102" s="23"/>
+      <c r="BD102" s="23"/>
+      <c r="BE102" s="23"/>
+      <c r="BF102" s="23"/>
+      <c r="BG102" s="23"/>
+      <c r="BH102" s="23"/>
+      <c r="BI102" s="23"/>
+      <c r="BJ102" s="23"/>
+      <c r="BK102" s="23"/>
+      <c r="BL102" s="24"/>
+    </row>
+    <row r="103" spans="25:64">
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23"/>
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="23"/>
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="23"/>
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="23"/>
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="23"/>
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="23"/>
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="23"/>
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="23"/>
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="24"/>
+    </row>
+    <row r="104" spans="25:64">
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="23"/>
+      <c r="AE104" s="23"/>
+      <c r="AF104" s="23"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="23"/>
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="23"/>
+      <c r="AL104" s="23"/>
+      <c r="AM104" s="23"/>
+      <c r="AN104" s="23"/>
+      <c r="AO104" s="23"/>
+      <c r="AP104" s="23"/>
+      <c r="AQ104" s="23"/>
+      <c r="AR104" s="23"/>
+      <c r="AS104" s="23"/>
+      <c r="AT104" s="23"/>
+      <c r="AU104" s="23"/>
+      <c r="AV104" s="23"/>
+      <c r="AW104" s="23"/>
+      <c r="AX104" s="23"/>
+      <c r="AY104" s="23"/>
+      <c r="AZ104" s="23"/>
+      <c r="BA104" s="23"/>
+      <c r="BB104" s="23"/>
+      <c r="BC104" s="23"/>
+      <c r="BD104" s="23"/>
+      <c r="BE104" s="23"/>
+      <c r="BF104" s="23"/>
+      <c r="BG104" s="23"/>
+      <c r="BH104" s="23"/>
+      <c r="BI104" s="23"/>
+      <c r="BJ104" s="23"/>
+      <c r="BK104" s="23"/>
+      <c r="BL104" s="24"/>
+    </row>
+    <row r="105" spans="25:64">
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="23"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
+      <c r="AE105" s="23"/>
+      <c r="AF105" s="23"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="23"/>
+      <c r="AJ105" s="23"/>
+      <c r="AK105" s="23"/>
+      <c r="AL105" s="23"/>
+      <c r="AM105" s="23"/>
+      <c r="AN105" s="23"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="23"/>
+      <c r="AQ105" s="23"/>
+      <c r="AR105" s="23"/>
+      <c r="AS105" s="23"/>
+      <c r="AT105" s="23"/>
+      <c r="AU105" s="23"/>
+      <c r="AV105" s="23"/>
+      <c r="AW105" s="23"/>
+      <c r="AX105" s="23"/>
+      <c r="AY105" s="23"/>
+      <c r="AZ105" s="23"/>
+      <c r="BA105" s="23"/>
+      <c r="BB105" s="23"/>
+      <c r="BC105" s="23"/>
+      <c r="BD105" s="23"/>
+      <c r="BE105" s="23"/>
+      <c r="BF105" s="23"/>
+      <c r="BG105" s="23"/>
+      <c r="BH105" s="23"/>
+      <c r="BI105" s="23"/>
+      <c r="BJ105" s="23"/>
+      <c r="BK105" s="23"/>
+      <c r="BL105" s="24"/>
+    </row>
+    <row r="106" spans="25:64">
+      <c r="Y106" s="22"/>
+      <c r="Z106" s="23"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="23"/>
+      <c r="AE106" s="23"/>
+      <c r="AF106" s="23"/>
+      <c r="AG106" s="23"/>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="23"/>
+      <c r="AJ106" s="23"/>
+      <c r="AK106" s="23"/>
+      <c r="AL106" s="23"/>
+      <c r="AM106" s="23"/>
+      <c r="AN106" s="23"/>
+      <c r="AO106" s="23"/>
+      <c r="AP106" s="23"/>
+      <c r="AQ106" s="23"/>
+      <c r="AR106" s="23"/>
+      <c r="AS106" s="23"/>
+      <c r="AT106" s="23"/>
+      <c r="AU106" s="23"/>
+      <c r="AV106" s="23"/>
+      <c r="AW106" s="23"/>
+      <c r="AX106" s="23"/>
+      <c r="AY106" s="23"/>
+      <c r="AZ106" s="23"/>
+      <c r="BA106" s="23"/>
+      <c r="BB106" s="23"/>
+      <c r="BC106" s="23"/>
+      <c r="BD106" s="23"/>
+      <c r="BE106" s="23"/>
+      <c r="BF106" s="23"/>
+      <c r="BG106" s="23"/>
+      <c r="BH106" s="23"/>
+      <c r="BI106" s="23"/>
+      <c r="BJ106" s="23"/>
+      <c r="BK106" s="23"/>
+      <c r="BL106" s="24"/>
+    </row>
+    <row r="107" spans="25:64">
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="23"/>
+      <c r="AF107" s="23"/>
+      <c r="AG107" s="23"/>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="23"/>
+      <c r="AJ107" s="23"/>
+      <c r="AK107" s="23"/>
+      <c r="AL107" s="23"/>
+      <c r="AM107" s="23"/>
+      <c r="AN107" s="23"/>
+      <c r="AO107" s="23"/>
+      <c r="AP107" s="23"/>
+      <c r="AQ107" s="23"/>
+      <c r="AR107" s="23"/>
+      <c r="AS107" s="23"/>
+      <c r="AT107" s="23"/>
+      <c r="AU107" s="23"/>
+      <c r="AV107" s="23"/>
+      <c r="AW107" s="23"/>
+      <c r="AX107" s="23"/>
+      <c r="AY107" s="23"/>
+      <c r="AZ107" s="23"/>
+      <c r="BA107" s="23"/>
+      <c r="BB107" s="23"/>
+      <c r="BC107" s="23"/>
+      <c r="BD107" s="23"/>
+      <c r="BE107" s="23"/>
+      <c r="BF107" s="23"/>
+      <c r="BG107" s="23"/>
+      <c r="BH107" s="23"/>
+      <c r="BI107" s="23"/>
+      <c r="BJ107" s="23"/>
+      <c r="BK107" s="23"/>
+      <c r="BL107" s="24"/>
+    </row>
+    <row r="108" spans="25:64">
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="23"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23"/>
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="23"/>
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23"/>
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23"/>
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23"/>
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="23"/>
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="23"/>
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="23"/>
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="24"/>
+    </row>
+    <row r="109" spans="25:64">
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="23"/>
+      <c r="AF109" s="23"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="23"/>
+      <c r="AJ109" s="23"/>
+      <c r="AK109" s="23"/>
+      <c r="AL109" s="23"/>
+      <c r="AM109" s="23"/>
+      <c r="AN109" s="23"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="23"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="23"/>
+      <c r="AW109" s="23"/>
+      <c r="AX109" s="23"/>
+      <c r="AY109" s="23"/>
+      <c r="AZ109" s="23"/>
+      <c r="BA109" s="23"/>
+      <c r="BB109" s="23"/>
+      <c r="BC109" s="23"/>
+      <c r="BD109" s="23"/>
+      <c r="BE109" s="23"/>
+      <c r="BF109" s="23"/>
+      <c r="BG109" s="23"/>
+      <c r="BH109" s="23"/>
+      <c r="BI109" s="23"/>
+      <c r="BJ109" s="23"/>
+      <c r="BK109" s="23"/>
+      <c r="BL109" s="24"/>
+    </row>
+    <row r="110" spans="25:64">
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="23"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="23"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23"/>
+      <c r="AE110" s="23"/>
+      <c r="AF110" s="23"/>
+      <c r="AG110" s="23"/>
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="23"/>
+      <c r="AJ110" s="23"/>
+      <c r="AK110" s="23"/>
+      <c r="AL110" s="23"/>
+      <c r="AM110" s="23"/>
+      <c r="AN110" s="23"/>
+      <c r="AO110" s="23"/>
+      <c r="AP110" s="23"/>
+      <c r="AQ110" s="23"/>
+      <c r="AR110" s="23"/>
+      <c r="AS110" s="23"/>
+      <c r="AT110" s="23"/>
+      <c r="AU110" s="23"/>
+      <c r="AV110" s="23"/>
+      <c r="AW110" s="23"/>
+      <c r="AX110" s="23"/>
+      <c r="AY110" s="23"/>
+      <c r="AZ110" s="23"/>
+      <c r="BA110" s="23"/>
+      <c r="BB110" s="23"/>
+      <c r="BC110" s="23"/>
+      <c r="BD110" s="23"/>
+      <c r="BE110" s="23"/>
+      <c r="BF110" s="23"/>
+      <c r="BG110" s="23"/>
+      <c r="BH110" s="23"/>
+      <c r="BI110" s="23"/>
+      <c r="BJ110" s="23"/>
+      <c r="BK110" s="23"/>
+      <c r="BL110" s="24"/>
+    </row>
+    <row r="111" spans="25:64">
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="23"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="23"/>
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="23"/>
+      <c r="AE111" s="23"/>
+      <c r="AF111" s="23"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="23"/>
+      <c r="AJ111" s="23"/>
+      <c r="AK111" s="23"/>
+      <c r="AL111" s="23"/>
+      <c r="AM111" s="23"/>
+      <c r="AN111" s="23"/>
+      <c r="AO111" s="23"/>
+      <c r="AP111" s="23"/>
+      <c r="AQ111" s="23"/>
+      <c r="AR111" s="23"/>
+      <c r="AS111" s="23"/>
+      <c r="AT111" s="23"/>
+      <c r="AU111" s="23"/>
+      <c r="AV111" s="23"/>
+      <c r="AW111" s="23"/>
+      <c r="AX111" s="23"/>
+      <c r="AY111" s="23"/>
+      <c r="AZ111" s="23"/>
+      <c r="BA111" s="23"/>
+      <c r="BB111" s="23"/>
+      <c r="BC111" s="23"/>
+      <c r="BD111" s="23"/>
+      <c r="BE111" s="23"/>
+      <c r="BF111" s="23"/>
+      <c r="BG111" s="23"/>
+      <c r="BH111" s="23"/>
+      <c r="BI111" s="23"/>
+      <c r="BJ111" s="23"/>
+      <c r="BK111" s="23"/>
+      <c r="BL111" s="24"/>
+    </row>
+    <row r="112" spans="25:64">
+      <c r="Y112" s="22"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="23"/>
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="23"/>
+      <c r="AE112" s="23"/>
+      <c r="AF112" s="23"/>
+      <c r="AG112" s="23"/>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="23"/>
+      <c r="AJ112" s="23"/>
+      <c r="AK112" s="23"/>
+      <c r="AL112" s="23"/>
+      <c r="AM112" s="23"/>
+      <c r="AN112" s="23"/>
+      <c r="AO112" s="23"/>
+      <c r="AP112" s="23"/>
+      <c r="AQ112" s="23"/>
+      <c r="AR112" s="23"/>
+      <c r="AS112" s="23"/>
+      <c r="AT112" s="23"/>
+      <c r="AU112" s="23"/>
+      <c r="AV112" s="23"/>
+      <c r="AW112" s="23"/>
+      <c r="AX112" s="23"/>
+      <c r="AY112" s="23"/>
+      <c r="AZ112" s="23"/>
+      <c r="BA112" s="23"/>
+      <c r="BB112" s="23"/>
+      <c r="BC112" s="23"/>
+      <c r="BD112" s="23"/>
+      <c r="BE112" s="23"/>
+      <c r="BF112" s="23"/>
+      <c r="BG112" s="23"/>
+      <c r="BH112" s="23"/>
+      <c r="BI112" s="23"/>
+      <c r="BJ112" s="23"/>
+      <c r="BK112" s="23"/>
+      <c r="BL112" s="24"/>
+    </row>
+    <row r="113" spans="25:64">
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="23"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="23"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="23"/>
+      <c r="AE113" s="23"/>
+      <c r="AF113" s="23"/>
+      <c r="AG113" s="23"/>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="23"/>
+      <c r="AJ113" s="23"/>
+      <c r="AK113" s="23"/>
+      <c r="AL113" s="23"/>
+      <c r="AM113" s="23"/>
+      <c r="AN113" s="23"/>
+      <c r="AO113" s="23"/>
+      <c r="AP113" s="23"/>
+      <c r="AQ113" s="23"/>
+      <c r="AR113" s="23"/>
+      <c r="AS113" s="23"/>
+      <c r="AT113" s="23"/>
+      <c r="AU113" s="23"/>
+      <c r="AV113" s="23"/>
+      <c r="AW113" s="23"/>
+      <c r="AX113" s="23"/>
+      <c r="AY113" s="23"/>
+      <c r="AZ113" s="23"/>
+      <c r="BA113" s="23"/>
+      <c r="BB113" s="23"/>
+      <c r="BC113" s="23"/>
+      <c r="BD113" s="23"/>
+      <c r="BE113" s="23"/>
+      <c r="BF113" s="23"/>
+      <c r="BG113" s="23"/>
+      <c r="BH113" s="23"/>
+      <c r="BI113" s="23"/>
+      <c r="BJ113" s="23"/>
+      <c r="BK113" s="23"/>
+      <c r="BL113" s="24"/>
+    </row>
+    <row r="114" spans="25:64">
+      <c r="Y114" s="22"/>
+      <c r="Z114" s="23"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="23"/>
+      <c r="AE114" s="23"/>
+      <c r="AF114" s="23"/>
+      <c r="AG114" s="23"/>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="23"/>
+      <c r="AJ114" s="23"/>
+      <c r="AK114" s="23"/>
+      <c r="AL114" s="23"/>
+      <c r="AM114" s="23"/>
+      <c r="AN114" s="23"/>
+      <c r="AO114" s="23"/>
+      <c r="AP114" s="23"/>
+      <c r="AQ114" s="23"/>
+      <c r="AR114" s="23"/>
+      <c r="AS114" s="23"/>
+      <c r="AT114" s="23"/>
+      <c r="AU114" s="23"/>
+      <c r="AV114" s="23"/>
+      <c r="AW114" s="23"/>
+      <c r="AX114" s="23"/>
+      <c r="AY114" s="23"/>
+      <c r="AZ114" s="23"/>
+      <c r="BA114" s="23"/>
+      <c r="BB114" s="23"/>
+      <c r="BC114" s="23"/>
+      <c r="BD114" s="23"/>
+      <c r="BE114" s="23"/>
+      <c r="BF114" s="23"/>
+      <c r="BG114" s="23"/>
+      <c r="BH114" s="23"/>
+      <c r="BI114" s="23"/>
+      <c r="BJ114" s="23"/>
+      <c r="BK114" s="23"/>
+      <c r="BL114" s="24"/>
+    </row>
+    <row r="115" spans="25:64">
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="23"/>
+      <c r="AA115" s="23"/>
+      <c r="AB115" s="23"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="23"/>
+      <c r="AE115" s="23"/>
+      <c r="AF115" s="23"/>
+      <c r="AG115" s="23"/>
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="23"/>
+      <c r="AJ115" s="23"/>
+      <c r="AK115" s="23"/>
+      <c r="AL115" s="23"/>
+      <c r="AM115" s="23"/>
+      <c r="AN115" s="23"/>
+      <c r="AO115" s="23"/>
+      <c r="AP115" s="23"/>
+      <c r="AQ115" s="23"/>
+      <c r="AR115" s="23"/>
+      <c r="AS115" s="23"/>
+      <c r="AT115" s="23"/>
+      <c r="AU115" s="23"/>
+      <c r="AV115" s="23"/>
+      <c r="AW115" s="23"/>
+      <c r="AX115" s="23"/>
+      <c r="AY115" s="23"/>
+      <c r="AZ115" s="23"/>
+      <c r="BA115" s="23"/>
+      <c r="BB115" s="23"/>
+      <c r="BC115" s="23"/>
+      <c r="BD115" s="23"/>
+      <c r="BE115" s="23"/>
+      <c r="BF115" s="23"/>
+      <c r="BG115" s="23"/>
+      <c r="BH115" s="23"/>
+      <c r="BI115" s="23"/>
+      <c r="BJ115" s="23"/>
+      <c r="BK115" s="23"/>
+      <c r="BL115" s="24"/>
+    </row>
+    <row r="116" spans="25:64">
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="23"/>
+      <c r="AA116" s="23"/>
+      <c r="AB116" s="23"/>
+      <c r="AC116" s="23"/>
+      <c r="AD116" s="23"/>
+      <c r="AE116" s="23"/>
+      <c r="AF116" s="23"/>
+      <c r="AG116" s="23"/>
+      <c r="AH116" s="23"/>
+      <c r="AI116" s="23"/>
+      <c r="AJ116" s="23"/>
+      <c r="AK116" s="23"/>
+      <c r="AL116" s="23"/>
+      <c r="AM116" s="23"/>
+      <c r="AN116" s="23"/>
+      <c r="AO116" s="23"/>
+      <c r="AP116" s="23"/>
+      <c r="AQ116" s="23"/>
+      <c r="AR116" s="23"/>
+      <c r="AS116" s="23"/>
+      <c r="AT116" s="23"/>
+      <c r="AU116" s="23"/>
+      <c r="AV116" s="23"/>
+      <c r="AW116" s="23"/>
+      <c r="AX116" s="23"/>
+      <c r="AY116" s="23"/>
+      <c r="AZ116" s="23"/>
+      <c r="BA116" s="23"/>
+      <c r="BB116" s="23"/>
+      <c r="BC116" s="23"/>
+      <c r="BD116" s="23"/>
+      <c r="BE116" s="23"/>
+      <c r="BF116" s="23"/>
+      <c r="BG116" s="23"/>
+      <c r="BH116" s="23"/>
+      <c r="BI116" s="23"/>
+      <c r="BJ116" s="23"/>
+      <c r="BK116" s="23"/>
+      <c r="BL116" s="24"/>
+    </row>
+    <row r="117" spans="25:64">
+      <c r="Y117" s="22"/>
+      <c r="Z117" s="23"/>
+      <c r="AA117" s="23"/>
+      <c r="AB117" s="23"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="23"/>
+      <c r="AE117" s="23"/>
+      <c r="AF117" s="23"/>
+      <c r="AG117" s="23"/>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="23"/>
+      <c r="AJ117" s="23"/>
+      <c r="AK117" s="23"/>
+      <c r="AL117" s="23"/>
+      <c r="AM117" s="23"/>
+      <c r="AN117" s="23"/>
+      <c r="AO117" s="23"/>
+      <c r="AP117" s="23"/>
+      <c r="AQ117" s="23"/>
+      <c r="AR117" s="23"/>
+      <c r="AS117" s="23"/>
+      <c r="AT117" s="23"/>
+      <c r="AU117" s="23"/>
+      <c r="AV117" s="23"/>
+      <c r="AW117" s="23"/>
+      <c r="AX117" s="23"/>
+      <c r="AY117" s="23"/>
+      <c r="AZ117" s="23"/>
+      <c r="BA117" s="23"/>
+      <c r="BB117" s="23"/>
+      <c r="BC117" s="23"/>
+      <c r="BD117" s="23"/>
+      <c r="BE117" s="23"/>
+      <c r="BF117" s="23"/>
+      <c r="BG117" s="23"/>
+      <c r="BH117" s="23"/>
+      <c r="BI117" s="23"/>
+      <c r="BJ117" s="23"/>
+      <c r="BK117" s="23"/>
+      <c r="BL117" s="24"/>
+    </row>
+    <row r="118" spans="25:64">
+      <c r="Y118" s="22"/>
+      <c r="Z118" s="23"/>
+      <c r="AA118" s="23"/>
+      <c r="AB118" s="23"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="23"/>
+      <c r="AE118" s="23"/>
+      <c r="AF118" s="23"/>
+      <c r="AG118" s="23"/>
+      <c r="AH118" s="23"/>
+      <c r="AI118" s="23"/>
+      <c r="AJ118" s="23"/>
+      <c r="AK118" s="23"/>
+      <c r="AL118" s="23"/>
+      <c r="AM118" s="23"/>
+      <c r="AN118" s="23"/>
+      <c r="AO118" s="23"/>
+      <c r="AP118" s="23"/>
+      <c r="AQ118" s="23"/>
+      <c r="AR118" s="23"/>
+      <c r="AS118" s="23"/>
+      <c r="AT118" s="23"/>
+      <c r="AU118" s="23"/>
+      <c r="AV118" s="23"/>
+      <c r="AW118" s="23"/>
+      <c r="AX118" s="23"/>
+      <c r="AY118" s="23"/>
+      <c r="AZ118" s="23"/>
+      <c r="BA118" s="23"/>
+      <c r="BB118" s="23"/>
+      <c r="BC118" s="23"/>
+      <c r="BD118" s="23"/>
+      <c r="BE118" s="23"/>
+      <c r="BF118" s="23"/>
+      <c r="BG118" s="23"/>
+      <c r="BH118" s="23"/>
+      <c r="BI118" s="23"/>
+      <c r="BJ118" s="23"/>
+      <c r="BK118" s="23"/>
+      <c r="BL118" s="24"/>
+    </row>
+    <row r="119" spans="25:64">
+      <c r="Y119" s="22"/>
+      <c r="Z119" s="23"/>
+      <c r="AA119" s="23"/>
+      <c r="AB119" s="23"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="23"/>
+      <c r="AF119" s="23"/>
+      <c r="AG119" s="23"/>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="23"/>
+      <c r="AJ119" s="23"/>
+      <c r="AK119" s="23"/>
+      <c r="AL119" s="23"/>
+      <c r="AM119" s="23"/>
+      <c r="AN119" s="23"/>
+      <c r="AO119" s="23"/>
+      <c r="AP119" s="23"/>
+      <c r="AQ119" s="23"/>
+      <c r="AR119" s="23"/>
+      <c r="AS119" s="23"/>
+      <c r="AT119" s="23"/>
+      <c r="AU119" s="23"/>
+      <c r="AV119" s="23"/>
+      <c r="AW119" s="23"/>
+      <c r="AX119" s="23"/>
+      <c r="AY119" s="23"/>
+      <c r="AZ119" s="23"/>
+      <c r="BA119" s="23"/>
+      <c r="BB119" s="23"/>
+      <c r="BC119" s="23"/>
+      <c r="BD119" s="23"/>
+      <c r="BE119" s="23"/>
+      <c r="BF119" s="23"/>
+      <c r="BG119" s="23"/>
+      <c r="BH119" s="23"/>
+      <c r="BI119" s="23"/>
+      <c r="BJ119" s="23"/>
+      <c r="BK119" s="23"/>
+      <c r="BL119" s="24"/>
+    </row>
+    <row r="120" spans="25:64" ht="17" thickBot="1">
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="26"/>
+      <c r="AA120" s="26"/>
+      <c r="AB120" s="26"/>
+      <c r="AC120" s="26"/>
+      <c r="AD120" s="26"/>
+      <c r="AE120" s="26"/>
+      <c r="AF120" s="26"/>
+      <c r="AG120" s="26"/>
+      <c r="AH120" s="26"/>
+      <c r="AI120" s="26"/>
+      <c r="AJ120" s="26"/>
+      <c r="AK120" s="26"/>
+      <c r="AL120" s="26"/>
+      <c r="AM120" s="26"/>
+      <c r="AN120" s="26"/>
+      <c r="AO120" s="26"/>
+      <c r="AP120" s="26"/>
+      <c r="AQ120" s="26"/>
+      <c r="AR120" s="26"/>
+      <c r="AS120" s="26"/>
+      <c r="AT120" s="26"/>
+      <c r="AU120" s="26"/>
+      <c r="AV120" s="26"/>
+      <c r="AW120" s="26"/>
+      <c r="AX120" s="26"/>
+      <c r="AY120" s="26"/>
+      <c r="AZ120" s="26"/>
+      <c r="BA120" s="26"/>
+      <c r="BB120" s="26"/>
+      <c r="BC120" s="26"/>
+      <c r="BD120" s="26"/>
+      <c r="BE120" s="26"/>
+      <c r="BF120" s="26"/>
+      <c r="BG120" s="26"/>
+      <c r="BH120" s="26"/>
+      <c r="BI120" s="26"/>
+      <c r="BJ120" s="26"/>
+      <c r="BK120" s="26"/>
+      <c r="BL120" s="27"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="W1:BJ40">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y81:BL120">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <picture r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A254379-7175-E24B-B67A-1A31572ACCC7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:BL120"/>
+  <sheetViews>
+    <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="22" width="3.83203125" style="10" customWidth="1"/>
+    <col min="23" max="41" width="10.83203125" style="10" customWidth="1"/>
+    <col min="42" max="62" width="10.83203125" customWidth="1"/>
+    <col min="63" max="64" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="23:62" ht="60" customHeight="1">
+      <c r="W1" s="19"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="21"/>
+    </row>
+    <row r="2" spans="23:62" ht="60" customHeight="1">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+    </row>
+    <row r="3" spans="23:62" ht="60" customHeight="1" thickBot="1">
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="24"/>
+    </row>
+    <row r="4" spans="23:62" ht="60" customHeight="1">
+      <c r="W4" s="22"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="20">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="20">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="20">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="24"/>
+    </row>
+    <row r="5" spans="23:62" ht="60" customHeight="1">
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="23"/>
+      <c r="AQ5" s="23"/>
+      <c r="AR5" s="23"/>
+      <c r="AS5" s="23"/>
+      <c r="AT5" s="23"/>
+      <c r="AU5" s="23"/>
+      <c r="AV5" s="23"/>
+      <c r="AW5" s="23"/>
+      <c r="AX5" s="23"/>
+      <c r="AY5" s="23"/>
+      <c r="AZ5" s="23"/>
+      <c r="BA5" s="23"/>
+      <c r="BB5" s="23"/>
+      <c r="BC5" s="23"/>
+      <c r="BD5" s="23"/>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="24"/>
+    </row>
+    <row r="6" spans="23:62" ht="60" customHeight="1">
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="23"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="24"/>
+    </row>
+    <row r="7" spans="23:62" ht="60" customHeight="1">
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="23">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="23">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="23">
+        <v>5</v>
+      </c>
+      <c r="AP7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="24"/>
+    </row>
+    <row r="8" spans="23:62" ht="60" customHeight="1">
+      <c r="W8" s="22"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="23">
+        <v>5</v>
+      </c>
+      <c r="AP8" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="24"/>
+    </row>
+    <row r="9" spans="23:62" ht="60" customHeight="1">
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="23">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="23">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="23">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="23">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23"/>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23"/>
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="24"/>
+    </row>
+    <row r="10" spans="23:62" ht="60" customHeight="1">
+      <c r="W10" s="22"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="23">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="23">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="23">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="23">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="23"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="24"/>
+    </row>
+    <row r="11" spans="23:62" ht="60" customHeight="1">
+      <c r="W11" s="22"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="23">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="23">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="23">
+        <v>3</v>
+      </c>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="24"/>
+    </row>
+    <row r="12" spans="23:62" ht="60" customHeight="1">
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="23">
+        <v>5</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="23">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="23">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="24"/>
+    </row>
+    <row r="13" spans="23:62" ht="60" customHeight="1">
+      <c r="W13" s="22"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="23">
+        <v>5</v>
+      </c>
+      <c r="AG13" s="23">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="23">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="23">
+        <v>4</v>
+      </c>
+      <c r="AP13" s="23">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="23">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="24"/>
+    </row>
+    <row r="14" spans="23:62" ht="60" customHeight="1">
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="23">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="23">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="23">
+        <v>3</v>
+      </c>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="24"/>
+    </row>
+    <row r="15" spans="23:62" ht="60" customHeight="1">
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="23">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="23">
+        <v>4</v>
+      </c>
+      <c r="AH15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="23">
+        <v>5</v>
+      </c>
+      <c r="AL15" s="23">
+        <v>5</v>
+      </c>
+      <c r="AM15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="23">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="23">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="23">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="24"/>
+    </row>
+    <row r="16" spans="23:62" ht="60" customHeight="1">
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="23">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="23">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="23">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="23">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="23">
+        <v>3</v>
+      </c>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="24"/>
+    </row>
+    <row r="17" spans="23:62" ht="60" customHeight="1">
+      <c r="W17" s="22"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AG17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="23">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="23">
+        <v>5</v>
+      </c>
+      <c r="AL17" s="23">
+        <v>4</v>
+      </c>
+      <c r="AM17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="23">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="24"/>
+    </row>
+    <row r="18" spans="23:62" ht="60" customHeight="1">
+      <c r="W18" s="22"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AL18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="23">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="23"/>
+      <c r="AP18" s="23"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23"/>
+      <c r="BC18" s="23"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="24"/>
+    </row>
+    <row r="19" spans="23:62" ht="60" customHeight="1">
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="23">
+        <v>3</v>
+      </c>
+      <c r="AK19" s="23">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="23">
+        <v>3</v>
+      </c>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="24"/>
+    </row>
+    <row r="20" spans="23:62" ht="60" customHeight="1" thickBot="1">
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="23"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="23"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="24"/>
+    </row>
+    <row r="21" spans="23:62" ht="60" customHeight="1">
+      <c r="W21" s="22"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AY21" s="20">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="20">
+        <v>2</v>
+      </c>
+      <c r="BA21" s="20">
+        <v>3</v>
+      </c>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="24"/>
+    </row>
+    <row r="22" spans="23:62" ht="60" customHeight="1">
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="23">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="23">
+        <v>5</v>
+      </c>
+      <c r="BA22" s="23">
+        <v>2</v>
+      </c>
+      <c r="BB22" s="23">
+        <v>2</v>
+      </c>
+      <c r="BC22" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="24"/>
+    </row>
+    <row r="23" spans="23:62" ht="60" customHeight="1">
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU23" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="28">
+        <v>5</v>
+      </c>
+      <c r="AZ23" s="23">
+        <v>4</v>
+      </c>
+      <c r="BA23" s="23">
+        <v>2</v>
+      </c>
+      <c r="BB23" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="23">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="23"/>
+      <c r="BI23" s="23"/>
+      <c r="BJ23" s="24"/>
+    </row>
+    <row r="24" spans="23:62" ht="60" customHeight="1">
+      <c r="W24" s="22"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="23">
+        <v>5</v>
+      </c>
+      <c r="AU24" s="23">
+        <v>5</v>
+      </c>
+      <c r="AV24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="23">
+        <v>5</v>
+      </c>
+      <c r="BD24" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE24" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="23"/>
+      <c r="BI24" s="23"/>
+      <c r="BJ24" s="24"/>
+    </row>
+    <row r="25" spans="23:62" ht="60" customHeight="1">
+      <c r="W25" s="22"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="23">
+        <v>5</v>
+      </c>
+      <c r="AU25" s="23">
+        <v>5</v>
+      </c>
+      <c r="AV25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="23">
+        <v>5</v>
+      </c>
+      <c r="BC25" s="23">
+        <v>5</v>
+      </c>
+      <c r="BD25" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="24"/>
+    </row>
+    <row r="26" spans="23:62" ht="60" customHeight="1">
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="23">
+        <v>5</v>
+      </c>
+      <c r="AX26" s="23">
+        <v>5</v>
+      </c>
+      <c r="AY26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="23">
+        <v>4</v>
+      </c>
+      <c r="BD26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="23">
+        <v>2</v>
+      </c>
+      <c r="BF26" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="24"/>
+    </row>
+    <row r="27" spans="23:62" ht="60" customHeight="1">
+      <c r="W27" s="22"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="23">
+        <v>5</v>
+      </c>
+      <c r="AX27" s="23">
+        <v>5</v>
+      </c>
+      <c r="AY27" s="23">
+        <v>4</v>
+      </c>
+      <c r="AZ27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="23">
+        <v>2</v>
+      </c>
+      <c r="BF27" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="24"/>
+    </row>
+    <row r="28" spans="23:62" ht="60" customHeight="1">
+      <c r="W28" s="22"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="23">
+        <v>3</v>
+      </c>
+      <c r="AT28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="23">
+        <v>4</v>
+      </c>
+      <c r="AX28" s="23">
+        <v>4</v>
+      </c>
+      <c r="AY28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="23">
+        <v>5</v>
+      </c>
+      <c r="BA28" s="23">
+        <v>5</v>
+      </c>
+      <c r="BB28" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="23">
+        <v>5</v>
+      </c>
+      <c r="BD28" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE28" s="23">
+        <v>2</v>
+      </c>
+      <c r="BF28" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="24"/>
+    </row>
+    <row r="29" spans="23:62" ht="60" customHeight="1">
+      <c r="W29" s="22"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS29" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="23">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="23">
+        <v>5</v>
+      </c>
+      <c r="BC29" s="23">
+        <v>5</v>
+      </c>
+      <c r="BD29" s="23">
+        <v>4</v>
+      </c>
+      <c r="BE29" s="23">
+        <v>2</v>
+      </c>
+      <c r="BF29" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG29" s="23"/>
+      <c r="BH29" s="23"/>
+      <c r="BI29" s="23"/>
+      <c r="BJ29" s="24"/>
+    </row>
+    <row r="30" spans="23:62" ht="60" customHeight="1">
+      <c r="W30" s="22"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="23"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS30" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT30" s="23">
+        <v>5</v>
+      </c>
+      <c r="AU30" s="23">
+        <v>5</v>
+      </c>
+      <c r="AV30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="23">
+        <v>4</v>
+      </c>
+      <c r="BC30" s="23">
+        <v>4</v>
+      </c>
+      <c r="BD30" s="23">
+        <v>4</v>
+      </c>
+      <c r="BE30" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF30" s="23">
+        <v>3</v>
+      </c>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23"/>
+      <c r="BJ30" s="24"/>
+    </row>
+    <row r="31" spans="23:62" ht="60" customHeight="1">
+      <c r="W31" s="22"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AS31" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT31" s="23">
+        <v>5</v>
+      </c>
+      <c r="AU31" s="23">
+        <v>5</v>
+      </c>
+      <c r="AV31" s="23">
+        <v>4</v>
+      </c>
+      <c r="AW31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="23">
+        <v>2</v>
+      </c>
+      <c r="BE31" s="23">
+        <v>3</v>
+      </c>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="23"/>
+      <c r="BH31" s="23"/>
+      <c r="BI31" s="23"/>
+      <c r="BJ31" s="24"/>
+    </row>
+    <row r="32" spans="23:62" ht="60" customHeight="1">
+      <c r="W32" s="22"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23">
+        <v>3</v>
+      </c>
+      <c r="AS32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AT32" s="23">
+        <v>4</v>
+      </c>
+      <c r="AU32" s="23">
+        <v>4</v>
+      </c>
+      <c r="AV32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY32" s="23">
+        <v>5</v>
+      </c>
+      <c r="AZ32" s="23">
+        <v>5</v>
+      </c>
+      <c r="BA32" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="23">
+        <v>2</v>
+      </c>
+      <c r="BC32" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD32" s="23">
+        <v>3</v>
+      </c>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="24"/>
+    </row>
+    <row r="33" spans="23:62" ht="60" customHeight="1">
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23">
+        <v>3</v>
+      </c>
+      <c r="AT33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AU33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="23">
+        <v>5</v>
+      </c>
+      <c r="AY33" s="23">
+        <v>5</v>
+      </c>
+      <c r="AZ33" s="23">
+        <v>4</v>
+      </c>
+      <c r="BA33" s="23">
+        <v>2</v>
+      </c>
+      <c r="BB33" s="23">
+        <v>3</v>
+      </c>
+      <c r="BC33" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="24"/>
+    </row>
+    <row r="34" spans="23:62" ht="60" customHeight="1">
+      <c r="W34" s="22"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="23"/>
+      <c r="AT34" s="23">
+        <v>3</v>
+      </c>
+      <c r="AU34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AW34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AX34" s="23">
+        <v>2</v>
+      </c>
+      <c r="AY34" s="23">
+        <v>5</v>
+      </c>
+      <c r="AZ34" s="23">
+        <v>4</v>
+      </c>
+      <c r="BA34" s="23">
+        <v>3</v>
+      </c>
+      <c r="BB34" s="23">
+        <v>3</v>
+      </c>
+      <c r="BC34" s="23">
+        <v>3</v>
+      </c>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="24"/>
+    </row>
+    <row r="35" spans="23:62" ht="60" customHeight="1">
+      <c r="W35" s="22"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23">
+        <v>3</v>
+      </c>
+      <c r="AV35" s="23">
+        <v>3</v>
+      </c>
+      <c r="AW35" s="23">
+        <v>3</v>
+      </c>
+      <c r="AX35" s="23">
+        <v>3</v>
+      </c>
+      <c r="AY35" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ35" s="23">
+        <v>3</v>
+      </c>
+      <c r="BA35" s="23">
+        <v>3</v>
+      </c>
+      <c r="BB35" s="23">
+        <v>3</v>
+      </c>
+      <c r="BC35" s="23"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
+      <c r="BJ35" s="24"/>
+    </row>
+    <row r="36" spans="23:62" ht="60" customHeight="1">
+      <c r="W36" s="22"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AS36" s="23"/>
+      <c r="AT36" s="23"/>
+      <c r="AU36" s="23"/>
+      <c r="AV36" s="23"/>
+      <c r="AW36" s="23">
+        <v>3</v>
+      </c>
+      <c r="AX36" s="23">
+        <v>3</v>
+      </c>
+      <c r="AY36" s="23">
+        <v>3</v>
+      </c>
+      <c r="AZ36" s="23">
+        <v>3</v>
+      </c>
+      <c r="BA36" s="23"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="23"/>
+      <c r="BI36" s="23"/>
+      <c r="BJ36" s="24"/>
+    </row>
+    <row r="37" spans="23:62" ht="60" customHeight="1">
+      <c r="W37" s="22"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="23"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="23"/>
+      <c r="AU37" s="23"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
+      <c r="BE37" s="23"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BI37" s="23"/>
+      <c r="BJ37" s="24"/>
+    </row>
+    <row r="38" spans="23:62" ht="60" customHeight="1">
+      <c r="W38" s="22"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="23"/>
+      <c r="AT38" s="23"/>
+      <c r="AU38" s="23"/>
+      <c r="AV38" s="23"/>
+      <c r="AW38" s="23"/>
+      <c r="AX38" s="23"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="23"/>
+      <c r="BA38" s="23"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
+      <c r="BE38" s="23"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="23"/>
+      <c r="BI38" s="23"/>
+      <c r="BJ38" s="24"/>
+    </row>
+    <row r="39" spans="23:62" ht="60" customHeight="1">
+      <c r="W39" s="22"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="24"/>
+    </row>
+    <row r="40" spans="23:62" ht="60" customHeight="1" thickBot="1">
+      <c r="W40" s="25"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="27"/>
+    </row>
+    <row r="80" ht="17" thickBot="1"/>
+    <row r="81" spans="25:64">
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="20"/>
+      <c r="AO81" s="20"/>
+      <c r="AP81" s="20"/>
+      <c r="AQ81" s="20"/>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="20"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="20"/>
+      <c r="BA81" s="20"/>
+      <c r="BB81" s="20"/>
+      <c r="BC81" s="20"/>
+      <c r="BD81" s="20"/>
+      <c r="BE81" s="20"/>
+      <c r="BF81" s="20"/>
+      <c r="BG81" s="20"/>
+      <c r="BH81" s="20"/>
+      <c r="BI81" s="20"/>
+      <c r="BJ81" s="20"/>
+      <c r="BK81" s="20"/>
+      <c r="BL81" s="21"/>
+    </row>
+    <row r="82" spans="25:64">
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="23"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="23"/>
+      <c r="AD82" s="23"/>
+      <c r="AE82" s="23"/>
+      <c r="AF82" s="23"/>
+      <c r="AG82" s="23"/>
+      <c r="AH82" s="23"/>
+      <c r="AI82" s="23"/>
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="23"/>
+      <c r="AL82" s="23"/>
+      <c r="AM82" s="23"/>
+      <c r="AN82" s="23"/>
+      <c r="AO82" s="23"/>
+      <c r="AP82" s="23"/>
+      <c r="AQ82" s="23"/>
+      <c r="AR82" s="23"/>
+      <c r="AS82" s="23"/>
+      <c r="AT82" s="23"/>
+      <c r="AU82" s="23"/>
+      <c r="AV82" s="23"/>
+      <c r="AW82" s="23"/>
+      <c r="AX82" s="23"/>
+      <c r="AY82" s="23"/>
+      <c r="AZ82" s="23"/>
+      <c r="BA82" s="23"/>
+      <c r="BB82" s="23"/>
+      <c r="BC82" s="23"/>
+      <c r="BD82" s="23"/>
+      <c r="BE82" s="23"/>
+      <c r="BF82" s="23"/>
+      <c r="BG82" s="23"/>
+      <c r="BH82" s="23"/>
+      <c r="BI82" s="23"/>
+      <c r="BJ82" s="23"/>
+      <c r="BK82" s="23"/>
+      <c r="BL82" s="24"/>
+    </row>
+    <row r="83" spans="25:64">
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
+      <c r="AD83" s="23"/>
+      <c r="AE83" s="23"/>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="23"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="23"/>
+      <c r="AL83" s="23"/>
+      <c r="AM83" s="23"/>
+      <c r="AN83" s="23"/>
+      <c r="AO83" s="23"/>
+      <c r="AP83" s="23"/>
+      <c r="AQ83" s="23"/>
+      <c r="AR83" s="23"/>
+      <c r="AS83" s="23"/>
+      <c r="AT83" s="23"/>
+      <c r="AU83" s="23"/>
+      <c r="AV83" s="23"/>
+      <c r="AW83" s="23"/>
+      <c r="AX83" s="23"/>
+      <c r="AY83" s="23"/>
+      <c r="AZ83" s="23"/>
+      <c r="BA83" s="23"/>
+      <c r="BB83" s="23"/>
+      <c r="BC83" s="23"/>
+      <c r="BD83" s="23"/>
+      <c r="BE83" s="23"/>
+      <c r="BF83" s="23"/>
+      <c r="BG83" s="23"/>
+      <c r="BH83" s="23"/>
+      <c r="BI83" s="23"/>
+      <c r="BJ83" s="23"/>
+      <c r="BK83" s="23"/>
+      <c r="BL83" s="24"/>
+    </row>
+    <row r="84" spans="25:64">
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="23"/>
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="23"/>
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="23"/>
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="23"/>
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="23"/>
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="23"/>
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="23"/>
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="24"/>
+    </row>
+    <row r="85" spans="25:64">
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="23"/>
+      <c r="AL85" s="23"/>
+      <c r="AM85" s="23"/>
+      <c r="AN85" s="23"/>
+      <c r="AO85" s="23"/>
+      <c r="AP85" s="23"/>
+      <c r="AQ85" s="23"/>
+      <c r="AR85" s="23"/>
+      <c r="AS85" s="23"/>
+      <c r="AT85" s="23"/>
+      <c r="AU85" s="23"/>
+      <c r="AV85" s="23"/>
+      <c r="AW85" s="23"/>
+      <c r="AX85" s="23"/>
+      <c r="AY85" s="23"/>
+      <c r="AZ85" s="23"/>
+      <c r="BA85" s="23"/>
+      <c r="BB85" s="23"/>
+      <c r="BC85" s="23"/>
+      <c r="BD85" s="23"/>
+      <c r="BE85" s="23"/>
+      <c r="BF85" s="23"/>
+      <c r="BG85" s="23"/>
+      <c r="BH85" s="23"/>
+      <c r="BI85" s="23"/>
+      <c r="BJ85" s="23"/>
+      <c r="BK85" s="23"/>
+      <c r="BL85" s="24"/>
+    </row>
+    <row r="86" spans="25:64">
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="23"/>
+      <c r="AE86" s="23"/>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="23"/>
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="23"/>
+      <c r="AL86" s="23"/>
+      <c r="AM86" s="23"/>
+      <c r="AN86" s="23"/>
+      <c r="AO86" s="23"/>
+      <c r="AP86" s="23"/>
+      <c r="AQ86" s="23"/>
+      <c r="AR86" s="23"/>
+      <c r="AS86" s="23"/>
+      <c r="AT86" s="23"/>
+      <c r="AU86" s="23"/>
+      <c r="AV86" s="23"/>
+      <c r="AW86" s="23"/>
+      <c r="AX86" s="23"/>
+      <c r="AY86" s="23"/>
+      <c r="AZ86" s="23"/>
+      <c r="BA86" s="23"/>
+      <c r="BB86" s="23"/>
+      <c r="BC86" s="23"/>
+      <c r="BD86" s="23"/>
+      <c r="BE86" s="23"/>
+      <c r="BF86" s="23"/>
+      <c r="BG86" s="23"/>
+      <c r="BH86" s="23"/>
+      <c r="BI86" s="23"/>
+      <c r="BJ86" s="23"/>
+      <c r="BK86" s="23"/>
+      <c r="BL86" s="24"/>
+    </row>
+    <row r="87" spans="25:64">
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+      <c r="AL87" s="23"/>
+      <c r="AM87" s="23"/>
+      <c r="AN87" s="23"/>
+      <c r="AO87" s="23"/>
+      <c r="AP87" s="23"/>
+      <c r="AQ87" s="23"/>
+      <c r="AR87" s="23"/>
+      <c r="AS87" s="23"/>
+      <c r="AT87" s="23"/>
+      <c r="AU87" s="23"/>
+      <c r="AV87" s="23"/>
+      <c r="AW87" s="23"/>
+      <c r="AX87" s="23"/>
+      <c r="AY87" s="23"/>
+      <c r="AZ87" s="23"/>
+      <c r="BA87" s="23"/>
+      <c r="BB87" s="23"/>
+      <c r="BC87" s="23"/>
+      <c r="BD87" s="23"/>
+      <c r="BE87" s="23"/>
+      <c r="BF87" s="23"/>
+      <c r="BG87" s="23"/>
+      <c r="BH87" s="23"/>
+      <c r="BI87" s="23"/>
+      <c r="BJ87" s="23"/>
+      <c r="BK87" s="23"/>
+      <c r="BL87" s="24"/>
+    </row>
+    <row r="88" spans="25:64">
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+      <c r="AL88" s="23"/>
+      <c r="AM88" s="23"/>
+      <c r="AN88" s="23"/>
+      <c r="AO88" s="23"/>
+      <c r="AP88" s="23"/>
+      <c r="AQ88" s="23"/>
+      <c r="AR88" s="23"/>
+      <c r="AS88" s="23"/>
+      <c r="AT88" s="23"/>
+      <c r="AU88" s="23"/>
+      <c r="AV88" s="23"/>
+      <c r="AW88" s="23"/>
+      <c r="AX88" s="23"/>
+      <c r="AY88" s="23"/>
+      <c r="AZ88" s="23"/>
+      <c r="BA88" s="23"/>
+      <c r="BB88" s="23"/>
+      <c r="BC88" s="23"/>
+      <c r="BD88" s="23"/>
+      <c r="BE88" s="23"/>
+      <c r="BF88" s="23"/>
+      <c r="BG88" s="23"/>
+      <c r="BH88" s="23"/>
+      <c r="BI88" s="23"/>
+      <c r="BJ88" s="23"/>
+      <c r="BK88" s="23"/>
+      <c r="BL88" s="24"/>
+    </row>
+    <row r="89" spans="25:64">
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="23"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="23"/>
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="23"/>
+      <c r="AL89" s="23"/>
+      <c r="AM89" s="23"/>
+      <c r="AN89" s="23"/>
+      <c r="AO89" s="23"/>
+      <c r="AP89" s="23"/>
+      <c r="AQ89" s="23"/>
+      <c r="AR89" s="23"/>
+      <c r="AS89" s="23"/>
+      <c r="AT89" s="23"/>
+      <c r="AU89" s="23"/>
+      <c r="AV89" s="23"/>
+      <c r="AW89" s="23"/>
+      <c r="AX89" s="23"/>
+      <c r="AY89" s="23"/>
+      <c r="AZ89" s="23"/>
+      <c r="BA89" s="23"/>
+      <c r="BB89" s="23"/>
+      <c r="BC89" s="23"/>
+      <c r="BD89" s="23"/>
+      <c r="BE89" s="23"/>
+      <c r="BF89" s="23"/>
+      <c r="BG89" s="23"/>
+      <c r="BH89" s="23"/>
+      <c r="BI89" s="23"/>
+      <c r="BJ89" s="23"/>
+      <c r="BK89" s="23"/>
+      <c r="BL89" s="24"/>
+    </row>
+    <row r="90" spans="25:64">
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="23"/>
+      <c r="AE90" s="23"/>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+      <c r="AJ90" s="23"/>
+      <c r="AK90" s="23"/>
+      <c r="AL90" s="23"/>
+      <c r="AM90" s="23"/>
+      <c r="AN90" s="23"/>
+      <c r="AO90" s="23"/>
+      <c r="AP90" s="23"/>
+      <c r="AQ90" s="23"/>
+      <c r="AR90" s="23"/>
+      <c r="AS90" s="23"/>
+      <c r="AT90" s="23"/>
+      <c r="AU90" s="23"/>
+      <c r="AV90" s="23"/>
+      <c r="AW90" s="23"/>
+      <c r="AX90" s="23"/>
+      <c r="AY90" s="23"/>
+      <c r="AZ90" s="23"/>
+      <c r="BA90" s="23"/>
+      <c r="BB90" s="23"/>
+      <c r="BC90" s="23"/>
+      <c r="BD90" s="23"/>
+      <c r="BE90" s="23"/>
+      <c r="BF90" s="23"/>
+      <c r="BG90" s="23"/>
+      <c r="BH90" s="23"/>
+      <c r="BI90" s="23"/>
+      <c r="BJ90" s="23"/>
+      <c r="BK90" s="23"/>
+      <c r="BL90" s="24"/>
+    </row>
+    <row r="91" spans="25:64">
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="23"/>
+      <c r="BA91" s="23"/>
+      <c r="BB91" s="23"/>
+      <c r="BC91" s="23"/>
+      <c r="BD91" s="23"/>
+      <c r="BE91" s="23"/>
+      <c r="BF91" s="23"/>
+      <c r="BG91" s="23"/>
+      <c r="BH91" s="23"/>
+      <c r="BI91" s="23"/>
+      <c r="BJ91" s="23"/>
+      <c r="BK91" s="23"/>
+      <c r="BL91" s="24"/>
+    </row>
+    <row r="92" spans="25:64">
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="23"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="23"/>
+      <c r="AG92" s="23"/>
+      <c r="AH92" s="23"/>
+      <c r="AI92" s="23"/>
+      <c r="AJ92" s="23"/>
+      <c r="AK92" s="23"/>
+      <c r="AL92" s="23"/>
+      <c r="AM92" s="23"/>
+      <c r="AN92" s="23"/>
+      <c r="AO92" s="23"/>
+      <c r="AP92" s="23"/>
+      <c r="AQ92" s="23"/>
+      <c r="AR92" s="23"/>
+      <c r="AS92" s="23"/>
+      <c r="AT92" s="23"/>
+      <c r="AU92" s="23"/>
+      <c r="AV92" s="23"/>
+      <c r="AW92" s="23"/>
+      <c r="AX92" s="23"/>
+      <c r="AY92" s="23"/>
+      <c r="AZ92" s="23"/>
+      <c r="BA92" s="23"/>
+      <c r="BB92" s="23"/>
+      <c r="BC92" s="23"/>
+      <c r="BD92" s="23"/>
+      <c r="BE92" s="23"/>
+      <c r="BF92" s="23"/>
+      <c r="BG92" s="23"/>
+      <c r="BH92" s="23"/>
+      <c r="BI92" s="23"/>
+      <c r="BJ92" s="23"/>
+      <c r="BK92" s="23"/>
+      <c r="BL92" s="24"/>
+    </row>
+    <row r="93" spans="25:64">
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="23"/>
+      <c r="AE93" s="23"/>
+      <c r="AF93" s="23"/>
+      <c r="AG93" s="23"/>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="23"/>
+      <c r="AJ93" s="23"/>
+      <c r="AK93" s="23"/>
+      <c r="AL93" s="23"/>
+      <c r="AM93" s="23"/>
+      <c r="AN93" s="23"/>
+      <c r="AO93" s="23"/>
+      <c r="AP93" s="23"/>
+      <c r="AQ93" s="23"/>
+      <c r="AR93" s="23"/>
+      <c r="AS93" s="23"/>
+      <c r="AT93" s="23"/>
+      <c r="AU93" s="23"/>
+      <c r="AV93" s="23"/>
+      <c r="AW93" s="23"/>
+      <c r="AX93" s="23"/>
+      <c r="AY93" s="23"/>
+      <c r="AZ93" s="23"/>
+      <c r="BA93" s="23"/>
+      <c r="BB93" s="23"/>
+      <c r="BC93" s="23"/>
+      <c r="BD93" s="23"/>
+      <c r="BE93" s="23"/>
+      <c r="BF93" s="23"/>
+      <c r="BG93" s="23"/>
+      <c r="BH93" s="23"/>
+      <c r="BI93" s="23"/>
+      <c r="BJ93" s="23"/>
+      <c r="BK93" s="23"/>
+      <c r="BL93" s="24"/>
+    </row>
+    <row r="94" spans="25:64">
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="23"/>
+      <c r="AE94" s="23"/>
+      <c r="AF94" s="23"/>
+      <c r="AG94" s="23"/>
+      <c r="AH94" s="23"/>
+      <c r="AI94" s="23"/>
+      <c r="AJ94" s="23"/>
+      <c r="AK94" s="23"/>
+      <c r="AL94" s="23"/>
+      <c r="AM94" s="23"/>
+      <c r="AN94" s="23"/>
+      <c r="AO94" s="23"/>
+      <c r="AP94" s="23"/>
+      <c r="AQ94" s="23"/>
+      <c r="AR94" s="23"/>
+      <c r="AS94" s="23"/>
+      <c r="AT94" s="23"/>
+      <c r="AU94" s="23"/>
+      <c r="AV94" s="23"/>
+      <c r="AW94" s="23"/>
+      <c r="AX94" s="23"/>
+      <c r="AY94" s="23"/>
+      <c r="AZ94" s="23"/>
+      <c r="BA94" s="23"/>
+      <c r="BB94" s="23"/>
+      <c r="BC94" s="23"/>
+      <c r="BD94" s="23"/>
+      <c r="BE94" s="23"/>
+      <c r="BF94" s="23"/>
+      <c r="BG94" s="23"/>
+      <c r="BH94" s="23"/>
+      <c r="BI94" s="23"/>
+      <c r="BJ94" s="23"/>
+      <c r="BK94" s="23"/>
+      <c r="BL94" s="24"/>
+    </row>
+    <row r="95" spans="25:64">
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="23"/>
+      <c r="AD95" s="23"/>
+      <c r="AE95" s="23"/>
+      <c r="AF95" s="23"/>
+      <c r="AG95" s="23"/>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="23"/>
+      <c r="AJ95" s="23"/>
+      <c r="AK95" s="23"/>
+      <c r="AL95" s="23"/>
+      <c r="AM95" s="23"/>
+      <c r="AN95" s="23"/>
+      <c r="AO95" s="23"/>
+      <c r="AP95" s="23"/>
+      <c r="AQ95" s="23"/>
+      <c r="AR95" s="23"/>
+      <c r="AS95" s="23"/>
+      <c r="AT95" s="23"/>
+      <c r="AU95" s="23"/>
+      <c r="AV95" s="23"/>
+      <c r="AW95" s="23"/>
+      <c r="AX95" s="23"/>
+      <c r="AY95" s="23"/>
+      <c r="AZ95" s="23"/>
+      <c r="BA95" s="23"/>
+      <c r="BB95" s="23"/>
+      <c r="BC95" s="23"/>
+      <c r="BD95" s="23"/>
+      <c r="BE95" s="23"/>
+      <c r="BF95" s="23"/>
+      <c r="BG95" s="23"/>
+      <c r="BH95" s="23"/>
+      <c r="BI95" s="23"/>
+      <c r="BJ95" s="23"/>
+      <c r="BK95" s="23"/>
+      <c r="BL95" s="24"/>
+    </row>
+    <row r="96" spans="25:64">
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="23"/>
+      <c r="AD96" s="23"/>
+      <c r="AE96" s="23"/>
+      <c r="AF96" s="23"/>
+      <c r="AG96" s="23"/>
+      <c r="AH96" s="23"/>
+      <c r="AI96" s="23"/>
+      <c r="AJ96" s="23"/>
+      <c r="AK96" s="23"/>
+      <c r="AL96" s="23"/>
+      <c r="AM96" s="23"/>
+      <c r="AN96" s="23"/>
+      <c r="AO96" s="23"/>
+      <c r="AP96" s="23"/>
+      <c r="AQ96" s="23"/>
+      <c r="AR96" s="23"/>
+      <c r="AS96" s="23"/>
+      <c r="AT96" s="23"/>
+      <c r="AU96" s="23"/>
+      <c r="AV96" s="23"/>
+      <c r="AW96" s="23"/>
+      <c r="AX96" s="23"/>
+      <c r="AY96" s="23"/>
+      <c r="AZ96" s="23"/>
+      <c r="BA96" s="23"/>
+      <c r="BB96" s="23"/>
+      <c r="BC96" s="23"/>
+      <c r="BD96" s="23"/>
+      <c r="BE96" s="23"/>
+      <c r="BF96" s="23"/>
+      <c r="BG96" s="23"/>
+      <c r="BH96" s="23"/>
+      <c r="BI96" s="23"/>
+      <c r="BJ96" s="23"/>
+      <c r="BK96" s="23"/>
+      <c r="BL96" s="24"/>
+    </row>
+    <row r="97" spans="25:64">
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="23"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="23"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="23"/>
+      <c r="AJ97" s="23"/>
+      <c r="AK97" s="23"/>
+      <c r="AL97" s="23"/>
+      <c r="AM97" s="23"/>
+      <c r="AN97" s="23"/>
+      <c r="AO97" s="23"/>
+      <c r="AP97" s="23"/>
+      <c r="AQ97" s="23"/>
+      <c r="AR97" s="23"/>
+      <c r="AS97" s="23"/>
+      <c r="AT97" s="23"/>
+      <c r="AU97" s="23"/>
+      <c r="AV97" s="23"/>
+      <c r="AW97" s="23"/>
+      <c r="AX97" s="23"/>
+      <c r="AY97" s="23"/>
+      <c r="AZ97" s="23"/>
+      <c r="BA97" s="23"/>
+      <c r="BB97" s="23"/>
+      <c r="BC97" s="23"/>
+      <c r="BD97" s="23"/>
+      <c r="BE97" s="23"/>
+      <c r="BF97" s="23"/>
+      <c r="BG97" s="23"/>
+      <c r="BH97" s="23"/>
+      <c r="BI97" s="23"/>
+      <c r="BJ97" s="23"/>
+      <c r="BK97" s="23"/>
+      <c r="BL97" s="24"/>
+    </row>
+    <row r="98" spans="25:64">
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="23"/>
+      <c r="AE98" s="23"/>
+      <c r="AF98" s="23"/>
+      <c r="AG98" s="23"/>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="23"/>
+      <c r="AJ98" s="23"/>
+      <c r="AK98" s="23"/>
+      <c r="AL98" s="23"/>
+      <c r="AM98" s="23"/>
+      <c r="AN98" s="23"/>
+      <c r="AO98" s="23"/>
+      <c r="AP98" s="23"/>
+      <c r="AQ98" s="23"/>
+      <c r="AR98" s="23"/>
+      <c r="AS98" s="23"/>
+      <c r="AT98" s="23"/>
+      <c r="AU98" s="23"/>
+      <c r="AV98" s="23"/>
+      <c r="AW98" s="23"/>
+      <c r="AX98" s="23"/>
+      <c r="AY98" s="23"/>
+      <c r="AZ98" s="23"/>
+      <c r="BA98" s="23"/>
+      <c r="BB98" s="23"/>
+      <c r="BC98" s="23"/>
+      <c r="BD98" s="23"/>
+      <c r="BE98" s="23"/>
+      <c r="BF98" s="23"/>
+      <c r="BG98" s="23"/>
+      <c r="BH98" s="23"/>
+      <c r="BI98" s="23"/>
+      <c r="BJ98" s="23"/>
+      <c r="BK98" s="23"/>
+      <c r="BL98" s="24"/>
+    </row>
+    <row r="99" spans="25:64">
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="23"/>
+      <c r="AK99" s="23"/>
+      <c r="AL99" s="23"/>
+      <c r="AM99" s="23"/>
+      <c r="AN99" s="23"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="23"/>
+      <c r="AQ99" s="23"/>
+      <c r="AR99" s="23"/>
+      <c r="AS99" s="23"/>
+      <c r="AT99" s="23"/>
+      <c r="AU99" s="23"/>
+      <c r="AV99" s="23"/>
+      <c r="AW99" s="23"/>
+      <c r="AX99" s="23"/>
+      <c r="AY99" s="23"/>
+      <c r="AZ99" s="23"/>
+      <c r="BA99" s="23"/>
+      <c r="BB99" s="23"/>
+      <c r="BC99" s="23"/>
+      <c r="BD99" s="23"/>
+      <c r="BE99" s="23"/>
+      <c r="BF99" s="23"/>
+      <c r="BG99" s="23"/>
+      <c r="BH99" s="23"/>
+      <c r="BI99" s="23"/>
+      <c r="BJ99" s="23"/>
+      <c r="BK99" s="23"/>
+      <c r="BL99" s="24"/>
+    </row>
+    <row r="100" spans="25:64">
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="23"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="23"/>
+      <c r="AJ100" s="23"/>
+      <c r="AK100" s="23"/>
+      <c r="AL100" s="23"/>
+      <c r="AM100" s="23"/>
+      <c r="AN100" s="23"/>
+      <c r="AO100" s="23"/>
+      <c r="AP100" s="23"/>
+      <c r="AQ100" s="23"/>
+      <c r="AR100" s="23"/>
+      <c r="AS100" s="23"/>
+      <c r="AT100" s="23"/>
+      <c r="AU100" s="23"/>
+      <c r="AV100" s="23"/>
+      <c r="AW100" s="23"/>
+      <c r="AX100" s="23"/>
+      <c r="AY100" s="23"/>
+      <c r="AZ100" s="23"/>
+      <c r="BA100" s="23"/>
+      <c r="BB100" s="23"/>
+      <c r="BC100" s="23"/>
+      <c r="BD100" s="23"/>
+      <c r="BE100" s="23"/>
+      <c r="BF100" s="23"/>
+      <c r="BG100" s="23"/>
+      <c r="BH100" s="23"/>
+      <c r="BI100" s="23"/>
+      <c r="BJ100" s="23"/>
+      <c r="BK100" s="23"/>
+      <c r="BL100" s="24"/>
+    </row>
+    <row r="101" spans="25:64">
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="23"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="23"/>
+      <c r="AJ101" s="23"/>
+      <c r="AK101" s="23"/>
+      <c r="AL101" s="23"/>
+      <c r="AM101" s="23"/>
+      <c r="AN101" s="23"/>
+      <c r="AO101" s="23"/>
+      <c r="AP101" s="23"/>
+      <c r="AQ101" s="23"/>
+      <c r="AR101" s="23"/>
+      <c r="AS101" s="23"/>
+      <c r="AT101" s="23"/>
+      <c r="AU101" s="23"/>
+      <c r="AV101" s="23"/>
+      <c r="AW101" s="23"/>
+      <c r="AX101" s="23"/>
+      <c r="AY101" s="23"/>
+      <c r="AZ101" s="23"/>
+      <c r="BA101" s="23"/>
+      <c r="BB101" s="23"/>
+      <c r="BC101" s="23"/>
+      <c r="BD101" s="23"/>
+      <c r="BE101" s="23"/>
+      <c r="BF101" s="23"/>
+      <c r="BG101" s="23"/>
+      <c r="BH101" s="23"/>
+      <c r="BI101" s="23"/>
+      <c r="BJ101" s="23"/>
+      <c r="BK101" s="23"/>
+      <c r="BL101" s="24"/>
+    </row>
+    <row r="102" spans="25:64">
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="23"/>
+      <c r="AE102" s="23"/>
+      <c r="AF102" s="23"/>
+      <c r="AG102" s="23"/>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="23"/>
+      <c r="AJ102" s="23"/>
+      <c r="AK102" s="23"/>
+      <c r="AL102" s="23"/>
+      <c r="AM102" s="23"/>
+      <c r="AN102" s="23"/>
+      <c r="AO102" s="23"/>
+      <c r="AP102" s="23"/>
+      <c r="AQ102" s="23"/>
+      <c r="AR102" s="23"/>
+      <c r="AS102" s="23"/>
+      <c r="AT102" s="23"/>
+      <c r="AU102" s="23"/>
+      <c r="AV102" s="23"/>
+      <c r="AW102" s="23"/>
+      <c r="AX102" s="23"/>
+      <c r="AY102" s="23"/>
+      <c r="AZ102" s="23"/>
+      <c r="BA102" s="23"/>
+      <c r="BB102" s="23"/>
+      <c r="BC102" s="23"/>
+      <c r="BD102" s="23"/>
+      <c r="BE102" s="23"/>
+      <c r="BF102" s="23"/>
+      <c r="BG102" s="23"/>
+      <c r="BH102" s="23"/>
+      <c r="BI102" s="23"/>
+      <c r="BJ102" s="23"/>
+      <c r="BK102" s="23"/>
+      <c r="BL102" s="24"/>
+    </row>
+    <row r="103" spans="25:64">
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23"/>
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="23"/>
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="23"/>
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="23"/>
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="23"/>
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="23"/>
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="23"/>
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="23"/>
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="24"/>
+    </row>
+    <row r="104" spans="25:64">
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="23"/>
+      <c r="AE104" s="23"/>
+      <c r="AF104" s="23"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="23"/>
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="23"/>
+      <c r="AL104" s="23"/>
+      <c r="AM104" s="23"/>
+      <c r="AN104" s="23"/>
+      <c r="AO104" s="23"/>
+      <c r="AP104" s="23"/>
+      <c r="AQ104" s="23"/>
+      <c r="AR104" s="23"/>
+      <c r="AS104" s="23"/>
+      <c r="AT104" s="23"/>
+      <c r="AU104" s="23"/>
+      <c r="AV104" s="23"/>
+      <c r="AW104" s="23"/>
+      <c r="AX104" s="23"/>
+      <c r="AY104" s="23"/>
+      <c r="AZ104" s="23"/>
+      <c r="BA104" s="23"/>
+      <c r="BB104" s="23"/>
+      <c r="BC104" s="23"/>
+      <c r="BD104" s="23"/>
+      <c r="BE104" s="23"/>
+      <c r="BF104" s="23"/>
+      <c r="BG104" s="23"/>
+      <c r="BH104" s="23"/>
+      <c r="BI104" s="23"/>
+      <c r="BJ104" s="23"/>
+      <c r="BK104" s="23"/>
+      <c r="BL104" s="24"/>
+    </row>
+    <row r="105" spans="25:64">
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="23"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
+      <c r="AE105" s="23"/>
+      <c r="AF105" s="23"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="23"/>
+      <c r="AJ105" s="23"/>
+      <c r="AK105" s="23"/>
+      <c r="AL105" s="23"/>
+      <c r="AM105" s="23"/>
+      <c r="AN105" s="23"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="23"/>
+      <c r="AQ105" s="23"/>
+      <c r="AR105" s="23"/>
+      <c r="AS105" s="23"/>
+      <c r="AT105" s="23"/>
+      <c r="AU105" s="23"/>
+      <c r="AV105" s="23"/>
+      <c r="AW105" s="23"/>
+      <c r="AX105" s="23"/>
+      <c r="AY105" s="23"/>
+      <c r="AZ105" s="23"/>
+      <c r="BA105" s="23"/>
+      <c r="BB105" s="23"/>
+      <c r="BC105" s="23"/>
+      <c r="BD105" s="23"/>
+      <c r="BE105" s="23"/>
+      <c r="BF105" s="23"/>
+      <c r="BG105" s="23"/>
+      <c r="BH105" s="23"/>
+      <c r="BI105" s="23"/>
+      <c r="BJ105" s="23"/>
+      <c r="BK105" s="23"/>
+      <c r="BL105" s="24"/>
+    </row>
+    <row r="106" spans="25:64">
+      <c r="Y106" s="22"/>
+      <c r="Z106" s="23"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="23"/>
+      <c r="AE106" s="23"/>
+      <c r="AF106" s="23"/>
+      <c r="AG106" s="23"/>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="23"/>
+      <c r="AJ106" s="23"/>
+      <c r="AK106" s="23"/>
+      <c r="AL106" s="23"/>
+      <c r="AM106" s="23"/>
+      <c r="AN106" s="23"/>
+      <c r="AO106" s="23"/>
+      <c r="AP106" s="23"/>
+      <c r="AQ106" s="23"/>
+      <c r="AR106" s="23"/>
+      <c r="AS106" s="23"/>
+      <c r="AT106" s="23"/>
+      <c r="AU106" s="23"/>
+      <c r="AV106" s="23"/>
+      <c r="AW106" s="23"/>
+      <c r="AX106" s="23"/>
+      <c r="AY106" s="23"/>
+      <c r="AZ106" s="23"/>
+      <c r="BA106" s="23"/>
+      <c r="BB106" s="23"/>
+      <c r="BC106" s="23"/>
+      <c r="BD106" s="23"/>
+      <c r="BE106" s="23"/>
+      <c r="BF106" s="23"/>
+      <c r="BG106" s="23"/>
+      <c r="BH106" s="23"/>
+      <c r="BI106" s="23"/>
+      <c r="BJ106" s="23"/>
+      <c r="BK106" s="23"/>
+      <c r="BL106" s="24"/>
+    </row>
+    <row r="107" spans="25:64">
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="23"/>
+      <c r="AF107" s="23"/>
+      <c r="AG107" s="23"/>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="23"/>
+      <c r="AJ107" s="23"/>
+      <c r="AK107" s="23"/>
+      <c r="AL107" s="23"/>
+      <c r="AM107" s="23"/>
+      <c r="AN107" s="23"/>
+      <c r="AO107" s="23"/>
+      <c r="AP107" s="23"/>
+      <c r="AQ107" s="23"/>
+      <c r="AR107" s="23"/>
+      <c r="AS107" s="23"/>
+      <c r="AT107" s="23"/>
+      <c r="AU107" s="23"/>
+      <c r="AV107" s="23"/>
+      <c r="AW107" s="23"/>
+      <c r="AX107" s="23"/>
+      <c r="AY107" s="23"/>
+      <c r="AZ107" s="23"/>
+      <c r="BA107" s="23"/>
+      <c r="BB107" s="23"/>
+      <c r="BC107" s="23"/>
+      <c r="BD107" s="23"/>
+      <c r="BE107" s="23"/>
+      <c r="BF107" s="23"/>
+      <c r="BG107" s="23"/>
+      <c r="BH107" s="23"/>
+      <c r="BI107" s="23"/>
+      <c r="BJ107" s="23"/>
+      <c r="BK107" s="23"/>
+      <c r="BL107" s="24"/>
+    </row>
+    <row r="108" spans="25:64">
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="23"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23"/>
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="23"/>
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23"/>
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23"/>
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23"/>
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="23"/>
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="23"/>
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="23"/>
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="24"/>
+    </row>
+    <row r="109" spans="25:64">
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="23"/>
+      <c r="AF109" s="23"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="23"/>
+      <c r="AJ109" s="23"/>
+      <c r="AK109" s="23"/>
+      <c r="AL109" s="23"/>
+      <c r="AM109" s="23"/>
+      <c r="AN109" s="23"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="23"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="23"/>
+      <c r="AW109" s="23"/>
+      <c r="AX109" s="23"/>
+      <c r="AY109" s="23"/>
+      <c r="AZ109" s="23"/>
+      <c r="BA109" s="23"/>
+      <c r="BB109" s="23"/>
+      <c r="BC109" s="23"/>
+      <c r="BD109" s="23"/>
+      <c r="BE109" s="23"/>
+      <c r="BF109" s="23"/>
+      <c r="BG109" s="23"/>
+      <c r="BH109" s="23"/>
+      <c r="BI109" s="23"/>
+      <c r="BJ109" s="23"/>
+      <c r="BK109" s="23"/>
+      <c r="BL109" s="24"/>
+    </row>
+    <row r="110" spans="25:64">
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="23"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="23"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23"/>
+      <c r="AE110" s="23"/>
+      <c r="AF110" s="23"/>
+      <c r="AG110" s="23"/>
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="23"/>
+      <c r="AJ110" s="23"/>
+      <c r="AK110" s="23"/>
+      <c r="AL110" s="23"/>
+      <c r="AM110" s="23"/>
+      <c r="AN110" s="23"/>
+      <c r="AO110" s="23"/>
+      <c r="AP110" s="23"/>
+      <c r="AQ110" s="23"/>
+      <c r="AR110" s="23"/>
+      <c r="AS110" s="23"/>
+      <c r="AT110" s="23"/>
+      <c r="AU110" s="23"/>
+      <c r="AV110" s="23"/>
+      <c r="AW110" s="23"/>
+      <c r="AX110" s="23"/>
+      <c r="AY110" s="23"/>
+      <c r="AZ110" s="23"/>
+      <c r="BA110" s="23"/>
+      <c r="BB110" s="23"/>
+      <c r="BC110" s="23"/>
+      <c r="BD110" s="23"/>
+      <c r="BE110" s="23"/>
+      <c r="BF110" s="23"/>
+      <c r="BG110" s="23"/>
+      <c r="BH110" s="23"/>
+      <c r="BI110" s="23"/>
+      <c r="BJ110" s="23"/>
+      <c r="BK110" s="23"/>
+      <c r="BL110" s="24"/>
+    </row>
+    <row r="111" spans="25:64">
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="23"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="23"/>
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="23"/>
+      <c r="AE111" s="23"/>
+      <c r="AF111" s="23"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="23"/>
+      <c r="AJ111" s="23"/>
+      <c r="AK111" s="23"/>
+      <c r="AL111" s="23"/>
+      <c r="AM111" s="23"/>
+      <c r="AN111" s="23"/>
+      <c r="AO111" s="23"/>
+      <c r="AP111" s="23"/>
+      <c r="AQ111" s="23"/>
+      <c r="AR111" s="23"/>
+      <c r="AS111" s="23"/>
+      <c r="AT111" s="23"/>
+      <c r="AU111" s="23"/>
+      <c r="AV111" s="23"/>
+      <c r="AW111" s="23"/>
+      <c r="AX111" s="23"/>
+      <c r="AY111" s="23"/>
+      <c r="AZ111" s="23"/>
+      <c r="BA111" s="23"/>
+      <c r="BB111" s="23"/>
+      <c r="BC111" s="23"/>
+      <c r="BD111" s="23"/>
+      <c r="BE111" s="23"/>
+      <c r="BF111" s="23"/>
+      <c r="BG111" s="23"/>
+      <c r="BH111" s="23"/>
+      <c r="BI111" s="23"/>
+      <c r="BJ111" s="23"/>
+      <c r="BK111" s="23"/>
+      <c r="BL111" s="24"/>
+    </row>
+    <row r="112" spans="25:64">
+      <c r="Y112" s="22"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="23"/>
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="23"/>
+      <c r="AE112" s="23"/>
+      <c r="AF112" s="23"/>
+      <c r="AG112" s="23"/>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="23"/>
+      <c r="AJ112" s="23"/>
+      <c r="AK112" s="23"/>
+      <c r="AL112" s="23"/>
+      <c r="AM112" s="23"/>
+      <c r="AN112" s="23"/>
+      <c r="AO112" s="23"/>
+      <c r="AP112" s="23"/>
+      <c r="AQ112" s="23"/>
+      <c r="AR112" s="23"/>
+      <c r="AS112" s="23"/>
+      <c r="AT112" s="23"/>
+      <c r="AU112" s="23"/>
+      <c r="AV112" s="23"/>
+      <c r="AW112" s="23"/>
+      <c r="AX112" s="23"/>
+      <c r="AY112" s="23"/>
+      <c r="AZ112" s="23"/>
+      <c r="BA112" s="23"/>
+      <c r="BB112" s="23"/>
+      <c r="BC112" s="23"/>
+      <c r="BD112" s="23"/>
+      <c r="BE112" s="23"/>
+      <c r="BF112" s="23"/>
+      <c r="BG112" s="23"/>
+      <c r="BH112" s="23"/>
+      <c r="BI112" s="23"/>
+      <c r="BJ112" s="23"/>
+      <c r="BK112" s="23"/>
+      <c r="BL112" s="24"/>
+    </row>
+    <row r="113" spans="25:64">
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="23"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="23"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="23"/>
+      <c r="AE113" s="23"/>
+      <c r="AF113" s="23"/>
+      <c r="AG113" s="23"/>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="23"/>
+      <c r="AJ113" s="23"/>
+      <c r="AK113" s="23"/>
+      <c r="AL113" s="23"/>
+      <c r="AM113" s="23"/>
+      <c r="AN113" s="23"/>
+      <c r="AO113" s="23"/>
+      <c r="AP113" s="23"/>
+      <c r="AQ113" s="23"/>
+      <c r="AR113" s="23"/>
+      <c r="AS113" s="23"/>
+      <c r="AT113" s="23"/>
+      <c r="AU113" s="23"/>
+      <c r="AV113" s="23"/>
+      <c r="AW113" s="23"/>
+      <c r="AX113" s="23"/>
+      <c r="AY113" s="23"/>
+      <c r="AZ113" s="23"/>
+      <c r="BA113" s="23"/>
+      <c r="BB113" s="23"/>
+      <c r="BC113" s="23"/>
+      <c r="BD113" s="23"/>
+      <c r="BE113" s="23"/>
+      <c r="BF113" s="23"/>
+      <c r="BG113" s="23"/>
+      <c r="BH113" s="23"/>
+      <c r="BI113" s="23"/>
+      <c r="BJ113" s="23"/>
+      <c r="BK113" s="23"/>
+      <c r="BL113" s="24"/>
+    </row>
+    <row r="114" spans="25:64">
+      <c r="Y114" s="22"/>
+      <c r="Z114" s="23"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="23"/>
+      <c r="AE114" s="23"/>
+      <c r="AF114" s="23"/>
+      <c r="AG114" s="23"/>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="23"/>
+      <c r="AJ114" s="23"/>
+      <c r="AK114" s="23"/>
+      <c r="AL114" s="23"/>
+      <c r="AM114" s="23"/>
+      <c r="AN114" s="23"/>
+      <c r="AO114" s="23"/>
+      <c r="AP114" s="23"/>
+      <c r="AQ114" s="23"/>
+      <c r="AR114" s="23"/>
+      <c r="AS114" s="23"/>
+      <c r="AT114" s="23"/>
+      <c r="AU114" s="23"/>
+      <c r="AV114" s="23"/>
+      <c r="AW114" s="23"/>
+      <c r="AX114" s="23"/>
+      <c r="AY114" s="23"/>
+      <c r="AZ114" s="23"/>
+      <c r="BA114" s="23"/>
+      <c r="BB114" s="23"/>
+      <c r="BC114" s="23"/>
+      <c r="BD114" s="23"/>
+      <c r="BE114" s="23"/>
+      <c r="BF114" s="23"/>
+      <c r="BG114" s="23"/>
+      <c r="BH114" s="23"/>
+      <c r="BI114" s="23"/>
+      <c r="BJ114" s="23"/>
+      <c r="BK114" s="23"/>
+      <c r="BL114" s="24"/>
+    </row>
+    <row r="115" spans="25:64">
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="23"/>
+      <c r="AA115" s="23"/>
+      <c r="AB115" s="23"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="23"/>
+      <c r="AE115" s="23"/>
+      <c r="AF115" s="23"/>
+      <c r="AG115" s="23"/>
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="23"/>
+      <c r="AJ115" s="23"/>
+      <c r="AK115" s="23"/>
+      <c r="AL115" s="23"/>
+      <c r="AM115" s="23"/>
+      <c r="AN115" s="23"/>
+      <c r="AO115" s="23"/>
+      <c r="AP115" s="23"/>
+      <c r="AQ115" s="23"/>
+      <c r="AR115" s="23"/>
+      <c r="AS115" s="23"/>
+      <c r="AT115" s="23"/>
+      <c r="AU115" s="23"/>
+      <c r="AV115" s="23"/>
+      <c r="AW115" s="23"/>
+      <c r="AX115" s="23"/>
+      <c r="AY115" s="23"/>
+      <c r="AZ115" s="23"/>
+      <c r="BA115" s="23"/>
+      <c r="BB115" s="23"/>
+      <c r="BC115" s="23"/>
+      <c r="BD115" s="23"/>
+      <c r="BE115" s="23"/>
+      <c r="BF115" s="23"/>
+      <c r="BG115" s="23"/>
+      <c r="BH115" s="23"/>
+      <c r="BI115" s="23"/>
+      <c r="BJ115" s="23"/>
+      <c r="BK115" s="23"/>
+      <c r="BL115" s="24"/>
+    </row>
+    <row r="116" spans="25:64">
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="23"/>
+      <c r="AA116" s="23"/>
+      <c r="AB116" s="23"/>
+      <c r="AC116" s="23"/>
+      <c r="AD116" s="23"/>
+      <c r="AE116" s="23"/>
+      <c r="AF116" s="23"/>
+      <c r="AG116" s="23"/>
+      <c r="AH116" s="23"/>
+      <c r="AI116" s="23"/>
+      <c r="AJ116" s="23"/>
+      <c r="AK116" s="23"/>
+      <c r="AL116" s="23"/>
+      <c r="AM116" s="23"/>
+      <c r="AN116" s="23"/>
+      <c r="AO116" s="23"/>
+      <c r="AP116" s="23"/>
+      <c r="AQ116" s="23"/>
+      <c r="AR116" s="23"/>
+      <c r="AS116" s="23"/>
+      <c r="AT116" s="23"/>
+      <c r="AU116" s="23"/>
+      <c r="AV116" s="23"/>
+      <c r="AW116" s="23"/>
+      <c r="AX116" s="23"/>
+      <c r="AY116" s="23"/>
+      <c r="AZ116" s="23"/>
+      <c r="BA116" s="23"/>
+      <c r="BB116" s="23"/>
+      <c r="BC116" s="23"/>
+      <c r="BD116" s="23"/>
+      <c r="BE116" s="23"/>
+      <c r="BF116" s="23"/>
+      <c r="BG116" s="23"/>
+      <c r="BH116" s="23"/>
+      <c r="BI116" s="23"/>
+      <c r="BJ116" s="23"/>
+      <c r="BK116" s="23"/>
+      <c r="BL116" s="24"/>
+    </row>
+    <row r="117" spans="25:64">
+      <c r="Y117" s="22"/>
+      <c r="Z117" s="23"/>
+      <c r="AA117" s="23"/>
+      <c r="AB117" s="23"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="23"/>
+      <c r="AE117" s="23"/>
+      <c r="AF117" s="23"/>
+      <c r="AG117" s="23"/>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="23"/>
+      <c r="AJ117" s="23"/>
+      <c r="AK117" s="23"/>
+      <c r="AL117" s="23"/>
+      <c r="AM117" s="23"/>
+      <c r="AN117" s="23"/>
+      <c r="AO117" s="23"/>
+      <c r="AP117" s="23"/>
+      <c r="AQ117" s="23"/>
+      <c r="AR117" s="23"/>
+      <c r="AS117" s="23"/>
+      <c r="AT117" s="23"/>
+      <c r="AU117" s="23"/>
+      <c r="AV117" s="23"/>
+      <c r="AW117" s="23"/>
+      <c r="AX117" s="23"/>
+      <c r="AY117" s="23"/>
+      <c r="AZ117" s="23"/>
+      <c r="BA117" s="23"/>
+      <c r="BB117" s="23"/>
+      <c r="BC117" s="23"/>
+      <c r="BD117" s="23"/>
+      <c r="BE117" s="23"/>
+      <c r="BF117" s="23"/>
+      <c r="BG117" s="23"/>
+      <c r="BH117" s="23"/>
+      <c r="BI117" s="23"/>
+      <c r="BJ117" s="23"/>
+      <c r="BK117" s="23"/>
+      <c r="BL117" s="24"/>
+    </row>
+    <row r="118" spans="25:64">
+      <c r="Y118" s="22"/>
+      <c r="Z118" s="23"/>
+      <c r="AA118" s="23"/>
+      <c r="AB118" s="23"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="23"/>
+      <c r="AE118" s="23"/>
+      <c r="AF118" s="23"/>
+      <c r="AG118" s="23"/>
+      <c r="AH118" s="23"/>
+      <c r="AI118" s="23"/>
+      <c r="AJ118" s="23"/>
+      <c r="AK118" s="23"/>
+      <c r="AL118" s="23"/>
+      <c r="AM118" s="23"/>
+      <c r="AN118" s="23"/>
+      <c r="AO118" s="23"/>
+      <c r="AP118" s="23"/>
+      <c r="AQ118" s="23"/>
+      <c r="AR118" s="23"/>
+      <c r="AS118" s="23"/>
+      <c r="AT118" s="23"/>
+      <c r="AU118" s="23"/>
+      <c r="AV118" s="23"/>
+      <c r="AW118" s="23"/>
+      <c r="AX118" s="23"/>
+      <c r="AY118" s="23"/>
+      <c r="AZ118" s="23"/>
+      <c r="BA118" s="23"/>
+      <c r="BB118" s="23"/>
+      <c r="BC118" s="23"/>
+      <c r="BD118" s="23"/>
+      <c r="BE118" s="23"/>
+      <c r="BF118" s="23"/>
+      <c r="BG118" s="23"/>
+      <c r="BH118" s="23"/>
+      <c r="BI118" s="23"/>
+      <c r="BJ118" s="23"/>
+      <c r="BK118" s="23"/>
+      <c r="BL118" s="24"/>
+    </row>
+    <row r="119" spans="25:64">
+      <c r="Y119" s="22"/>
+      <c r="Z119" s="23"/>
+      <c r="AA119" s="23"/>
+      <c r="AB119" s="23"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="23"/>
+      <c r="AF119" s="23"/>
+      <c r="AG119" s="23"/>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="23"/>
+      <c r="AJ119" s="23"/>
+      <c r="AK119" s="23"/>
+      <c r="AL119" s="23"/>
+      <c r="AM119" s="23"/>
+      <c r="AN119" s="23"/>
+      <c r="AO119" s="23"/>
+      <c r="AP119" s="23"/>
+      <c r="AQ119" s="23"/>
+      <c r="AR119" s="23"/>
+      <c r="AS119" s="23"/>
+      <c r="AT119" s="23"/>
+      <c r="AU119" s="23"/>
+      <c r="AV119" s="23"/>
+      <c r="AW119" s="23"/>
+      <c r="AX119" s="23"/>
+      <c r="AY119" s="23"/>
+      <c r="AZ119" s="23"/>
+      <c r="BA119" s="23"/>
+      <c r="BB119" s="23"/>
+      <c r="BC119" s="23"/>
+      <c r="BD119" s="23"/>
+      <c r="BE119" s="23"/>
+      <c r="BF119" s="23"/>
+      <c r="BG119" s="23"/>
+      <c r="BH119" s="23"/>
+      <c r="BI119" s="23"/>
+      <c r="BJ119" s="23"/>
+      <c r="BK119" s="23"/>
+      <c r="BL119" s="24"/>
+    </row>
+    <row r="120" spans="25:64" ht="17" thickBot="1">
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="26"/>
+      <c r="AA120" s="26"/>
+      <c r="AB120" s="26"/>
+      <c r="AC120" s="26"/>
+      <c r="AD120" s="26"/>
+      <c r="AE120" s="26"/>
+      <c r="AF120" s="26"/>
+      <c r="AG120" s="26"/>
+      <c r="AH120" s="26"/>
+      <c r="AI120" s="26"/>
+      <c r="AJ120" s="26"/>
+      <c r="AK120" s="26"/>
+      <c r="AL120" s="26"/>
+      <c r="AM120" s="26"/>
+      <c r="AN120" s="26"/>
+      <c r="AO120" s="26"/>
+      <c r="AP120" s="26"/>
+      <c r="AQ120" s="26"/>
+      <c r="AR120" s="26"/>
+      <c r="AS120" s="26"/>
+      <c r="AT120" s="26"/>
+      <c r="AU120" s="26"/>
+      <c r="AV120" s="26"/>
+      <c r="AW120" s="26"/>
+      <c r="AX120" s="26"/>
+      <c r="AY120" s="26"/>
+      <c r="AZ120" s="26"/>
+      <c r="BA120" s="26"/>
+      <c r="BB120" s="26"/>
+      <c r="BC120" s="26"/>
+      <c r="BD120" s="26"/>
+      <c r="BE120" s="26"/>
+      <c r="BF120" s="26"/>
+      <c r="BG120" s="26"/>
+      <c r="BH120" s="26"/>
+      <c r="BI120" s="26"/>
+      <c r="BJ120" s="26"/>
+      <c r="BK120" s="26"/>
+      <c r="BL120" s="27"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="W1:BJ40">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y81:BL120">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="16" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/prep/characters8bit.xlsx
+++ b/prep/characters8bit.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E1D71-6161-5D41-8443-6B2367FA33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C020844C-48A3-DA4D-8EE7-61FBF626635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29200" yWindow="3460" windowWidth="24640" windowHeight="16500" activeTab="1" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="bar_chart" sheetId="2" r:id="rId2"/>
-    <sheet name="line_chart" sheetId="3" r:id="rId3"/>
-    <sheet name="family" sheetId="5" r:id="rId4"/>
-    <sheet name="cookie" sheetId="6" r:id="rId5"/>
+    <sheet name="family" sheetId="5" r:id="rId3"/>
+    <sheet name="cookie" sheetId="6" r:id="rId4"/>
+    <sheet name="webdev" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -567,43 +567,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF955941"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF633E2F"/>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB67A40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDCA562"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6BF79"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -666,6 +654,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFDF5FCE"/>
         </patternFill>
       </fill>
@@ -687,7 +710,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -701,7 +759,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDF5FCE"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -715,7 +801,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -729,7 +843,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -743,7 +885,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -757,7 +927,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFDF5FCE"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -771,7 +969,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -785,7 +1011,91 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6BF79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDCA562"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB67A40"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF633E2F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF955941"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -799,28 +1109,105 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF3928"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3928"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDF5FCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5121,97 +5508,97 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:I9 C18:I41">
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ10:AW17 K2:Q9 AA2:AG33 AI2:AO17 K25:Q41 S2:Y17 S26:Y33 AI26:AO41 AQ26:AW41">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J9 R2:R17 Z2:Z33 AH2:AH17 AP10:AP17 J18:J41 R26:R33 AH26:AH41 AP26:AP41">
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AW9">
-    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP2:AP9">
-    <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I17">
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:Q17">
-    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J17">
-    <cfRule type="cellIs" dxfId="47" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:Q24">
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S18:Y25">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R25">
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI18:AO25">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH18:AH25">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ18:AW25">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP18:AP25">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34:Y41">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R41">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AG41">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34:Z41">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5221,10 +5608,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E5D1B-61DD-7541-B70F-39B12913C18D}">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5269,12 +5656,14 @@
       <c r="AE1" s="13"/>
       <c r="AG1">
         <f>SUM(B1:AE20)</f>
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5306,37 +5695,20 @@
     </row>
     <row r="3" spans="1:33">
       <c r="B3" s="14"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>3</v>
+      </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
@@ -5344,37 +5716,26 @@
     </row>
     <row r="4" spans="1:33">
       <c r="B4" s="14"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
       <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3</v>
+      </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
@@ -5382,43 +5743,25 @@
     </row>
     <row r="5" spans="1:33">
       <c r="B5" s="14"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
@@ -5426,43 +5769,21 @@
     </row>
     <row r="6" spans="1:33">
       <c r="B6" s="14"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -5470,49 +5791,16 @@
     </row>
     <row r="7" spans="1:33">
       <c r="B7" s="14"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>3</v>
+      </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
@@ -5520,7 +5808,9 @@
     </row>
     <row r="8" spans="1:33">
       <c r="B8" s="14"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>1</v>
@@ -5533,31 +5823,21 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="V8" s="1">
+        <v>3</v>
+      </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5570,7 +5850,9 @@
     </row>
     <row r="9" spans="1:33">
       <c r="B9" s="14"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>1</v>
@@ -5583,38 +5865,22 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1">
+        <v>3</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -5626,7 +5892,9 @@
     </row>
     <row r="10" spans="1:33">
       <c r="B10" s="14"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>1</v>
@@ -5639,39 +5907,23 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="1">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="X10" s="1">
+        <v>3</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -5682,7 +5934,9 @@
     </row>
     <row r="11" spans="1:33">
       <c r="B11" s="14"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>1</v>
@@ -5695,48 +5949,26 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -5744,7 +5976,9 @@
     </row>
     <row r="12" spans="1:33">
       <c r="B12" s="14"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>1</v>
@@ -5757,15 +5991,9 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
@@ -5779,26 +6007,16 @@
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-      <c r="T12" s="1">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -5806,7 +6024,9 @@
     </row>
     <row r="13" spans="1:33">
       <c r="B13" s="14"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>1</v>
@@ -5819,15 +6039,9 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
@@ -5841,25 +6055,15 @@
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="1">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -5868,7 +6072,9 @@
     </row>
     <row r="14" spans="1:33">
       <c r="B14" s="14"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <v>1</v>
@@ -5881,15 +6087,9 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
@@ -5901,1046 +6101,54 @@
       <c r="Q14" s="1">
         <v>1</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="B15" s="14"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="B16" s="14"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="15"/>
-    </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="14"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="14"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="14"/>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2</v>
-      </c>
-      <c r="T19" s="1">
-        <v>2</v>
-      </c>
-      <c r="U19" s="1">
-        <v>2</v>
-      </c>
-      <c r="V19" s="1">
-        <v>2</v>
-      </c>
-      <c r="W19" s="1">
-        <v>2</v>
-      </c>
-      <c r="X19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="15"/>
-    </row>
-    <row r="20" spans="2:31" ht="17" thickBot="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="18"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:C20 E1:AE20">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D20">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F9D68E-F0BC-994F-A2BA-0C1D86F981AE}">
-  <dimension ref="A1:AG20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="31" width="3.83203125" style="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1">
-        <f>13*8*8</f>
-        <v>832</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="13"/>
-      <c r="AG1">
-        <f>SUM(B1:AE20)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="B3" s="14"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="15"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="B4" s="14"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="15"/>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="B5" s="14"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="15"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="B6" s="14"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="15"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="B7" s="14"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="15"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="B8" s="14"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="15"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="B9" s="14"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="15"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="B10" s="14"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="15"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="B11" s="14"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="15"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="B12" s="14"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="B13" s="14"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1">
-        <v>1</v>
-      </c>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="B14" s="14"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>1</v>
-      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1">
+        <v>3</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="15"/>
     </row>
     <row r="15" spans="1:33">
       <c r="B15" s="14"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -6949,20 +6157,24 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AC15" s="1">
+        <v>3</v>
+      </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="15"/>
     </row>
     <row r="16" spans="1:33">
       <c r="B16" s="14"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
@@ -6976,9 +6188,15 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -6996,10 +6214,10 @@
     </row>
     <row r="17" spans="2:31">
       <c r="B17" s="14"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1">
         <v>1</v>
       </c>
@@ -7009,27 +6227,13 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1">
         <v>1</v>
       </c>
@@ -7039,64 +6243,58 @@
       <c r="Q17" s="1">
         <v>1</v>
       </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1</v>
-      </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>1</v>
-      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="15"/>
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="14"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -7114,23 +6312,41 @@
     </row>
     <row r="19" spans="2:31">
       <c r="B19" s="14"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -7146,54 +6362,1214 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="15"/>
     </row>
-    <row r="20" spans="2:31" ht="17" thickBot="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="18"/>
+    <row r="20" spans="2:31">
+      <c r="B20" s="14"/>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="15"/>
+    </row>
+    <row r="21" spans="2:31">
+      <c r="B21" s="14"/>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="15"/>
+    </row>
+    <row r="22" spans="2:31">
+      <c r="B22" s="14"/>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="15"/>
+    </row>
+    <row r="23" spans="2:31">
+      <c r="B23" s="14"/>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="15"/>
+    </row>
+    <row r="24" spans="2:31">
+      <c r="B24" s="14"/>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="15"/>
+    </row>
+    <row r="25" spans="2:31">
+      <c r="B25" s="14"/>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="15"/>
+    </row>
+    <row r="26" spans="2:31">
+      <c r="B26" s="14"/>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="15"/>
+    </row>
+    <row r="27" spans="2:31">
+      <c r="B27" s="14"/>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="15"/>
+    </row>
+    <row r="28" spans="2:31">
+      <c r="B28" s="14"/>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="15"/>
+    </row>
+    <row r="29" spans="2:31">
+      <c r="B29" s="14"/>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="15"/>
+    </row>
+    <row r="30" spans="2:31">
+      <c r="B30" s="14"/>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="15"/>
+    </row>
+    <row r="31" spans="2:31">
+      <c r="B31" s="14"/>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>1</v>
+      </c>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="15"/>
+    </row>
+    <row r="32" spans="2:31">
+      <c r="B32" s="14"/>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>1</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="15"/>
+    </row>
+    <row r="33" spans="2:31">
+      <c r="B33" s="14"/>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="15"/>
+    </row>
+    <row r="34" spans="2:31">
+      <c r="B34" s="14"/>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="15"/>
+    </row>
+    <row r="35" spans="2:31">
+      <c r="B35" s="14"/>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="15"/>
+    </row>
+    <row r="36" spans="2:31">
+      <c r="B36" s="14"/>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="15"/>
+    </row>
+    <row r="37" spans="2:31">
+      <c r="B37" s="14"/>
+      <c r="C37" s="30">
+        <v>2</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="15"/>
+    </row>
+    <row r="38" spans="2:31">
+      <c r="B38" s="14"/>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>2</v>
+      </c>
+      <c r="U38" s="1">
+        <v>2</v>
+      </c>
+      <c r="V38" s="1">
+        <v>2</v>
+      </c>
+      <c r="W38" s="1">
+        <v>2</v>
+      </c>
+      <c r="X38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE38" s="15"/>
+    </row>
+    <row r="39" spans="2:31">
+      <c r="B39" s="14"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="15"/>
+    </row>
+    <row r="40" spans="2:31" ht="17" thickBot="1">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C20 D2:D18 E1:AE20">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+  <conditionalFormatting sqref="B1:AE40">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1 D19:D20">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AA338F-E0FB-C846-A07A-B2575563724D}">
   <dimension ref="A1:BL120"/>
   <sheetViews>
@@ -11732,54 +12108,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W1:BJ40">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="equal">
+      <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
-      <formula>9</formula>
+    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y81:BL120">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11788,7 +12164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A254379-7175-E24B-B67A-1A31572ACCC7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15918,58 +16294,4435 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W1:BJ40">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y81:BL120">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="16" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA02196-4F8D-1945-9320-38989792D0E2}">
+  <dimension ref="A1:BL120"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BI22" sqref="BI22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="41" width="3.83203125" style="10" customWidth="1"/>
+    <col min="42" max="64" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64">
+      <c r="A1">
+        <f>13*8*8</f>
+        <v>832</v>
+      </c>
+      <c r="W1" s="19"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="21"/>
+      <c r="BL1">
+        <f>SUM(W1:BJ40)</f>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64">
+      <c r="W2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="24"/>
+    </row>
+    <row r="3" spans="1:64">
+      <c r="W3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="24"/>
+    </row>
+    <row r="4" spans="1:64">
+      <c r="W4" s="22"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="24"/>
+    </row>
+    <row r="5" spans="1:64">
+      <c r="W5" s="22"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="23"/>
+      <c r="BF5" s="23"/>
+      <c r="BG5" s="23"/>
+      <c r="BH5" s="23"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="24"/>
+    </row>
+    <row r="6" spans="1:64">
+      <c r="W6" s="22"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="24"/>
+    </row>
+    <row r="7" spans="1:64">
+      <c r="W7" s="22"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="24"/>
+    </row>
+    <row r="8" spans="1:64">
+      <c r="W8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="24"/>
+    </row>
+    <row r="9" spans="1:64">
+      <c r="W9" s="22"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23"/>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23"/>
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="24"/>
+    </row>
+    <row r="10" spans="1:64">
+      <c r="W10" s="22"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="23"/>
+      <c r="AM10" s="23"/>
+      <c r="AN10" s="23"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="23"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="24"/>
+    </row>
+    <row r="11" spans="1:64">
+      <c r="W11" s="22"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="24"/>
+    </row>
+    <row r="12" spans="1:64">
+      <c r="W12" s="22"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="23"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="24"/>
+    </row>
+    <row r="13" spans="1:64">
+      <c r="W13" s="22"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
+      <c r="AI13" s="23"/>
+      <c r="AJ13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="24"/>
+    </row>
+    <row r="14" spans="1:64">
+      <c r="W14" s="22"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="23"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC14" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="24"/>
+    </row>
+    <row r="15" spans="1:64">
+      <c r="W15" s="22"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="24"/>
+    </row>
+    <row r="16" spans="1:64">
+      <c r="W16" s="22"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="23"/>
+      <c r="AG16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="24"/>
+    </row>
+    <row r="17" spans="23:62">
+      <c r="W17" s="22"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="23"/>
+      <c r="AG17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AO17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY17" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="24"/>
+    </row>
+    <row r="18" spans="23:62">
+      <c r="W18" s="22"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AO18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="24"/>
+    </row>
+    <row r="19" spans="23:62">
+      <c r="W19" s="22"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="23"/>
+      <c r="AO19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="23"/>
+      <c r="AQ19" s="23"/>
+      <c r="AR19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="24"/>
+    </row>
+    <row r="20" spans="23:62">
+      <c r="W20" s="22"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="23"/>
+      <c r="BH20" s="23"/>
+      <c r="BI20" s="23"/>
+      <c r="BJ20" s="24"/>
+    </row>
+    <row r="21" spans="23:62">
+      <c r="W21" s="22"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="29">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="23"/>
+      <c r="BH21" s="23"/>
+      <c r="BI21" s="23"/>
+      <c r="BJ21" s="24"/>
+    </row>
+    <row r="22" spans="23:62">
+      <c r="W22" s="22"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="23"/>
+      <c r="BH22" s="23"/>
+      <c r="BI22" s="23"/>
+      <c r="BJ22" s="24"/>
+    </row>
+    <row r="23" spans="23:62">
+      <c r="W23" s="22"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AM23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="23"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="23"/>
+      <c r="BI23" s="23"/>
+      <c r="BJ23" s="24"/>
+    </row>
+    <row r="24" spans="23:62">
+      <c r="W24" s="22"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AM24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="23"/>
+      <c r="AP24" s="23"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="23"/>
+      <c r="AT24" s="23"/>
+      <c r="AU24" s="23"/>
+      <c r="AV24" s="23"/>
+      <c r="AW24" s="23"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="23"/>
+      <c r="BA24" s="23"/>
+      <c r="BB24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD24" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="23"/>
+      <c r="BH24" s="23"/>
+      <c r="BI24" s="23"/>
+      <c r="BJ24" s="24"/>
+    </row>
+    <row r="25" spans="23:62">
+      <c r="W25" s="22"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="24"/>
+    </row>
+    <row r="26" spans="23:62">
+      <c r="W26" s="22"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD26" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="24"/>
+    </row>
+    <row r="27" spans="23:62">
+      <c r="W27" s="22"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY27" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="24"/>
+    </row>
+    <row r="28" spans="23:62">
+      <c r="W28" s="22"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC28" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD28" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="23"/>
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="24"/>
+    </row>
+    <row r="29" spans="23:62">
+      <c r="W29" s="22"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY29" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="23">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="23"/>
+      <c r="BE29" s="23"/>
+      <c r="BF29" s="23"/>
+      <c r="BG29" s="23"/>
+      <c r="BH29" s="23"/>
+      <c r="BI29" s="23"/>
+      <c r="BJ29" s="24"/>
+    </row>
+    <row r="30" spans="23:62">
+      <c r="W30" s="22"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
+      <c r="AV30" s="23"/>
+      <c r="AW30" s="23"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="23"/>
+      <c r="AZ30" s="23"/>
+      <c r="BA30" s="23"/>
+      <c r="BB30" s="23"/>
+      <c r="BC30" s="23"/>
+      <c r="BD30" s="23"/>
+      <c r="BE30" s="23"/>
+      <c r="BF30" s="23"/>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23"/>
+      <c r="BJ30" s="24"/>
+    </row>
+    <row r="31" spans="23:62">
+      <c r="W31" s="22"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="23"/>
+      <c r="AU31" s="23"/>
+      <c r="AV31" s="23"/>
+      <c r="AW31" s="23"/>
+      <c r="AX31" s="23"/>
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="23"/>
+      <c r="BA31" s="23"/>
+      <c r="BB31" s="23"/>
+      <c r="BC31" s="23"/>
+      <c r="BD31" s="23"/>
+      <c r="BE31" s="23"/>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="23"/>
+      <c r="BH31" s="23"/>
+      <c r="BI31" s="23"/>
+      <c r="BJ31" s="24"/>
+    </row>
+    <row r="32" spans="23:62">
+      <c r="W32" s="22"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="24"/>
+    </row>
+    <row r="33" spans="23:62">
+      <c r="W33" s="22"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="24"/>
+    </row>
+    <row r="34" spans="23:62">
+      <c r="W34" s="22"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="23"/>
+      <c r="AU34" s="23"/>
+      <c r="AV34" s="23"/>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23"/>
+      <c r="BC34" s="23"/>
+      <c r="BD34" s="23"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="23"/>
+      <c r="BH34" s="23"/>
+      <c r="BI34" s="23"/>
+      <c r="BJ34" s="24"/>
+    </row>
+    <row r="35" spans="23:62">
+      <c r="W35" s="22"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="23"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="23"/>
+      <c r="BC35" s="23"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
+      <c r="BJ35" s="24"/>
+    </row>
+    <row r="36" spans="23:62">
+      <c r="W36" s="22"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+      <c r="AD36" s="23"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="23"/>
+      <c r="BA36" s="23"/>
+      <c r="BB36" s="23"/>
+      <c r="BC36" s="23"/>
+      <c r="BD36" s="23"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="23"/>
+      <c r="BH36" s="23"/>
+      <c r="BI36" s="23"/>
+      <c r="BJ36" s="24"/>
+    </row>
+    <row r="37" spans="23:62">
+      <c r="W37" s="22"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="23"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY37" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="23"/>
+      <c r="BA37" s="23"/>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="23"/>
+      <c r="BE37" s="23"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="23"/>
+      <c r="BH37" s="23"/>
+      <c r="BI37" s="23"/>
+      <c r="BJ37" s="24"/>
+    </row>
+    <row r="38" spans="23:62">
+      <c r="W38" s="22"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY38" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="23"/>
+      <c r="BA38" s="23"/>
+      <c r="BB38" s="23"/>
+      <c r="BC38" s="23"/>
+      <c r="BD38" s="23"/>
+      <c r="BE38" s="23"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="23"/>
+      <c r="BH38" s="23"/>
+      <c r="BI38" s="23"/>
+      <c r="BJ38" s="24"/>
+    </row>
+    <row r="39" spans="23:62">
+      <c r="W39" s="22"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="23"/>
+      <c r="AU39" s="23"/>
+      <c r="AV39" s="23"/>
+      <c r="AW39" s="23"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="23"/>
+      <c r="BA39" s="23"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="23"/>
+      <c r="BD39" s="23"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="23"/>
+      <c r="BH39" s="23"/>
+      <c r="BI39" s="23"/>
+      <c r="BJ39" s="24"/>
+    </row>
+    <row r="40" spans="23:62" ht="17" thickBot="1">
+      <c r="W40" s="25"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="27"/>
+    </row>
+    <row r="80" ht="17" thickBot="1"/>
+    <row r="81" spans="25:64">
+      <c r="Y81" s="19"/>
+      <c r="Z81" s="20"/>
+      <c r="AA81" s="20"/>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="20"/>
+      <c r="AD81" s="20"/>
+      <c r="AE81" s="20"/>
+      <c r="AF81" s="20"/>
+      <c r="AG81" s="20"/>
+      <c r="AH81" s="20"/>
+      <c r="AI81" s="20"/>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="20"/>
+      <c r="AM81" s="20"/>
+      <c r="AN81" s="20"/>
+      <c r="AO81" s="20"/>
+      <c r="AP81" s="20"/>
+      <c r="AQ81" s="20"/>
+      <c r="AR81" s="20"/>
+      <c r="AS81" s="20"/>
+      <c r="AT81" s="20"/>
+      <c r="AU81" s="20"/>
+      <c r="AV81" s="20"/>
+      <c r="AW81" s="20"/>
+      <c r="AX81" s="20"/>
+      <c r="AY81" s="20"/>
+      <c r="AZ81" s="20"/>
+      <c r="BA81" s="20"/>
+      <c r="BB81" s="20"/>
+      <c r="BC81" s="20"/>
+      <c r="BD81" s="20"/>
+      <c r="BE81" s="20"/>
+      <c r="BF81" s="20"/>
+      <c r="BG81" s="20"/>
+      <c r="BH81" s="20"/>
+      <c r="BI81" s="20"/>
+      <c r="BJ81" s="20"/>
+      <c r="BK81" s="20"/>
+      <c r="BL81" s="21"/>
+    </row>
+    <row r="82" spans="25:64">
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="23"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="23"/>
+      <c r="AD82" s="23"/>
+      <c r="AE82" s="23"/>
+      <c r="AF82" s="23"/>
+      <c r="AG82" s="23"/>
+      <c r="AH82" s="23"/>
+      <c r="AI82" s="23"/>
+      <c r="AJ82" s="23"/>
+      <c r="AK82" s="23"/>
+      <c r="AL82" s="23"/>
+      <c r="AM82" s="23"/>
+      <c r="AN82" s="23"/>
+      <c r="AO82" s="23"/>
+      <c r="AP82" s="23"/>
+      <c r="AQ82" s="23"/>
+      <c r="AR82" s="23"/>
+      <c r="AS82" s="23"/>
+      <c r="AT82" s="23"/>
+      <c r="AU82" s="23"/>
+      <c r="AV82" s="23"/>
+      <c r="AW82" s="23"/>
+      <c r="AX82" s="23"/>
+      <c r="AY82" s="23"/>
+      <c r="AZ82" s="23"/>
+      <c r="BA82" s="23"/>
+      <c r="BB82" s="23"/>
+      <c r="BC82" s="23"/>
+      <c r="BD82" s="23"/>
+      <c r="BE82" s="23"/>
+      <c r="BF82" s="23"/>
+      <c r="BG82" s="23"/>
+      <c r="BH82" s="23"/>
+      <c r="BI82" s="23"/>
+      <c r="BJ82" s="23"/>
+      <c r="BK82" s="23"/>
+      <c r="BL82" s="24"/>
+    </row>
+    <row r="83" spans="25:64">
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
+      <c r="AD83" s="23"/>
+      <c r="AE83" s="23"/>
+      <c r="AF83" s="23"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+      <c r="AI83" s="23"/>
+      <c r="AJ83" s="23"/>
+      <c r="AK83" s="23"/>
+      <c r="AL83" s="23"/>
+      <c r="AM83" s="23"/>
+      <c r="AN83" s="23"/>
+      <c r="AO83" s="23"/>
+      <c r="AP83" s="23"/>
+      <c r="AQ83" s="23"/>
+      <c r="AR83" s="23"/>
+      <c r="AS83" s="23"/>
+      <c r="AT83" s="23"/>
+      <c r="AU83" s="23"/>
+      <c r="AV83" s="23"/>
+      <c r="AW83" s="23"/>
+      <c r="AX83" s="23"/>
+      <c r="AY83" s="23"/>
+      <c r="AZ83" s="23"/>
+      <c r="BA83" s="23"/>
+      <c r="BB83" s="23"/>
+      <c r="BC83" s="23"/>
+      <c r="BD83" s="23"/>
+      <c r="BE83" s="23"/>
+      <c r="BF83" s="23"/>
+      <c r="BG83" s="23"/>
+      <c r="BH83" s="23"/>
+      <c r="BI83" s="23"/>
+      <c r="BJ83" s="23"/>
+      <c r="BK83" s="23"/>
+      <c r="BL83" s="24"/>
+    </row>
+    <row r="84" spans="25:64">
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="23"/>
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="23"/>
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="23"/>
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="23"/>
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="23"/>
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="23"/>
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="23"/>
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="24"/>
+    </row>
+    <row r="85" spans="25:64">
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="23"/>
+      <c r="AJ85" s="23"/>
+      <c r="AK85" s="23"/>
+      <c r="AL85" s="23"/>
+      <c r="AM85" s="23"/>
+      <c r="AN85" s="23"/>
+      <c r="AO85" s="23"/>
+      <c r="AP85" s="23"/>
+      <c r="AQ85" s="23"/>
+      <c r="AR85" s="23"/>
+      <c r="AS85" s="23"/>
+      <c r="AT85" s="23"/>
+      <c r="AU85" s="23"/>
+      <c r="AV85" s="23"/>
+      <c r="AW85" s="23"/>
+      <c r="AX85" s="23"/>
+      <c r="AY85" s="23"/>
+      <c r="AZ85" s="23"/>
+      <c r="BA85" s="23"/>
+      <c r="BB85" s="23"/>
+      <c r="BC85" s="23"/>
+      <c r="BD85" s="23"/>
+      <c r="BE85" s="23"/>
+      <c r="BF85" s="23"/>
+      <c r="BG85" s="23"/>
+      <c r="BH85" s="23"/>
+      <c r="BI85" s="23"/>
+      <c r="BJ85" s="23"/>
+      <c r="BK85" s="23"/>
+      <c r="BL85" s="24"/>
+    </row>
+    <row r="86" spans="25:64">
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="23"/>
+      <c r="AE86" s="23"/>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+      <c r="AI86" s="23"/>
+      <c r="AJ86" s="23"/>
+      <c r="AK86" s="23"/>
+      <c r="AL86" s="23"/>
+      <c r="AM86" s="23"/>
+      <c r="AN86" s="23"/>
+      <c r="AO86" s="23"/>
+      <c r="AP86" s="23"/>
+      <c r="AQ86" s="23"/>
+      <c r="AR86" s="23"/>
+      <c r="AS86" s="23"/>
+      <c r="AT86" s="23"/>
+      <c r="AU86" s="23"/>
+      <c r="AV86" s="23"/>
+      <c r="AW86" s="23"/>
+      <c r="AX86" s="23"/>
+      <c r="AY86" s="23"/>
+      <c r="AZ86" s="23"/>
+      <c r="BA86" s="23"/>
+      <c r="BB86" s="23"/>
+      <c r="BC86" s="23"/>
+      <c r="BD86" s="23"/>
+      <c r="BE86" s="23"/>
+      <c r="BF86" s="23"/>
+      <c r="BG86" s="23"/>
+      <c r="BH86" s="23"/>
+      <c r="BI86" s="23"/>
+      <c r="BJ86" s="23"/>
+      <c r="BK86" s="23"/>
+      <c r="BL86" s="24"/>
+    </row>
+    <row r="87" spans="25:64">
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="23"/>
+      <c r="AJ87" s="23"/>
+      <c r="AK87" s="23"/>
+      <c r="AL87" s="23"/>
+      <c r="AM87" s="23"/>
+      <c r="AN87" s="23"/>
+      <c r="AO87" s="23"/>
+      <c r="AP87" s="23"/>
+      <c r="AQ87" s="23"/>
+      <c r="AR87" s="23"/>
+      <c r="AS87" s="23"/>
+      <c r="AT87" s="23"/>
+      <c r="AU87" s="23"/>
+      <c r="AV87" s="23"/>
+      <c r="AW87" s="23"/>
+      <c r="AX87" s="23"/>
+      <c r="AY87" s="23"/>
+      <c r="AZ87" s="23"/>
+      <c r="BA87" s="23"/>
+      <c r="BB87" s="23"/>
+      <c r="BC87" s="23"/>
+      <c r="BD87" s="23"/>
+      <c r="BE87" s="23"/>
+      <c r="BF87" s="23"/>
+      <c r="BG87" s="23"/>
+      <c r="BH87" s="23"/>
+      <c r="BI87" s="23"/>
+      <c r="BJ87" s="23"/>
+      <c r="BK87" s="23"/>
+      <c r="BL87" s="24"/>
+    </row>
+    <row r="88" spans="25:64">
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+      <c r="AI88" s="23"/>
+      <c r="AJ88" s="23"/>
+      <c r="AK88" s="23"/>
+      <c r="AL88" s="23"/>
+      <c r="AM88" s="23"/>
+      <c r="AN88" s="23"/>
+      <c r="AO88" s="23"/>
+      <c r="AP88" s="23"/>
+      <c r="AQ88" s="23"/>
+      <c r="AR88" s="23"/>
+      <c r="AS88" s="23"/>
+      <c r="AT88" s="23"/>
+      <c r="AU88" s="23"/>
+      <c r="AV88" s="23"/>
+      <c r="AW88" s="23"/>
+      <c r="AX88" s="23"/>
+      <c r="AY88" s="23"/>
+      <c r="AZ88" s="23"/>
+      <c r="BA88" s="23"/>
+      <c r="BB88" s="23"/>
+      <c r="BC88" s="23"/>
+      <c r="BD88" s="23"/>
+      <c r="BE88" s="23"/>
+      <c r="BF88" s="23"/>
+      <c r="BG88" s="23"/>
+      <c r="BH88" s="23"/>
+      <c r="BI88" s="23"/>
+      <c r="BJ88" s="23"/>
+      <c r="BK88" s="23"/>
+      <c r="BL88" s="24"/>
+    </row>
+    <row r="89" spans="25:64">
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="23"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="23"/>
+      <c r="AJ89" s="23"/>
+      <c r="AK89" s="23"/>
+      <c r="AL89" s="23"/>
+      <c r="AM89" s="23"/>
+      <c r="AN89" s="23"/>
+      <c r="AO89" s="23"/>
+      <c r="AP89" s="23"/>
+      <c r="AQ89" s="23"/>
+      <c r="AR89" s="23"/>
+      <c r="AS89" s="23"/>
+      <c r="AT89" s="23"/>
+      <c r="AU89" s="23"/>
+      <c r="AV89" s="23"/>
+      <c r="AW89" s="23"/>
+      <c r="AX89" s="23"/>
+      <c r="AY89" s="23"/>
+      <c r="AZ89" s="23"/>
+      <c r="BA89" s="23"/>
+      <c r="BB89" s="23"/>
+      <c r="BC89" s="23"/>
+      <c r="BD89" s="23"/>
+      <c r="BE89" s="23"/>
+      <c r="BF89" s="23"/>
+      <c r="BG89" s="23"/>
+      <c r="BH89" s="23"/>
+      <c r="BI89" s="23"/>
+      <c r="BJ89" s="23"/>
+      <c r="BK89" s="23"/>
+      <c r="BL89" s="24"/>
+    </row>
+    <row r="90" spans="25:64">
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="23"/>
+      <c r="AD90" s="23"/>
+      <c r="AE90" s="23"/>
+      <c r="AF90" s="23"/>
+      <c r="AG90" s="23"/>
+      <c r="AH90" s="23"/>
+      <c r="AI90" s="23"/>
+      <c r="AJ90" s="23"/>
+      <c r="AK90" s="23"/>
+      <c r="AL90" s="23"/>
+      <c r="AM90" s="23"/>
+      <c r="AN90" s="23"/>
+      <c r="AO90" s="23"/>
+      <c r="AP90" s="23"/>
+      <c r="AQ90" s="23"/>
+      <c r="AR90" s="23"/>
+      <c r="AS90" s="23"/>
+      <c r="AT90" s="23"/>
+      <c r="AU90" s="23"/>
+      <c r="AV90" s="23"/>
+      <c r="AW90" s="23"/>
+      <c r="AX90" s="23"/>
+      <c r="AY90" s="23"/>
+      <c r="AZ90" s="23"/>
+      <c r="BA90" s="23"/>
+      <c r="BB90" s="23"/>
+      <c r="BC90" s="23"/>
+      <c r="BD90" s="23"/>
+      <c r="BE90" s="23"/>
+      <c r="BF90" s="23"/>
+      <c r="BG90" s="23"/>
+      <c r="BH90" s="23"/>
+      <c r="BI90" s="23"/>
+      <c r="BJ90" s="23"/>
+      <c r="BK90" s="23"/>
+      <c r="BL90" s="24"/>
+    </row>
+    <row r="91" spans="25:64">
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="23"/>
+      <c r="AJ91" s="23"/>
+      <c r="AK91" s="23"/>
+      <c r="AL91" s="23"/>
+      <c r="AM91" s="23"/>
+      <c r="AN91" s="23"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="23"/>
+      <c r="AQ91" s="23"/>
+      <c r="AR91" s="23"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="23"/>
+      <c r="AU91" s="23"/>
+      <c r="AV91" s="23"/>
+      <c r="AW91" s="23"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="23"/>
+      <c r="AZ91" s="23"/>
+      <c r="BA91" s="23"/>
+      <c r="BB91" s="23"/>
+      <c r="BC91" s="23"/>
+      <c r="BD91" s="23"/>
+      <c r="BE91" s="23"/>
+      <c r="BF91" s="23"/>
+      <c r="BG91" s="23"/>
+      <c r="BH91" s="23"/>
+      <c r="BI91" s="23"/>
+      <c r="BJ91" s="23"/>
+      <c r="BK91" s="23"/>
+      <c r="BL91" s="24"/>
+    </row>
+    <row r="92" spans="25:64">
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="23"/>
+      <c r="AD92" s="23"/>
+      <c r="AE92" s="23"/>
+      <c r="AF92" s="23"/>
+      <c r="AG92" s="23"/>
+      <c r="AH92" s="23"/>
+      <c r="AI92" s="23"/>
+      <c r="AJ92" s="23"/>
+      <c r="AK92" s="23"/>
+      <c r="AL92" s="23"/>
+      <c r="AM92" s="23"/>
+      <c r="AN92" s="23"/>
+      <c r="AO92" s="23"/>
+      <c r="AP92" s="23"/>
+      <c r="AQ92" s="23"/>
+      <c r="AR92" s="23"/>
+      <c r="AS92" s="23"/>
+      <c r="AT92" s="23"/>
+      <c r="AU92" s="23"/>
+      <c r="AV92" s="23"/>
+      <c r="AW92" s="23"/>
+      <c r="AX92" s="23"/>
+      <c r="AY92" s="23"/>
+      <c r="AZ92" s="23"/>
+      <c r="BA92" s="23"/>
+      <c r="BB92" s="23"/>
+      <c r="BC92" s="23"/>
+      <c r="BD92" s="23"/>
+      <c r="BE92" s="23"/>
+      <c r="BF92" s="23"/>
+      <c r="BG92" s="23"/>
+      <c r="BH92" s="23"/>
+      <c r="BI92" s="23"/>
+      <c r="BJ92" s="23"/>
+      <c r="BK92" s="23"/>
+      <c r="BL92" s="24"/>
+    </row>
+    <row r="93" spans="25:64">
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="23"/>
+      <c r="AE93" s="23"/>
+      <c r="AF93" s="23"/>
+      <c r="AG93" s="23"/>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="23"/>
+      <c r="AJ93" s="23"/>
+      <c r="AK93" s="23"/>
+      <c r="AL93" s="23"/>
+      <c r="AM93" s="23"/>
+      <c r="AN93" s="23"/>
+      <c r="AO93" s="23"/>
+      <c r="AP93" s="23"/>
+      <c r="AQ93" s="23"/>
+      <c r="AR93" s="23"/>
+      <c r="AS93" s="23"/>
+      <c r="AT93" s="23"/>
+      <c r="AU93" s="23"/>
+      <c r="AV93" s="23"/>
+      <c r="AW93" s="23"/>
+      <c r="AX93" s="23"/>
+      <c r="AY93" s="23"/>
+      <c r="AZ93" s="23"/>
+      <c r="BA93" s="23"/>
+      <c r="BB93" s="23"/>
+      <c r="BC93" s="23"/>
+      <c r="BD93" s="23"/>
+      <c r="BE93" s="23"/>
+      <c r="BF93" s="23"/>
+      <c r="BG93" s="23"/>
+      <c r="BH93" s="23"/>
+      <c r="BI93" s="23"/>
+      <c r="BJ93" s="23"/>
+      <c r="BK93" s="23"/>
+      <c r="BL93" s="24"/>
+    </row>
+    <row r="94" spans="25:64">
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="23"/>
+      <c r="AD94" s="23"/>
+      <c r="AE94" s="23"/>
+      <c r="AF94" s="23"/>
+      <c r="AG94" s="23"/>
+      <c r="AH94" s="23"/>
+      <c r="AI94" s="23"/>
+      <c r="AJ94" s="23"/>
+      <c r="AK94" s="23"/>
+      <c r="AL94" s="23"/>
+      <c r="AM94" s="23"/>
+      <c r="AN94" s="23"/>
+      <c r="AO94" s="23"/>
+      <c r="AP94" s="23"/>
+      <c r="AQ94" s="23"/>
+      <c r="AR94" s="23"/>
+      <c r="AS94" s="23"/>
+      <c r="AT94" s="23"/>
+      <c r="AU94" s="23"/>
+      <c r="AV94" s="23"/>
+      <c r="AW94" s="23"/>
+      <c r="AX94" s="23"/>
+      <c r="AY94" s="23"/>
+      <c r="AZ94" s="23"/>
+      <c r="BA94" s="23"/>
+      <c r="BB94" s="23"/>
+      <c r="BC94" s="23"/>
+      <c r="BD94" s="23"/>
+      <c r="BE94" s="23"/>
+      <c r="BF94" s="23"/>
+      <c r="BG94" s="23"/>
+      <c r="BH94" s="23"/>
+      <c r="BI94" s="23"/>
+      <c r="BJ94" s="23"/>
+      <c r="BK94" s="23"/>
+      <c r="BL94" s="24"/>
+    </row>
+    <row r="95" spans="25:64">
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="23"/>
+      <c r="AD95" s="23"/>
+      <c r="AE95" s="23"/>
+      <c r="AF95" s="23"/>
+      <c r="AG95" s="23"/>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="23"/>
+      <c r="AJ95" s="23"/>
+      <c r="AK95" s="23"/>
+      <c r="AL95" s="23"/>
+      <c r="AM95" s="23"/>
+      <c r="AN95" s="23"/>
+      <c r="AO95" s="23"/>
+      <c r="AP95" s="23"/>
+      <c r="AQ95" s="23"/>
+      <c r="AR95" s="23"/>
+      <c r="AS95" s="23"/>
+      <c r="AT95" s="23"/>
+      <c r="AU95" s="23"/>
+      <c r="AV95" s="23"/>
+      <c r="AW95" s="23"/>
+      <c r="AX95" s="23"/>
+      <c r="AY95" s="23"/>
+      <c r="AZ95" s="23"/>
+      <c r="BA95" s="23"/>
+      <c r="BB95" s="23"/>
+      <c r="BC95" s="23"/>
+      <c r="BD95" s="23"/>
+      <c r="BE95" s="23"/>
+      <c r="BF95" s="23"/>
+      <c r="BG95" s="23"/>
+      <c r="BH95" s="23"/>
+      <c r="BI95" s="23"/>
+      <c r="BJ95" s="23"/>
+      <c r="BK95" s="23"/>
+      <c r="BL95" s="24"/>
+    </row>
+    <row r="96" spans="25:64">
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="23"/>
+      <c r="AD96" s="23"/>
+      <c r="AE96" s="23"/>
+      <c r="AF96" s="23"/>
+      <c r="AG96" s="23"/>
+      <c r="AH96" s="23"/>
+      <c r="AI96" s="23"/>
+      <c r="AJ96" s="23"/>
+      <c r="AK96" s="23"/>
+      <c r="AL96" s="23"/>
+      <c r="AM96" s="23"/>
+      <c r="AN96" s="23"/>
+      <c r="AO96" s="23"/>
+      <c r="AP96" s="23"/>
+      <c r="AQ96" s="23"/>
+      <c r="AR96" s="23"/>
+      <c r="AS96" s="23"/>
+      <c r="AT96" s="23"/>
+      <c r="AU96" s="23"/>
+      <c r="AV96" s="23"/>
+      <c r="AW96" s="23"/>
+      <c r="AX96" s="23"/>
+      <c r="AY96" s="23"/>
+      <c r="AZ96" s="23"/>
+      <c r="BA96" s="23"/>
+      <c r="BB96" s="23"/>
+      <c r="BC96" s="23"/>
+      <c r="BD96" s="23"/>
+      <c r="BE96" s="23"/>
+      <c r="BF96" s="23"/>
+      <c r="BG96" s="23"/>
+      <c r="BH96" s="23"/>
+      <c r="BI96" s="23"/>
+      <c r="BJ96" s="23"/>
+      <c r="BK96" s="23"/>
+      <c r="BL96" s="24"/>
+    </row>
+    <row r="97" spans="25:64">
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="23"/>
+      <c r="AF97" s="23"/>
+      <c r="AG97" s="23"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="23"/>
+      <c r="AJ97" s="23"/>
+      <c r="AK97" s="23"/>
+      <c r="AL97" s="23"/>
+      <c r="AM97" s="23"/>
+      <c r="AN97" s="23"/>
+      <c r="AO97" s="23"/>
+      <c r="AP97" s="23"/>
+      <c r="AQ97" s="23"/>
+      <c r="AR97" s="23"/>
+      <c r="AS97" s="23"/>
+      <c r="AT97" s="23"/>
+      <c r="AU97" s="23"/>
+      <c r="AV97" s="23"/>
+      <c r="AW97" s="23"/>
+      <c r="AX97" s="23"/>
+      <c r="AY97" s="23"/>
+      <c r="AZ97" s="23"/>
+      <c r="BA97" s="23"/>
+      <c r="BB97" s="23"/>
+      <c r="BC97" s="23"/>
+      <c r="BD97" s="23"/>
+      <c r="BE97" s="23"/>
+      <c r="BF97" s="23"/>
+      <c r="BG97" s="23"/>
+      <c r="BH97" s="23"/>
+      <c r="BI97" s="23"/>
+      <c r="BJ97" s="23"/>
+      <c r="BK97" s="23"/>
+      <c r="BL97" s="24"/>
+    </row>
+    <row r="98" spans="25:64">
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="23"/>
+      <c r="AD98" s="23"/>
+      <c r="AE98" s="23"/>
+      <c r="AF98" s="23"/>
+      <c r="AG98" s="23"/>
+      <c r="AH98" s="23"/>
+      <c r="AI98" s="23"/>
+      <c r="AJ98" s="23"/>
+      <c r="AK98" s="23"/>
+      <c r="AL98" s="23"/>
+      <c r="AM98" s="23"/>
+      <c r="AN98" s="23"/>
+      <c r="AO98" s="23"/>
+      <c r="AP98" s="23"/>
+      <c r="AQ98" s="23"/>
+      <c r="AR98" s="23"/>
+      <c r="AS98" s="23"/>
+      <c r="AT98" s="23"/>
+      <c r="AU98" s="23"/>
+      <c r="AV98" s="23"/>
+      <c r="AW98" s="23"/>
+      <c r="AX98" s="23"/>
+      <c r="AY98" s="23"/>
+      <c r="AZ98" s="23"/>
+      <c r="BA98" s="23"/>
+      <c r="BB98" s="23"/>
+      <c r="BC98" s="23"/>
+      <c r="BD98" s="23"/>
+      <c r="BE98" s="23"/>
+      <c r="BF98" s="23"/>
+      <c r="BG98" s="23"/>
+      <c r="BH98" s="23"/>
+      <c r="BI98" s="23"/>
+      <c r="BJ98" s="23"/>
+      <c r="BK98" s="23"/>
+      <c r="BL98" s="24"/>
+    </row>
+    <row r="99" spans="25:64">
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="23"/>
+      <c r="AE99" s="23"/>
+      <c r="AF99" s="23"/>
+      <c r="AG99" s="23"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="23"/>
+      <c r="AJ99" s="23"/>
+      <c r="AK99" s="23"/>
+      <c r="AL99" s="23"/>
+      <c r="AM99" s="23"/>
+      <c r="AN99" s="23"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="23"/>
+      <c r="AQ99" s="23"/>
+      <c r="AR99" s="23"/>
+      <c r="AS99" s="23"/>
+      <c r="AT99" s="23"/>
+      <c r="AU99" s="23"/>
+      <c r="AV99" s="23"/>
+      <c r="AW99" s="23"/>
+      <c r="AX99" s="23"/>
+      <c r="AY99" s="23"/>
+      <c r="AZ99" s="23"/>
+      <c r="BA99" s="23"/>
+      <c r="BB99" s="23"/>
+      <c r="BC99" s="23"/>
+      <c r="BD99" s="23"/>
+      <c r="BE99" s="23"/>
+      <c r="BF99" s="23"/>
+      <c r="BG99" s="23"/>
+      <c r="BH99" s="23"/>
+      <c r="BI99" s="23"/>
+      <c r="BJ99" s="23"/>
+      <c r="BK99" s="23"/>
+      <c r="BL99" s="24"/>
+    </row>
+    <row r="100" spans="25:64">
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="23"/>
+      <c r="AF100" s="23"/>
+      <c r="AG100" s="23"/>
+      <c r="AH100" s="23"/>
+      <c r="AI100" s="23"/>
+      <c r="AJ100" s="23"/>
+      <c r="AK100" s="23"/>
+      <c r="AL100" s="23"/>
+      <c r="AM100" s="23"/>
+      <c r="AN100" s="23"/>
+      <c r="AO100" s="23"/>
+      <c r="AP100" s="23"/>
+      <c r="AQ100" s="23"/>
+      <c r="AR100" s="23"/>
+      <c r="AS100" s="23"/>
+      <c r="AT100" s="23"/>
+      <c r="AU100" s="23"/>
+      <c r="AV100" s="23"/>
+      <c r="AW100" s="23"/>
+      <c r="AX100" s="23"/>
+      <c r="AY100" s="23"/>
+      <c r="AZ100" s="23"/>
+      <c r="BA100" s="23"/>
+      <c r="BB100" s="23"/>
+      <c r="BC100" s="23"/>
+      <c r="BD100" s="23"/>
+      <c r="BE100" s="23"/>
+      <c r="BF100" s="23"/>
+      <c r="BG100" s="23"/>
+      <c r="BH100" s="23"/>
+      <c r="BI100" s="23"/>
+      <c r="BJ100" s="23"/>
+      <c r="BK100" s="23"/>
+      <c r="BL100" s="24"/>
+    </row>
+    <row r="101" spans="25:64">
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="23"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="23"/>
+      <c r="AJ101" s="23"/>
+      <c r="AK101" s="23"/>
+      <c r="AL101" s="23"/>
+      <c r="AM101" s="23"/>
+      <c r="AN101" s="23"/>
+      <c r="AO101" s="23"/>
+      <c r="AP101" s="23"/>
+      <c r="AQ101" s="23"/>
+      <c r="AR101" s="23"/>
+      <c r="AS101" s="23"/>
+      <c r="AT101" s="23"/>
+      <c r="AU101" s="23"/>
+      <c r="AV101" s="23"/>
+      <c r="AW101" s="23"/>
+      <c r="AX101" s="23"/>
+      <c r="AY101" s="23"/>
+      <c r="AZ101" s="23"/>
+      <c r="BA101" s="23"/>
+      <c r="BB101" s="23"/>
+      <c r="BC101" s="23"/>
+      <c r="BD101" s="23"/>
+      <c r="BE101" s="23"/>
+      <c r="BF101" s="23"/>
+      <c r="BG101" s="23"/>
+      <c r="BH101" s="23"/>
+      <c r="BI101" s="23"/>
+      <c r="BJ101" s="23"/>
+      <c r="BK101" s="23"/>
+      <c r="BL101" s="24"/>
+    </row>
+    <row r="102" spans="25:64">
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="23"/>
+      <c r="AD102" s="23"/>
+      <c r="AE102" s="23"/>
+      <c r="AF102" s="23"/>
+      <c r="AG102" s="23"/>
+      <c r="AH102" s="23"/>
+      <c r="AI102" s="23"/>
+      <c r="AJ102" s="23"/>
+      <c r="AK102" s="23"/>
+      <c r="AL102" s="23"/>
+      <c r="AM102" s="23"/>
+      <c r="AN102" s="23"/>
+      <c r="AO102" s="23"/>
+      <c r="AP102" s="23"/>
+      <c r="AQ102" s="23"/>
+      <c r="AR102" s="23"/>
+      <c r="AS102" s="23"/>
+      <c r="AT102" s="23"/>
+      <c r="AU102" s="23"/>
+      <c r="AV102" s="23"/>
+      <c r="AW102" s="23"/>
+      <c r="AX102" s="23"/>
+      <c r="AY102" s="23"/>
+      <c r="AZ102" s="23"/>
+      <c r="BA102" s="23"/>
+      <c r="BB102" s="23"/>
+      <c r="BC102" s="23"/>
+      <c r="BD102" s="23"/>
+      <c r="BE102" s="23"/>
+      <c r="BF102" s="23"/>
+      <c r="BG102" s="23"/>
+      <c r="BH102" s="23"/>
+      <c r="BI102" s="23"/>
+      <c r="BJ102" s="23"/>
+      <c r="BK102" s="23"/>
+      <c r="BL102" s="24"/>
+    </row>
+    <row r="103" spans="25:64">
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="23"/>
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="23"/>
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="23"/>
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="23"/>
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="23"/>
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="23"/>
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="23"/>
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="23"/>
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="24"/>
+    </row>
+    <row r="104" spans="25:64">
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="23"/>
+      <c r="AD104" s="23"/>
+      <c r="AE104" s="23"/>
+      <c r="AF104" s="23"/>
+      <c r="AG104" s="23"/>
+      <c r="AH104" s="23"/>
+      <c r="AI104" s="23"/>
+      <c r="AJ104" s="23"/>
+      <c r="AK104" s="23"/>
+      <c r="AL104" s="23"/>
+      <c r="AM104" s="23"/>
+      <c r="AN104" s="23"/>
+      <c r="AO104" s="23"/>
+      <c r="AP104" s="23"/>
+      <c r="AQ104" s="23"/>
+      <c r="AR104" s="23"/>
+      <c r="AS104" s="23"/>
+      <c r="AT104" s="23"/>
+      <c r="AU104" s="23"/>
+      <c r="AV104" s="23"/>
+      <c r="AW104" s="23"/>
+      <c r="AX104" s="23"/>
+      <c r="AY104" s="23"/>
+      <c r="AZ104" s="23"/>
+      <c r="BA104" s="23"/>
+      <c r="BB104" s="23"/>
+      <c r="BC104" s="23"/>
+      <c r="BD104" s="23"/>
+      <c r="BE104" s="23"/>
+      <c r="BF104" s="23"/>
+      <c r="BG104" s="23"/>
+      <c r="BH104" s="23"/>
+      <c r="BI104" s="23"/>
+      <c r="BJ104" s="23"/>
+      <c r="BK104" s="23"/>
+      <c r="BL104" s="24"/>
+    </row>
+    <row r="105" spans="25:64">
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="23"/>
+      <c r="AA105" s="23"/>
+      <c r="AB105" s="23"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="23"/>
+      <c r="AE105" s="23"/>
+      <c r="AF105" s="23"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="23"/>
+      <c r="AJ105" s="23"/>
+      <c r="AK105" s="23"/>
+      <c r="AL105" s="23"/>
+      <c r="AM105" s="23"/>
+      <c r="AN105" s="23"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="23"/>
+      <c r="AQ105" s="23"/>
+      <c r="AR105" s="23"/>
+      <c r="AS105" s="23"/>
+      <c r="AT105" s="23"/>
+      <c r="AU105" s="23"/>
+      <c r="AV105" s="23"/>
+      <c r="AW105" s="23"/>
+      <c r="AX105" s="23"/>
+      <c r="AY105" s="23"/>
+      <c r="AZ105" s="23"/>
+      <c r="BA105" s="23"/>
+      <c r="BB105" s="23"/>
+      <c r="BC105" s="23"/>
+      <c r="BD105" s="23"/>
+      <c r="BE105" s="23"/>
+      <c r="BF105" s="23"/>
+      <c r="BG105" s="23"/>
+      <c r="BH105" s="23"/>
+      <c r="BI105" s="23"/>
+      <c r="BJ105" s="23"/>
+      <c r="BK105" s="23"/>
+      <c r="BL105" s="24"/>
+    </row>
+    <row r="106" spans="25:64">
+      <c r="Y106" s="22"/>
+      <c r="Z106" s="23"/>
+      <c r="AA106" s="23"/>
+      <c r="AB106" s="23"/>
+      <c r="AC106" s="23"/>
+      <c r="AD106" s="23"/>
+      <c r="AE106" s="23"/>
+      <c r="AF106" s="23"/>
+      <c r="AG106" s="23"/>
+      <c r="AH106" s="23"/>
+      <c r="AI106" s="23"/>
+      <c r="AJ106" s="23"/>
+      <c r="AK106" s="23"/>
+      <c r="AL106" s="23"/>
+      <c r="AM106" s="23"/>
+      <c r="AN106" s="23"/>
+      <c r="AO106" s="23"/>
+      <c r="AP106" s="23"/>
+      <c r="AQ106" s="23"/>
+      <c r="AR106" s="23"/>
+      <c r="AS106" s="23"/>
+      <c r="AT106" s="23"/>
+      <c r="AU106" s="23"/>
+      <c r="AV106" s="23"/>
+      <c r="AW106" s="23"/>
+      <c r="AX106" s="23"/>
+      <c r="AY106" s="23"/>
+      <c r="AZ106" s="23"/>
+      <c r="BA106" s="23"/>
+      <c r="BB106" s="23"/>
+      <c r="BC106" s="23"/>
+      <c r="BD106" s="23"/>
+      <c r="BE106" s="23"/>
+      <c r="BF106" s="23"/>
+      <c r="BG106" s="23"/>
+      <c r="BH106" s="23"/>
+      <c r="BI106" s="23"/>
+      <c r="BJ106" s="23"/>
+      <c r="BK106" s="23"/>
+      <c r="BL106" s="24"/>
+    </row>
+    <row r="107" spans="25:64">
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="23"/>
+      <c r="AE107" s="23"/>
+      <c r="AF107" s="23"/>
+      <c r="AG107" s="23"/>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="23"/>
+      <c r="AJ107" s="23"/>
+      <c r="AK107" s="23"/>
+      <c r="AL107" s="23"/>
+      <c r="AM107" s="23"/>
+      <c r="AN107" s="23"/>
+      <c r="AO107" s="23"/>
+      <c r="AP107" s="23"/>
+      <c r="AQ107" s="23"/>
+      <c r="AR107" s="23"/>
+      <c r="AS107" s="23"/>
+      <c r="AT107" s="23"/>
+      <c r="AU107" s="23"/>
+      <c r="AV107" s="23"/>
+      <c r="AW107" s="23"/>
+      <c r="AX107" s="23"/>
+      <c r="AY107" s="23"/>
+      <c r="AZ107" s="23"/>
+      <c r="BA107" s="23"/>
+      <c r="BB107" s="23"/>
+      <c r="BC107" s="23"/>
+      <c r="BD107" s="23"/>
+      <c r="BE107" s="23"/>
+      <c r="BF107" s="23"/>
+      <c r="BG107" s="23"/>
+      <c r="BH107" s="23"/>
+      <c r="BI107" s="23"/>
+      <c r="BJ107" s="23"/>
+      <c r="BK107" s="23"/>
+      <c r="BL107" s="24"/>
+    </row>
+    <row r="108" spans="25:64">
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="23"/>
+      <c r="AA108" s="23"/>
+      <c r="AB108" s="23"/>
+      <c r="AC108" s="23"/>
+      <c r="AD108" s="23"/>
+      <c r="AE108" s="23"/>
+      <c r="AF108" s="23"/>
+      <c r="AG108" s="23"/>
+      <c r="AH108" s="23"/>
+      <c r="AI108" s="23"/>
+      <c r="AJ108" s="23"/>
+      <c r="AK108" s="23"/>
+      <c r="AL108" s="23"/>
+      <c r="AM108" s="23"/>
+      <c r="AN108" s="23"/>
+      <c r="AO108" s="23"/>
+      <c r="AP108" s="23"/>
+      <c r="AQ108" s="23"/>
+      <c r="AR108" s="23"/>
+      <c r="AS108" s="23"/>
+      <c r="AT108" s="23"/>
+      <c r="AU108" s="23"/>
+      <c r="AV108" s="23"/>
+      <c r="AW108" s="23"/>
+      <c r="AX108" s="23"/>
+      <c r="AY108" s="23"/>
+      <c r="AZ108" s="23"/>
+      <c r="BA108" s="23"/>
+      <c r="BB108" s="23"/>
+      <c r="BC108" s="23"/>
+      <c r="BD108" s="23"/>
+      <c r="BE108" s="23"/>
+      <c r="BF108" s="23"/>
+      <c r="BG108" s="23"/>
+      <c r="BH108" s="23"/>
+      <c r="BI108" s="23"/>
+      <c r="BJ108" s="23"/>
+      <c r="BK108" s="23"/>
+      <c r="BL108" s="24"/>
+    </row>
+    <row r="109" spans="25:64">
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="23"/>
+      <c r="AA109" s="23"/>
+      <c r="AB109" s="23"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="23"/>
+      <c r="AE109" s="23"/>
+      <c r="AF109" s="23"/>
+      <c r="AG109" s="23"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="23"/>
+      <c r="AJ109" s="23"/>
+      <c r="AK109" s="23"/>
+      <c r="AL109" s="23"/>
+      <c r="AM109" s="23"/>
+      <c r="AN109" s="23"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="23"/>
+      <c r="AQ109" s="23"/>
+      <c r="AR109" s="23"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="23"/>
+      <c r="AU109" s="23"/>
+      <c r="AV109" s="23"/>
+      <c r="AW109" s="23"/>
+      <c r="AX109" s="23"/>
+      <c r="AY109" s="23"/>
+      <c r="AZ109" s="23"/>
+      <c r="BA109" s="23"/>
+      <c r="BB109" s="23"/>
+      <c r="BC109" s="23"/>
+      <c r="BD109" s="23"/>
+      <c r="BE109" s="23"/>
+      <c r="BF109" s="23"/>
+      <c r="BG109" s="23"/>
+      <c r="BH109" s="23"/>
+      <c r="BI109" s="23"/>
+      <c r="BJ109" s="23"/>
+      <c r="BK109" s="23"/>
+      <c r="BL109" s="24"/>
+    </row>
+    <row r="110" spans="25:64">
+      <c r="Y110" s="22"/>
+      <c r="Z110" s="23"/>
+      <c r="AA110" s="23"/>
+      <c r="AB110" s="23"/>
+      <c r="AC110" s="23"/>
+      <c r="AD110" s="23"/>
+      <c r="AE110" s="23"/>
+      <c r="AF110" s="23"/>
+      <c r="AG110" s="23"/>
+      <c r="AH110" s="23"/>
+      <c r="AI110" s="23"/>
+      <c r="AJ110" s="23"/>
+      <c r="AK110" s="23"/>
+      <c r="AL110" s="23"/>
+      <c r="AM110" s="23"/>
+      <c r="AN110" s="23"/>
+      <c r="AO110" s="23"/>
+      <c r="AP110" s="23"/>
+      <c r="AQ110" s="23"/>
+      <c r="AR110" s="23"/>
+      <c r="AS110" s="23"/>
+      <c r="AT110" s="23"/>
+      <c r="AU110" s="23"/>
+      <c r="AV110" s="23"/>
+      <c r="AW110" s="23"/>
+      <c r="AX110" s="23"/>
+      <c r="AY110" s="23"/>
+      <c r="AZ110" s="23"/>
+      <c r="BA110" s="23"/>
+      <c r="BB110" s="23"/>
+      <c r="BC110" s="23"/>
+      <c r="BD110" s="23"/>
+      <c r="BE110" s="23"/>
+      <c r="BF110" s="23"/>
+      <c r="BG110" s="23"/>
+      <c r="BH110" s="23"/>
+      <c r="BI110" s="23"/>
+      <c r="BJ110" s="23"/>
+      <c r="BK110" s="23"/>
+      <c r="BL110" s="24"/>
+    </row>
+    <row r="111" spans="25:64">
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="23"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="23"/>
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="23"/>
+      <c r="AE111" s="23"/>
+      <c r="AF111" s="23"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="23"/>
+      <c r="AJ111" s="23"/>
+      <c r="AK111" s="23"/>
+      <c r="AL111" s="23"/>
+      <c r="AM111" s="23"/>
+      <c r="AN111" s="23"/>
+      <c r="AO111" s="23"/>
+      <c r="AP111" s="23"/>
+      <c r="AQ111" s="23"/>
+      <c r="AR111" s="23"/>
+      <c r="AS111" s="23"/>
+      <c r="AT111" s="23"/>
+      <c r="AU111" s="23"/>
+      <c r="AV111" s="23"/>
+      <c r="AW111" s="23"/>
+      <c r="AX111" s="23"/>
+      <c r="AY111" s="23"/>
+      <c r="AZ111" s="23"/>
+      <c r="BA111" s="23"/>
+      <c r="BB111" s="23"/>
+      <c r="BC111" s="23"/>
+      <c r="BD111" s="23"/>
+      <c r="BE111" s="23"/>
+      <c r="BF111" s="23"/>
+      <c r="BG111" s="23"/>
+      <c r="BH111" s="23"/>
+      <c r="BI111" s="23"/>
+      <c r="BJ111" s="23"/>
+      <c r="BK111" s="23"/>
+      <c r="BL111" s="24"/>
+    </row>
+    <row r="112" spans="25:64">
+      <c r="Y112" s="22"/>
+      <c r="Z112" s="23"/>
+      <c r="AA112" s="23"/>
+      <c r="AB112" s="23"/>
+      <c r="AC112" s="23"/>
+      <c r="AD112" s="23"/>
+      <c r="AE112" s="23"/>
+      <c r="AF112" s="23"/>
+      <c r="AG112" s="23"/>
+      <c r="AH112" s="23"/>
+      <c r="AI112" s="23"/>
+      <c r="AJ112" s="23"/>
+      <c r="AK112" s="23"/>
+      <c r="AL112" s="23"/>
+      <c r="AM112" s="23"/>
+      <c r="AN112" s="23"/>
+      <c r="AO112" s="23"/>
+      <c r="AP112" s="23"/>
+      <c r="AQ112" s="23"/>
+      <c r="AR112" s="23"/>
+      <c r="AS112" s="23"/>
+      <c r="AT112" s="23"/>
+      <c r="AU112" s="23"/>
+      <c r="AV112" s="23"/>
+      <c r="AW112" s="23"/>
+      <c r="AX112" s="23"/>
+      <c r="AY112" s="23"/>
+      <c r="AZ112" s="23"/>
+      <c r="BA112" s="23"/>
+      <c r="BB112" s="23"/>
+      <c r="BC112" s="23"/>
+      <c r="BD112" s="23"/>
+      <c r="BE112" s="23"/>
+      <c r="BF112" s="23"/>
+      <c r="BG112" s="23"/>
+      <c r="BH112" s="23"/>
+      <c r="BI112" s="23"/>
+      <c r="BJ112" s="23"/>
+      <c r="BK112" s="23"/>
+      <c r="BL112" s="24"/>
+    </row>
+    <row r="113" spans="25:64">
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="23"/>
+      <c r="AA113" s="23"/>
+      <c r="AB113" s="23"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="23"/>
+      <c r="AE113" s="23"/>
+      <c r="AF113" s="23"/>
+      <c r="AG113" s="23"/>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="23"/>
+      <c r="AJ113" s="23"/>
+      <c r="AK113" s="23"/>
+      <c r="AL113" s="23"/>
+      <c r="AM113" s="23"/>
+      <c r="AN113" s="23"/>
+      <c r="AO113" s="23"/>
+      <c r="AP113" s="23"/>
+      <c r="AQ113" s="23"/>
+      <c r="AR113" s="23"/>
+      <c r="AS113" s="23"/>
+      <c r="AT113" s="23"/>
+      <c r="AU113" s="23"/>
+      <c r="AV113" s="23"/>
+      <c r="AW113" s="23"/>
+      <c r="AX113" s="23"/>
+      <c r="AY113" s="23"/>
+      <c r="AZ113" s="23"/>
+      <c r="BA113" s="23"/>
+      <c r="BB113" s="23"/>
+      <c r="BC113" s="23"/>
+      <c r="BD113" s="23"/>
+      <c r="BE113" s="23"/>
+      <c r="BF113" s="23"/>
+      <c r="BG113" s="23"/>
+      <c r="BH113" s="23"/>
+      <c r="BI113" s="23"/>
+      <c r="BJ113" s="23"/>
+      <c r="BK113" s="23"/>
+      <c r="BL113" s="24"/>
+    </row>
+    <row r="114" spans="25:64">
+      <c r="Y114" s="22"/>
+      <c r="Z114" s="23"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="23"/>
+      <c r="AD114" s="23"/>
+      <c r="AE114" s="23"/>
+      <c r="AF114" s="23"/>
+      <c r="AG114" s="23"/>
+      <c r="AH114" s="23"/>
+      <c r="AI114" s="23"/>
+      <c r="AJ114" s="23"/>
+      <c r="AK114" s="23"/>
+      <c r="AL114" s="23"/>
+      <c r="AM114" s="23"/>
+      <c r="AN114" s="23"/>
+      <c r="AO114" s="23"/>
+      <c r="AP114" s="23"/>
+      <c r="AQ114" s="23"/>
+      <c r="AR114" s="23"/>
+      <c r="AS114" s="23"/>
+      <c r="AT114" s="23"/>
+      <c r="AU114" s="23"/>
+      <c r="AV114" s="23"/>
+      <c r="AW114" s="23"/>
+      <c r="AX114" s="23"/>
+      <c r="AY114" s="23"/>
+      <c r="AZ114" s="23"/>
+      <c r="BA114" s="23"/>
+      <c r="BB114" s="23"/>
+      <c r="BC114" s="23"/>
+      <c r="BD114" s="23"/>
+      <c r="BE114" s="23"/>
+      <c r="BF114" s="23"/>
+      <c r="BG114" s="23"/>
+      <c r="BH114" s="23"/>
+      <c r="BI114" s="23"/>
+      <c r="BJ114" s="23"/>
+      <c r="BK114" s="23"/>
+      <c r="BL114" s="24"/>
+    </row>
+    <row r="115" spans="25:64">
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="23"/>
+      <c r="AA115" s="23"/>
+      <c r="AB115" s="23"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="23"/>
+      <c r="AE115" s="23"/>
+      <c r="AF115" s="23"/>
+      <c r="AG115" s="23"/>
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="23"/>
+      <c r="AJ115" s="23"/>
+      <c r="AK115" s="23"/>
+      <c r="AL115" s="23"/>
+      <c r="AM115" s="23"/>
+      <c r="AN115" s="23"/>
+      <c r="AO115" s="23"/>
+      <c r="AP115" s="23"/>
+      <c r="AQ115" s="23"/>
+      <c r="AR115" s="23"/>
+      <c r="AS115" s="23"/>
+      <c r="AT115" s="23"/>
+      <c r="AU115" s="23"/>
+      <c r="AV115" s="23"/>
+      <c r="AW115" s="23"/>
+      <c r="AX115" s="23"/>
+      <c r="AY115" s="23"/>
+      <c r="AZ115" s="23"/>
+      <c r="BA115" s="23"/>
+      <c r="BB115" s="23"/>
+      <c r="BC115" s="23"/>
+      <c r="BD115" s="23"/>
+      <c r="BE115" s="23"/>
+      <c r="BF115" s="23"/>
+      <c r="BG115" s="23"/>
+      <c r="BH115" s="23"/>
+      <c r="BI115" s="23"/>
+      <c r="BJ115" s="23"/>
+      <c r="BK115" s="23"/>
+      <c r="BL115" s="24"/>
+    </row>
+    <row r="116" spans="25:64">
+      <c r="Y116" s="22"/>
+      <c r="Z116" s="23"/>
+      <c r="AA116" s="23"/>
+      <c r="AB116" s="23"/>
+      <c r="AC116" s="23"/>
+      <c r="AD116" s="23"/>
+      <c r="AE116" s="23"/>
+      <c r="AF116" s="23"/>
+      <c r="AG116" s="23"/>
+      <c r="AH116" s="23"/>
+      <c r="AI116" s="23"/>
+      <c r="AJ116" s="23"/>
+      <c r="AK116" s="23"/>
+      <c r="AL116" s="23"/>
+      <c r="AM116" s="23"/>
+      <c r="AN116" s="23"/>
+      <c r="AO116" s="23"/>
+      <c r="AP116" s="23"/>
+      <c r="AQ116" s="23"/>
+      <c r="AR116" s="23"/>
+      <c r="AS116" s="23"/>
+      <c r="AT116" s="23"/>
+      <c r="AU116" s="23"/>
+      <c r="AV116" s="23"/>
+      <c r="AW116" s="23"/>
+      <c r="AX116" s="23"/>
+      <c r="AY116" s="23"/>
+      <c r="AZ116" s="23"/>
+      <c r="BA116" s="23"/>
+      <c r="BB116" s="23"/>
+      <c r="BC116" s="23"/>
+      <c r="BD116" s="23"/>
+      <c r="BE116" s="23"/>
+      <c r="BF116" s="23"/>
+      <c r="BG116" s="23"/>
+      <c r="BH116" s="23"/>
+      <c r="BI116" s="23"/>
+      <c r="BJ116" s="23"/>
+      <c r="BK116" s="23"/>
+      <c r="BL116" s="24"/>
+    </row>
+    <row r="117" spans="25:64">
+      <c r="Y117" s="22"/>
+      <c r="Z117" s="23"/>
+      <c r="AA117" s="23"/>
+      <c r="AB117" s="23"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="23"/>
+      <c r="AE117" s="23"/>
+      <c r="AF117" s="23"/>
+      <c r="AG117" s="23"/>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="23"/>
+      <c r="AJ117" s="23"/>
+      <c r="AK117" s="23"/>
+      <c r="AL117" s="23"/>
+      <c r="AM117" s="23"/>
+      <c r="AN117" s="23"/>
+      <c r="AO117" s="23"/>
+      <c r="AP117" s="23"/>
+      <c r="AQ117" s="23"/>
+      <c r="AR117" s="23"/>
+      <c r="AS117" s="23"/>
+      <c r="AT117" s="23"/>
+      <c r="AU117" s="23"/>
+      <c r="AV117" s="23"/>
+      <c r="AW117" s="23"/>
+      <c r="AX117" s="23"/>
+      <c r="AY117" s="23"/>
+      <c r="AZ117" s="23"/>
+      <c r="BA117" s="23"/>
+      <c r="BB117" s="23"/>
+      <c r="BC117" s="23"/>
+      <c r="BD117" s="23"/>
+      <c r="BE117" s="23"/>
+      <c r="BF117" s="23"/>
+      <c r="BG117" s="23"/>
+      <c r="BH117" s="23"/>
+      <c r="BI117" s="23"/>
+      <c r="BJ117" s="23"/>
+      <c r="BK117" s="23"/>
+      <c r="BL117" s="24"/>
+    </row>
+    <row r="118" spans="25:64">
+      <c r="Y118" s="22"/>
+      <c r="Z118" s="23"/>
+      <c r="AA118" s="23"/>
+      <c r="AB118" s="23"/>
+      <c r="AC118" s="23"/>
+      <c r="AD118" s="23"/>
+      <c r="AE118" s="23"/>
+      <c r="AF118" s="23"/>
+      <c r="AG118" s="23"/>
+      <c r="AH118" s="23"/>
+      <c r="AI118" s="23"/>
+      <c r="AJ118" s="23"/>
+      <c r="AK118" s="23"/>
+      <c r="AL118" s="23"/>
+      <c r="AM118" s="23"/>
+      <c r="AN118" s="23"/>
+      <c r="AO118" s="23"/>
+      <c r="AP118" s="23"/>
+      <c r="AQ118" s="23"/>
+      <c r="AR118" s="23"/>
+      <c r="AS118" s="23"/>
+      <c r="AT118" s="23"/>
+      <c r="AU118" s="23"/>
+      <c r="AV118" s="23"/>
+      <c r="AW118" s="23"/>
+      <c r="AX118" s="23"/>
+      <c r="AY118" s="23"/>
+      <c r="AZ118" s="23"/>
+      <c r="BA118" s="23"/>
+      <c r="BB118" s="23"/>
+      <c r="BC118" s="23"/>
+      <c r="BD118" s="23"/>
+      <c r="BE118" s="23"/>
+      <c r="BF118" s="23"/>
+      <c r="BG118" s="23"/>
+      <c r="BH118" s="23"/>
+      <c r="BI118" s="23"/>
+      <c r="BJ118" s="23"/>
+      <c r="BK118" s="23"/>
+      <c r="BL118" s="24"/>
+    </row>
+    <row r="119" spans="25:64">
+      <c r="Y119" s="22"/>
+      <c r="Z119" s="23"/>
+      <c r="AA119" s="23"/>
+      <c r="AB119" s="23"/>
+      <c r="AC119" s="23"/>
+      <c r="AD119" s="23"/>
+      <c r="AE119" s="23"/>
+      <c r="AF119" s="23"/>
+      <c r="AG119" s="23"/>
+      <c r="AH119" s="23"/>
+      <c r="AI119" s="23"/>
+      <c r="AJ119" s="23"/>
+      <c r="AK119" s="23"/>
+      <c r="AL119" s="23"/>
+      <c r="AM119" s="23"/>
+      <c r="AN119" s="23"/>
+      <c r="AO119" s="23"/>
+      <c r="AP119" s="23"/>
+      <c r="AQ119" s="23"/>
+      <c r="AR119" s="23"/>
+      <c r="AS119" s="23"/>
+      <c r="AT119" s="23"/>
+      <c r="AU119" s="23"/>
+      <c r="AV119" s="23"/>
+      <c r="AW119" s="23"/>
+      <c r="AX119" s="23"/>
+      <c r="AY119" s="23"/>
+      <c r="AZ119" s="23"/>
+      <c r="BA119" s="23"/>
+      <c r="BB119" s="23"/>
+      <c r="BC119" s="23"/>
+      <c r="BD119" s="23"/>
+      <c r="BE119" s="23"/>
+      <c r="BF119" s="23"/>
+      <c r="BG119" s="23"/>
+      <c r="BH119" s="23"/>
+      <c r="BI119" s="23"/>
+      <c r="BJ119" s="23"/>
+      <c r="BK119" s="23"/>
+      <c r="BL119" s="24"/>
+    </row>
+    <row r="120" spans="25:64" ht="17" thickBot="1">
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="26"/>
+      <c r="AA120" s="26"/>
+      <c r="AB120" s="26"/>
+      <c r="AC120" s="26"/>
+      <c r="AD120" s="26"/>
+      <c r="AE120" s="26"/>
+      <c r="AF120" s="26"/>
+      <c r="AG120" s="26"/>
+      <c r="AH120" s="26"/>
+      <c r="AI120" s="26"/>
+      <c r="AJ120" s="26"/>
+      <c r="AK120" s="26"/>
+      <c r="AL120" s="26"/>
+      <c r="AM120" s="26"/>
+      <c r="AN120" s="26"/>
+      <c r="AO120" s="26"/>
+      <c r="AP120" s="26"/>
+      <c r="AQ120" s="26"/>
+      <c r="AR120" s="26"/>
+      <c r="AS120" s="26"/>
+      <c r="AT120" s="26"/>
+      <c r="AU120" s="26"/>
+      <c r="AV120" s="26"/>
+      <c r="AW120" s="26"/>
+      <c r="AX120" s="26"/>
+      <c r="AY120" s="26"/>
+      <c r="AZ120" s="26"/>
+      <c r="BA120" s="26"/>
+      <c r="BB120" s="26"/>
+      <c r="BC120" s="26"/>
+      <c r="BD120" s="26"/>
+      <c r="BE120" s="26"/>
+      <c r="BF120" s="26"/>
+      <c r="BG120" s="26"/>
+      <c r="BH120" s="26"/>
+      <c r="BI120" s="26"/>
+      <c r="BJ120" s="26"/>
+      <c r="BK120" s="26"/>
+      <c r="BL120" s="27"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AT16:AY17 AT15 AT18 AN20:AN21 W1:BJ1 AL4:AL6 W39:BJ40 W2:W38 AL12 AL21:AM21 AM2:BJ6 AX19:AY19 AX14:AY14 AW13:AY13 BA7:BJ24 AM22:AZ24 Y2:AK6 AG12:AK21 Y7:AE24 AF22:AK24 AO14:AR20 AM8:AN11 AT8:AZ8 AO9:AS13 AF8:AK10 AG11:AL11 AO21:AS21 AT20:AY21 AU9:AZ10 AT11:AY12 AM25:BJ25 BE26:BJ38 AB27:BD38 Y25:AK25 Y26:AA38 AM26:BD26 AB26:AK26">
+    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y81:BL120">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15:AX15">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU18:AX18">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19:AW19">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14:AW14">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT13:AV13">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/prep/characters8bit.xlsx
+++ b/prep/characters8bit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C020844C-48A3-DA4D-8EE7-61FBF626635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91534985-8F94-894C-9B97-823746360930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29200" yWindow="3460" windowWidth="24640" windowHeight="16500" activeTab="1" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
   </bookViews>
@@ -5611,7 +5611,7 @@
   <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5656,7 +5656,7 @@
       <c r="AE1" s="13"/>
       <c r="AG1">
         <f>SUM(B1:AE20)</f>
-        <v>194</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -5997,13 +5997,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -6045,13 +6045,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -6093,13 +6093,13 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -6141,13 +6141,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -6189,13 +6189,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -6235,13 +6235,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -6276,24 +6276,24 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -6328,24 +6328,24 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -6380,24 +6380,24 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -6407,13 +6407,13 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z20" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -6438,24 +6438,24 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -6465,13 +6465,13 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z21" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA21" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -6496,24 +6496,24 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -6523,13 +6523,13 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z22" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA22" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -6554,24 +6554,24 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -6581,13 +6581,13 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA23" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -6612,24 +6612,24 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -6639,13 +6639,13 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -6670,46 +6670,46 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -6734,46 +6734,46 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V26" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA26" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -6798,46 +6798,46 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V27" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA27" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -6862,46 +6862,46 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V28" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -6926,46 +6926,46 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -6990,46 +6990,46 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z30" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA30" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -7054,46 +7054,46 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z31" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA31" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -7118,46 +7118,46 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U32" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V32" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z32" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA32" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -7182,46 +7182,46 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z33" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA33" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -7246,46 +7246,46 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U34" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V34" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
@@ -7310,46 +7310,46 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U35" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
@@ -7374,46 +7374,46 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V36" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z36" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>

--- a/prep/characters8bit.xlsx
+++ b/prep/characters8bit.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91534985-8F94-894C-9B97-823746360930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A43F0D-5180-5249-97C2-9C18D7959D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29200" yWindow="3460" windowWidth="24640" windowHeight="16500" activeTab="1" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
+    <workbookView xWindow="3840" yWindow="460" windowWidth="18960" windowHeight="13900" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="letters" sheetId="1" r:id="rId1"/>
     <sheet name="bar_chart" sheetId="2" r:id="rId2"/>
     <sheet name="family" sheetId="5" r:id="rId3"/>
     <sheet name="cookie" sheetId="6" r:id="rId4"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -574,27 +574,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="110">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.89996032593768116"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1214,6 +1193,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478EC196-EA3D-0B42-9BCE-C9EAFA77170C}">
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AN38" sqref="AN38"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AV43" sqref="AV43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4937,7 +4937,9 @@
       <c r="AL34" s="1">
         <v>1</v>
       </c>
-      <c r="AM34" s="1"/>
+      <c r="AM34" s="1">
+        <v>1</v>
+      </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="2"/>
       <c r="AP34" s="3"/>
@@ -5026,9 +5028,7 @@
       <c r="AM35" s="4">
         <v>1</v>
       </c>
-      <c r="AN35" s="4">
-        <v>1</v>
-      </c>
+      <c r="AN35" s="4"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="6"/>
       <c r="AQ35" s="4"/>
@@ -5115,7 +5115,9 @@
       </c>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
+      <c r="AM36" s="4">
+        <v>1</v>
+      </c>
       <c r="AN36" s="4">
         <v>1</v>
       </c>
@@ -5202,10 +5204,10 @@
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="5">
-        <v>1</v>
-      </c>
+      <c r="AN37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="5"/>
       <c r="AP37" s="6"/>
       <c r="AQ37" s="4"/>
       <c r="AR37" s="4"/>
@@ -5276,10 +5278,10 @@
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="5">
-        <v>1</v>
-      </c>
+      <c r="AN38" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="5"/>
       <c r="AP38" s="6"/>
       <c r="AQ38" s="4"/>
       <c r="AR38" s="4"/>
@@ -5353,19 +5355,35 @@
       </c>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
+      <c r="AM39" s="4">
+        <v>1</v>
+      </c>
       <c r="AN39" s="4">
         <v>1</v>
       </c>
       <c r="AO39" s="5"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
+      <c r="AP39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="4">
+        <v>1</v>
+      </c>
       <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="5"/>
+      <c r="AV39" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW39" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:49">
       <c r="A40" t="s">
@@ -5438,18 +5456,30 @@
       <c r="AM40" s="4">
         <v>1</v>
       </c>
-      <c r="AN40" s="4">
-        <v>1</v>
-      </c>
+      <c r="AN40" s="4"/>
       <c r="AO40" s="5"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
+      <c r="AP40" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="4">
+        <v>1</v>
+      </c>
       <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="5"/>
+      <c r="AV40" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:49">
       <c r="A41" t="s">
@@ -5493,7 +5523,9 @@
       <c r="AL41" s="7">
         <v>1</v>
       </c>
-      <c r="AM41" s="7"/>
+      <c r="AM41" s="7">
+        <v>1</v>
+      </c>
       <c r="AN41" s="7"/>
       <c r="AO41" s="8"/>
       <c r="AP41" s="9"/>
@@ -5610,7 +5642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E5D1B-61DD-7541-B70F-39B12913C18D}">
   <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -7555,13 +7587,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:AE40">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="27" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12108,54 +12140,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W1:BJ40">
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y81:BL120">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16294,54 +16326,54 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W1:BJ40">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y81:BL120">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20542,184 +20574,184 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AT16:AY17 AT15 AT18 AN20:AN21 W1:BJ1 AL4:AL6 W39:BJ40 W2:W38 AL12 AL21:AM21 AM2:BJ6 AX19:AY19 AX14:AY14 AW13:AY13 BA7:BJ24 AM22:AZ24 Y2:AK6 AG12:AK21 Y7:AE24 AF22:AK24 AO14:AR20 AM8:AN11 AT8:AZ8 AO9:AS13 AF8:AK10 AG11:AL11 AO21:AS21 AT20:AY21 AU9:AZ10 AT11:AY12 AM25:BJ25 BE26:BJ38 AB27:BD38 Y25:AK25 Y26:AA38 AM26:BD26 AB26:AK26">
-    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="62" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y81:BL120">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU15:AX15">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU18:AX18">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT19:AW19">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="29" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT14:AW14">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT13:AV13">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/prep/characters8bit.xlsx
+++ b/prep/characters8bit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/github/my-patch-of-the-web/prep/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A43F0D-5180-5249-97C2-9C18D7959D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0494F9B5-7130-EE48-AF2F-1DA42B5AFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="460" windowWidth="18960" windowHeight="13900" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
+    <workbookView xWindow="-31200" yWindow="2800" windowWidth="25620" windowHeight="15240" activeTab="1" xr2:uid="{B2589E65-E8B1-364E-A64F-D98FD440D3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="letters" sheetId="1" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-0.89996032593768116"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1207,7 +1207,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="2" tint="-0.89996032593768116"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1667,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478EC196-EA3D-0B42-9BCE-C9EAFA77170C}">
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AV43" sqref="AV43"/>
     </sheetView>
   </sheetViews>
@@ -5640,18 +5640,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E5D1B-61DD-7541-B70F-39B12913C18D}">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="31" width="3.83203125" style="10" customWidth="1"/>
+    <col min="2" max="41" width="3.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:43">
       <c r="A1">
         <f>13*8*8</f>
         <v>832</v>
@@ -5685,17 +5685,25 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
       <c r="AD1" s="12"/>
-      <c r="AE1" s="13"/>
-      <c r="AG1">
-        <f>SUM(B1:AE20)</f>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="13"/>
+      <c r="AQ1">
+        <f>SUM(B1:AO20)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="B2" s="14"/>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5723,136 +5731,174 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="15"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="15"/>
+    </row>
+    <row r="3" spans="1:43">
       <c r="B3" s="14"/>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>3</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="15"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="15"/>
+    </row>
+    <row r="4" spans="1:43">
       <c r="B4" s="14"/>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-      <c r="R4" s="1">
-        <v>3</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="15"/>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="15"/>
+    </row>
+    <row r="5" spans="1:43">
       <c r="B5" s="14"/>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3</v>
-      </c>
-      <c r="S5" s="1">
-        <v>3</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="S5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="15"/>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="15"/>
+    </row>
+    <row r="6" spans="1:43">
       <c r="B6" s="14"/>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="N6" s="1">
-        <v>3</v>
-      </c>
-      <c r="T6" s="1">
-        <v>3</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="15"/>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="15"/>
+    </row>
+    <row r="7" spans="1:43">
       <c r="B7" s="14"/>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="M7" s="1">
-        <v>3</v>
-      </c>
-      <c r="U7" s="1">
-        <v>3</v>
-      </c>
+      <c r="M7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="15"/>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="15"/>
+    </row>
+    <row r="8" spans="1:43">
       <c r="B8" s="14"/>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5867,9 +5913,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1">
-        <v>3</v>
-      </c>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5878,23 +5922,33 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="15"/>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="15"/>
+    </row>
+    <row r="9" spans="1:43">
       <c r="B9" s="14"/>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -5910,9 +5964,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="1">
-        <v>3</v>
-      </c>
+      <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -5920,13 +5972,29 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="15"/>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="15"/>
+    </row>
+    <row r="10" spans="1:43">
       <c r="B10" s="14"/>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>1</v>
@@ -5937,7 +6005,9 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -5953,22 +6023,36 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1">
-        <v>3</v>
-      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="15"/>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="15"/>
+    </row>
+    <row r="11" spans="1:43">
       <c r="B11" s="14"/>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>1</v>
@@ -5979,16 +6063,15 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -5996,21 +6079,35 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1">
-        <v>3</v>
-      </c>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="15"/>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="15"/>
+    </row>
+    <row r="12" spans="1:43">
       <c r="B12" s="14"/>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>1</v>
@@ -6021,22 +6118,16 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1">
-        <v>5</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>5</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -6045,20 +6136,33 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1">
-        <v>3</v>
-      </c>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="15"/>
+    </row>
+    <row r="13" spans="1:43">
       <c r="B13" s="14"/>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <v>1</v>
@@ -6069,22 +6173,16 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>5</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -6094,19 +6192,32 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="1">
-        <v>3</v>
-      </c>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="15"/>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="15"/>
+    </row>
+    <row r="14" spans="1:43">
       <c r="B14" s="14"/>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <v>1</v>
@@ -6117,25 +6228,27 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1">
-        <v>5</v>
-      </c>
+      <c r="O14" s="1"/>
       <c r="Q14" s="1">
-        <v>5</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3</v>
+      </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -6143,18 +6256,31 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1">
-        <v>3</v>
-      </c>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="15"/>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="15"/>
+    </row>
+    <row r="15" spans="1:43">
       <c r="B15" s="14"/>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>1</v>
@@ -6165,25 +6291,27 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1">
-        <v>5</v>
-      </c>
-      <c r="P15" s="1">
-        <v>5</v>
-      </c>
+      <c r="O15" s="1"/>
       <c r="Q15" s="1">
-        <v>5</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3</v>
+      </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -6192,17 +6320,30 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="15"/>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AC15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="15"/>
+    </row>
+    <row r="16" spans="1:43">
       <c r="B16" s="14"/>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
         <v>1</v>
@@ -6213,25 +6354,27 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1">
-        <v>5</v>
-      </c>
-      <c r="P16" s="1">
-        <v>5</v>
-      </c>
+      <c r="O16" s="1"/>
       <c r="Q16" s="1">
-        <v>5</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>3</v>
+      </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -6241,14 +6384,29 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="15"/>
-    </row>
-    <row r="17" spans="2:31">
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="15"/>
+    </row>
+    <row r="17" spans="2:41">
       <c r="B17" s="14"/>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
         <v>1</v>
@@ -6259,25 +6417,27 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1">
-        <v>5</v>
-      </c>
-      <c r="P17" s="1">
-        <v>5</v>
-      </c>
+      <c r="O17" s="1"/>
       <c r="Q17" s="1">
-        <v>5</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>3</v>
+      </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -6287,14 +6447,29 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="15"/>
-    </row>
-    <row r="18" spans="2:31">
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="15"/>
+    </row>
+    <row r="18" spans="2:41">
       <c r="B18" s="14"/>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
         <v>1</v>
@@ -6305,31 +6480,27 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-      <c r="K18" s="1">
-        <v>4</v>
-      </c>
-      <c r="L18" s="1">
-        <v>4</v>
-      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>5</v>
-      </c>
-      <c r="P18" s="1">
-        <v>5</v>
-      </c>
+      <c r="O18" s="1"/>
       <c r="Q18" s="1">
-        <v>5</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3</v>
+      </c>
+      <c r="T18" s="1">
+        <v>3</v>
+      </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -6339,14 +6510,29 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="15"/>
-    </row>
-    <row r="19" spans="2:31">
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="15"/>
+    </row>
+    <row r="19" spans="2:41">
       <c r="B19" s="14"/>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>1</v>
@@ -6357,31 +6543,27 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4</v>
-      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1">
-        <v>5</v>
-      </c>
-      <c r="P19" s="1">
-        <v>5</v>
-      </c>
+      <c r="O19" s="1"/>
       <c r="Q19" s="1">
-        <v>5</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>3</v>
+      </c>
+      <c r="T19" s="1">
+        <v>3</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -6391,14 +6573,29 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="15"/>
-    </row>
-    <row r="20" spans="2:31">
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="15"/>
+    </row>
+    <row r="20" spans="2:41">
       <c r="B20" s="14"/>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>1</v>
@@ -6409,54 +6606,74 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
       <c r="K20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1">
-        <v>4</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1">
-        <v>5</v>
-      </c>
-      <c r="P20" s="1">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1"/>
       <c r="Q20" s="1">
-        <v>5</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1">
+        <v>3</v>
+      </c>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="15"/>
-    </row>
-    <row r="21" spans="2:31">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AC20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="15"/>
+    </row>
+    <row r="21" spans="2:41">
       <c r="B21" s="14"/>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
         <v>1</v>
@@ -6467,54 +6684,74 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
       <c r="K21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <v>5</v>
-      </c>
-      <c r="P21" s="1">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1"/>
       <c r="Q21" s="1">
-        <v>5</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3</v>
+      </c>
+      <c r="S21" s="1">
+        <v>3</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3</v>
+      </c>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="15"/>
-    </row>
-    <row r="22" spans="2:31">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AC21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="15"/>
+    </row>
+    <row r="22" spans="2:41">
       <c r="B22" s="14"/>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
         <v>1</v>
@@ -6525,54 +6762,74 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
       <c r="K22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <v>5</v>
-      </c>
-      <c r="P22" s="1">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1"/>
       <c r="Q22" s="1">
-        <v>5</v>
-      </c>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3</v>
+      </c>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="15"/>
-    </row>
-    <row r="23" spans="2:31">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AC22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="15"/>
+    </row>
+    <row r="23" spans="2:41">
       <c r="B23" s="14"/>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
         <v>1</v>
@@ -6583,54 +6840,74 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
       <c r="K23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L23" s="1">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1">
-        <v>5</v>
-      </c>
-      <c r="P23" s="1">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1"/>
       <c r="Q23" s="1">
-        <v>5</v>
-      </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>3</v>
+      </c>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="15"/>
-    </row>
-    <row r="24" spans="2:31">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AC23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="15"/>
+    </row>
+    <row r="24" spans="2:41">
       <c r="B24" s="14"/>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>1</v>
@@ -6641,54 +6918,74 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <v>4</v>
-      </c>
       <c r="K24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L24" s="1">
-        <v>4</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1">
-        <v>5</v>
-      </c>
-      <c r="P24" s="1">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1"/>
       <c r="Q24" s="1">
-        <v>5</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3</v>
+      </c>
+      <c r="S24" s="1">
+        <v>3</v>
+      </c>
+      <c r="T24" s="1">
+        <v>3</v>
+      </c>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="15"/>
-    </row>
-    <row r="25" spans="2:31">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AC24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="15"/>
+    </row>
+    <row r="25" spans="2:41">
       <c r="B25" s="14"/>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
         <v>1</v>
@@ -6699,60 +6996,82 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1"/>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1">
+        <v>3</v>
+      </c>
+      <c r="T25" s="1">
+        <v>3</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="W25" s="1">
         <v>4</v>
       </c>
-      <c r="K25" s="1">
+      <c r="X25" s="1">
         <v>4</v>
       </c>
-      <c r="L25" s="1">
+      <c r="Y25" s="1">
         <v>4</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1">
+      <c r="Z25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AC25" s="1">
         <v>5</v>
       </c>
-      <c r="P25" s="1">
+      <c r="AD25" s="1">
         <v>5</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="AE25" s="1">
         <v>5</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1">
+      <c r="AF25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1">
         <v>6</v>
       </c>
-      <c r="U25" s="1">
+      <c r="AJ25" s="1">
         <v>6</v>
       </c>
-      <c r="V25" s="1">
+      <c r="AK25" s="1">
         <v>6</v>
       </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="15"/>
-    </row>
-    <row r="26" spans="2:31">
+      <c r="AL25" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="15"/>
+    </row>
+    <row r="26" spans="2:41">
       <c r="B26" s="14"/>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
         <v>1</v>
@@ -6763,60 +7082,82 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="Q26" s="1">
+        <v>3</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3</v>
+      </c>
+      <c r="S26" s="1">
+        <v>3</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="W26" s="1">
         <v>4</v>
       </c>
-      <c r="K26" s="1">
+      <c r="X26" s="1">
         <v>4</v>
       </c>
-      <c r="L26" s="1">
+      <c r="Y26" s="1">
         <v>4</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1">
+      <c r="Z26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AC26" s="1">
         <v>5</v>
       </c>
-      <c r="P26" s="1">
+      <c r="AD26" s="1">
         <v>5</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="AE26" s="1">
         <v>5</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1">
+      <c r="AF26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1">
         <v>6</v>
       </c>
-      <c r="U26" s="1">
+      <c r="AJ26" s="1">
         <v>6</v>
       </c>
-      <c r="V26" s="1">
+      <c r="AK26" s="1">
         <v>6</v>
       </c>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="15"/>
-    </row>
-    <row r="27" spans="2:31">
+      <c r="AL26" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="15"/>
+    </row>
+    <row r="27" spans="2:41">
       <c r="B27" s="14"/>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>1</v>
@@ -6827,60 +7168,82 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>3</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="W27" s="1">
         <v>4</v>
       </c>
-      <c r="K27" s="1">
+      <c r="X27" s="1">
         <v>4</v>
       </c>
-      <c r="L27" s="1">
+      <c r="Y27" s="1">
         <v>4</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
+      <c r="Z27" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AC27" s="1">
         <v>5</v>
       </c>
-      <c r="P27" s="1">
+      <c r="AD27" s="1">
         <v>5</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="AE27" s="1">
         <v>5</v>
       </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1">
+      <c r="AF27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1">
         <v>6</v>
       </c>
-      <c r="U27" s="1">
+      <c r="AJ27" s="1">
         <v>6</v>
       </c>
-      <c r="V27" s="1">
+      <c r="AK27" s="1">
         <v>6</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="15"/>
-    </row>
-    <row r="28" spans="2:31">
+      <c r="AL27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="15"/>
+    </row>
+    <row r="28" spans="2:41">
       <c r="B28" s="14"/>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
         <v>1</v>
@@ -6891,60 +7254,82 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1">
+        <v>3</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="W28" s="1">
         <v>4</v>
       </c>
-      <c r="K28" s="1">
+      <c r="X28" s="1">
         <v>4</v>
       </c>
-      <c r="L28" s="1">
+      <c r="Y28" s="1">
         <v>4</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1">
+      <c r="Z28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AC28" s="1">
         <v>5</v>
       </c>
-      <c r="P28" s="1">
+      <c r="AD28" s="1">
         <v>5</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="AE28" s="1">
         <v>5</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1">
+      <c r="AF28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1">
         <v>6</v>
       </c>
-      <c r="U28" s="1">
+      <c r="AJ28" s="1">
         <v>6</v>
       </c>
-      <c r="V28" s="1">
+      <c r="AK28" s="1">
         <v>6</v>
       </c>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="15"/>
-    </row>
-    <row r="29" spans="2:31">
+      <c r="AL28" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="15"/>
+    </row>
+    <row r="29" spans="2:41">
       <c r="B29" s="14"/>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <v>1</v>
@@ -6955,60 +7340,82 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="Q29" s="1">
+        <v>3</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>3</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="W29" s="1">
         <v>4</v>
       </c>
-      <c r="K29" s="1">
+      <c r="X29" s="1">
         <v>4</v>
       </c>
-      <c r="L29" s="1">
+      <c r="Y29" s="1">
         <v>4</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1">
+      <c r="Z29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AC29" s="1">
         <v>5</v>
       </c>
-      <c r="P29" s="1">
+      <c r="AD29" s="1">
         <v>5</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="AE29" s="1">
         <v>5</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1">
+      <c r="AF29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1">
         <v>6</v>
       </c>
-      <c r="U29" s="1">
+      <c r="AJ29" s="1">
         <v>6</v>
       </c>
-      <c r="V29" s="1">
+      <c r="AK29" s="1">
         <v>6</v>
       </c>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="15"/>
-    </row>
-    <row r="30" spans="2:31">
+      <c r="AL29" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="15"/>
+    </row>
+    <row r="30" spans="2:41">
       <c r="B30" s="14"/>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <v>1</v>
@@ -7019,60 +7426,82 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="Q30" s="1">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1">
+        <v>3</v>
+      </c>
+      <c r="T30" s="1">
+        <v>3</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="W30" s="1">
         <v>4</v>
       </c>
-      <c r="K30" s="1">
+      <c r="X30" s="1">
         <v>4</v>
       </c>
-      <c r="L30" s="1">
+      <c r="Y30" s="1">
         <v>4</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1">
+      <c r="Z30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AC30" s="1">
         <v>5</v>
       </c>
-      <c r="P30" s="1">
+      <c r="AD30" s="1">
         <v>5</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="AE30" s="1">
         <v>5</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1">
+      <c r="AF30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1">
         <v>6</v>
       </c>
-      <c r="U30" s="1">
+      <c r="AJ30" s="1">
         <v>6</v>
       </c>
-      <c r="V30" s="1">
+      <c r="AK30" s="1">
         <v>6</v>
       </c>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="15"/>
-    </row>
-    <row r="31" spans="2:31">
+      <c r="AL30" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="15"/>
+    </row>
+    <row r="31" spans="2:41">
       <c r="B31" s="14"/>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
         <v>1</v>
@@ -7083,60 +7512,82 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1">
+        <v>3</v>
+      </c>
+      <c r="T31" s="1">
+        <v>3</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="W31" s="1">
         <v>4</v>
       </c>
-      <c r="K31" s="1">
+      <c r="X31" s="1">
         <v>4</v>
       </c>
-      <c r="L31" s="1">
+      <c r="Y31" s="1">
         <v>4</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1">
+      <c r="Z31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AC31" s="1">
         <v>5</v>
       </c>
-      <c r="P31" s="1">
+      <c r="AD31" s="1">
         <v>5</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="AE31" s="1">
         <v>5</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1">
+      <c r="AF31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1">
         <v>6</v>
       </c>
-      <c r="U31" s="1">
+      <c r="AJ31" s="1">
         <v>6</v>
       </c>
-      <c r="V31" s="1">
+      <c r="AK31" s="1">
         <v>6</v>
       </c>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="15"/>
-    </row>
-    <row r="32" spans="2:31">
+      <c r="AL31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="15"/>
+    </row>
+    <row r="32" spans="2:41">
       <c r="B32" s="14"/>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <v>1</v>
@@ -7147,60 +7598,82 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="Q32" s="1">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>3</v>
+      </c>
+      <c r="T32" s="1">
+        <v>3</v>
+      </c>
+      <c r="U32" s="1"/>
+      <c r="W32" s="1">
         <v>4</v>
       </c>
-      <c r="K32" s="1">
+      <c r="X32" s="1">
         <v>4</v>
       </c>
-      <c r="L32" s="1">
+      <c r="Y32" s="1">
         <v>4</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1">
+      <c r="Z32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AC32" s="1">
         <v>5</v>
       </c>
-      <c r="P32" s="1">
+      <c r="AD32" s="1">
         <v>5</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="AE32" s="1">
         <v>5</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1">
+      <c r="AF32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1">
         <v>6</v>
       </c>
-      <c r="U32" s="1">
+      <c r="AJ32" s="1">
         <v>6</v>
       </c>
-      <c r="V32" s="1">
+      <c r="AK32" s="1">
         <v>6</v>
       </c>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="15"/>
-    </row>
-    <row r="33" spans="2:31">
+      <c r="AL32" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="15"/>
+    </row>
+    <row r="33" spans="2:41">
       <c r="B33" s="14"/>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
         <v>1</v>
@@ -7211,60 +7684,82 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
       <c r="I33" s="1"/>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="Q33" s="1">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1">
+        <v>3</v>
+      </c>
+      <c r="T33" s="1">
+        <v>3</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="W33" s="1">
         <v>4</v>
       </c>
-      <c r="K33" s="1">
+      <c r="X33" s="1">
         <v>4</v>
       </c>
-      <c r="L33" s="1">
+      <c r="Y33" s="1">
         <v>4</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1">
+      <c r="Z33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AC33" s="1">
         <v>5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="AD33" s="1">
         <v>5</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="AE33" s="1">
         <v>5</v>
       </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1">
+      <c r="AF33" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1">
         <v>6</v>
       </c>
-      <c r="U33" s="1">
+      <c r="AJ33" s="1">
         <v>6</v>
       </c>
-      <c r="V33" s="1">
+      <c r="AK33" s="1">
         <v>6</v>
       </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="15"/>
-    </row>
-    <row r="34" spans="2:31">
+      <c r="AL33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="15"/>
+    </row>
+    <row r="34" spans="2:41">
       <c r="B34" s="14"/>
-      <c r="C34" s="1">
-        <v>2</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
         <v>1</v>
@@ -7275,60 +7770,82 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="Q34" s="1">
+        <v>3</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1">
+        <v>3</v>
+      </c>
+      <c r="T34" s="1">
+        <v>3</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="W34" s="1">
         <v>4</v>
       </c>
-      <c r="K34" s="1">
+      <c r="X34" s="1">
         <v>4</v>
       </c>
-      <c r="L34" s="1">
+      <c r="Y34" s="1">
         <v>4</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1">
+      <c r="Z34" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AC34" s="1">
         <v>5</v>
       </c>
-      <c r="P34" s="1">
+      <c r="AD34" s="1">
         <v>5</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="AE34" s="1">
         <v>5</v>
       </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1">
+      <c r="AF34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1">
         <v>6</v>
       </c>
-      <c r="U34" s="1">
+      <c r="AJ34" s="1">
         <v>6</v>
       </c>
-      <c r="V34" s="1">
+      <c r="AK34" s="1">
         <v>6</v>
       </c>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="15"/>
-    </row>
-    <row r="35" spans="2:31">
+      <c r="AL34" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="15"/>
+    </row>
+    <row r="35" spans="2:41">
       <c r="B35" s="14"/>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
         <v>1</v>
@@ -7339,60 +7856,82 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="Q35" s="1">
+        <v>3</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3</v>
+      </c>
+      <c r="S35" s="1">
+        <v>3</v>
+      </c>
+      <c r="T35" s="1">
+        <v>3</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="W35" s="1">
         <v>4</v>
       </c>
-      <c r="K35" s="1">
+      <c r="X35" s="1">
         <v>4</v>
       </c>
-      <c r="L35" s="1">
+      <c r="Y35" s="1">
         <v>4</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1">
+      <c r="Z35" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AC35" s="1">
         <v>5</v>
       </c>
-      <c r="P35" s="1">
+      <c r="AD35" s="1">
         <v>5</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="AE35" s="1">
         <v>5</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1">
+      <c r="AF35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1">
         <v>6</v>
       </c>
-      <c r="U35" s="1">
+      <c r="AJ35" s="1">
         <v>6</v>
       </c>
-      <c r="V35" s="1">
+      <c r="AK35" s="1">
         <v>6</v>
       </c>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z35" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="15"/>
-    </row>
-    <row r="36" spans="2:31">
+      <c r="AL35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="15"/>
+    </row>
+    <row r="36" spans="2:41">
       <c r="B36" s="14"/>
-      <c r="C36" s="1">
-        <v>2</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
         <v>1</v>
@@ -7403,157 +7942,153 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
       <c r="I36" s="1"/>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="Q36" s="1">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <v>3</v>
+      </c>
+      <c r="S36" s="1">
+        <v>3</v>
+      </c>
+      <c r="T36" s="1">
+        <v>3</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="W36" s="1">
         <v>4</v>
       </c>
-      <c r="K36" s="1">
+      <c r="X36" s="1">
         <v>4</v>
       </c>
-      <c r="L36" s="1">
+      <c r="Y36" s="1">
         <v>4</v>
       </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1">
+      <c r="Z36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AC36" s="1">
         <v>5</v>
       </c>
-      <c r="P36" s="1">
+      <c r="AD36" s="1">
         <v>5</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="AE36" s="1">
         <v>5</v>
       </c>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1">
+      <c r="AF36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1">
         <v>6</v>
       </c>
-      <c r="U36" s="1">
+      <c r="AJ36" s="1">
         <v>6</v>
       </c>
-      <c r="V36" s="1">
+      <c r="AK36" s="1">
         <v>6</v>
       </c>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>7</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>7</v>
-      </c>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="15"/>
-    </row>
-    <row r="37" spans="2:31">
+      <c r="AL36" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="15"/>
+    </row>
+    <row r="37" spans="2:41">
       <c r="B37" s="14"/>
-      <c r="C37" s="30">
-        <v>2</v>
-      </c>
+      <c r="C37" s="30"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="15"/>
-    </row>
-    <row r="38" spans="2:31">
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="15"/>
+    </row>
+    <row r="38" spans="2:41">
       <c r="B38" s="14"/>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="K38" s="1">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1">
-        <v>2</v>
-      </c>
-      <c r="N38" s="1">
-        <v>2</v>
-      </c>
-      <c r="O38" s="1">
-        <v>2</v>
-      </c>
-      <c r="P38" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>2</v>
-      </c>
-      <c r="R38" s="1">
-        <v>2</v>
-      </c>
-      <c r="S38" s="1">
-        <v>2</v>
-      </c>
-      <c r="T38" s="1">
-        <v>2</v>
-      </c>
-      <c r="U38" s="1">
-        <v>2</v>
-      </c>
-      <c r="V38" s="1">
-        <v>2</v>
-      </c>
-      <c r="W38" s="1">
-        <v>2</v>
-      </c>
-      <c r="X38" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE38" s="15"/>
-    </row>
-    <row r="39" spans="2:31">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="15"/>
+    </row>
+    <row r="39" spans="2:41">
       <c r="B39" s="14"/>
       <c r="AD39" s="1"/>
-      <c r="AE39" s="15"/>
-    </row>
-    <row r="40" spans="2:31" ht="17" thickBot="1">
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="15"/>
+    </row>
+    <row r="40" spans="2:41" ht="17" thickBot="1">
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -7583,18 +8118,28 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
-      <c r="AE40" s="18"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:AE40">
-    <cfRule type="cellIs" dxfId="90" priority="27" operator="equal">
-      <formula>3</formula>
+  <conditionalFormatting sqref="B1:AO3 B37:AO40 B11:I36 K11:O36 R11:AH11 U20:U36 U12:AC19 Q12:T36 W20:AA36 AC20:AO36 AE12:AH19 B4:AH10 AI4:AO19">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="88" priority="27" operator="equal">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7606,7 +8151,7 @@
   <dimension ref="A1:BL120"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z77" sqref="Z77"/>
+      <selection activeCell="W1" sqref="W1:BJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12204,7 +12749,7 @@
   <dimension ref="B1:BL120"/>
   <sheetViews>
     <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+      <selection activeCell="AC4" sqref="AC4:AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16387,7 +16932,7 @@
   <dimension ref="A1:BL120"/>
   <sheetViews>
     <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BI22" sqref="BI22"/>
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
